--- a/Tennis/WTA Tour/Ana Ivanović.xlsx
+++ b/Tennis/WTA Tour/Ana Ivanović.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8545" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3FB1BF69-A73A-4D9E-AF54-B943E344AF09}"/>
+  <xr:revisionPtr revIDLastSave="8560" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{13A22EEE-B6B4-4064-B3BD-4D636A866282}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="9" activeTab="14" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="11" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2003" sheetId="25" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3332" uniqueCount="662">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3328" uniqueCount="661">
   <si>
     <t>Semifinal</t>
   </si>
@@ -1341,9 +1341,6 @@
     <t>6-1 7-6(5)</t>
   </si>
   <si>
-    <t>MUTUA MADRID OPEN</t>
-  </si>
-  <si>
     <t>Kai-Lung Chang (CHINESE TAIPEI)</t>
   </si>
   <si>
@@ -1542,9 +1539,6 @@
     <t>Mona Barthel (GERMANY)</t>
   </si>
   <si>
-    <t>6-4, 6-1</t>
-  </si>
-  <si>
     <t>Mathilde Johansson (FRANCE)</t>
   </si>
   <si>
@@ -2035,6 +2029,9 @@
   </si>
   <si>
     <t>7-6(4) 6-1</t>
+  </si>
+  <si>
+    <t>MADRID OPEN</t>
   </si>
 </sst>
 </file>
@@ -3432,7 +3429,7 @@
                   <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>19</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>16</c:v>
@@ -3971,7 +3968,7 @@
                   <c:v>0.7068965517241379</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.32142857142857145</c:v>
+                  <c:v>0.35714285714285715</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>-6.6666666666666666E-2</c:v>
@@ -5775,21 +5772,21 @@
   </sheetPr>
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -5809,7 +5806,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -5829,7 +5826,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>49</v>
       </c>
@@ -5843,7 +5840,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>50</v>
       </c>
@@ -5857,7 +5854,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -5871,7 +5868,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>51</v>
       </c>
@@ -5891,7 +5888,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>49</v>
       </c>
@@ -5905,7 +5902,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>52</v>
       </c>
@@ -5925,7 +5922,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>49</v>
       </c>
@@ -5939,7 +5936,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>50</v>
       </c>
@@ -5953,7 +5950,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>0</v>
       </c>
@@ -5967,7 +5964,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>53</v>
       </c>
@@ -5987,7 +5984,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>49</v>
       </c>
@@ -6001,7 +5998,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>50</v>
       </c>
@@ -6015,7 +6012,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>0</v>
       </c>
@@ -6029,7 +6026,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -6056,21 +6053,21 @@
   </sheetPr>
   <dimension ref="A1:F79"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="D78" sqref="D78"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -6090,7 +6087,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>389</v>
       </c>
@@ -6110,7 +6107,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>49</v>
       </c>
@@ -6121,10 +6118,10 @@
         <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>218</v>
       </c>
@@ -6144,7 +6141,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>158</v>
       </c>
@@ -6155,7 +6152,7 @@
         <v>159</v>
       </c>
       <c r="D7" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>10</v>
@@ -6164,7 +6161,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>98</v>
       </c>
@@ -6178,7 +6175,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>48</v>
       </c>
@@ -6192,7 +6189,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>49</v>
       </c>
@@ -6203,10 +6200,10 @@
         <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>163</v>
       </c>
@@ -6217,16 +6214,16 @@
         <v>98</v>
       </c>
       <c r="D12" t="s">
+        <v>487</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
         <v>488</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>48</v>
       </c>
@@ -6240,7 +6237,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>167</v>
       </c>
@@ -6257,10 +6254,10 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>49</v>
       </c>
@@ -6274,7 +6271,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>50</v>
       </c>
@@ -6288,7 +6285,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>228</v>
       </c>
@@ -6299,7 +6296,7 @@
         <v>98</v>
       </c>
       <c r="D19" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>10</v>
@@ -6308,21 +6305,21 @@
         <v>106</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>48</v>
       </c>
       <c r="D20" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>49</v>
       </c>
@@ -6336,7 +6333,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>50</v>
       </c>
@@ -6350,7 +6347,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>0</v>
       </c>
@@ -6361,10 +6358,10 @@
         <v>9</v>
       </c>
       <c r="F23" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>177</v>
       </c>
@@ -6384,7 +6381,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>48</v>
       </c>
@@ -6395,10 +6392,10 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>49</v>
       </c>
@@ -6409,12 +6406,12 @@
         <v>9</v>
       </c>
       <c r="F27" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>492</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>493</v>
       </c>
       <c r="B29" t="s">
         <v>8</v>
@@ -6429,7 +6426,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D30" t="s">
         <v>397</v>
       </c>
@@ -6437,10 +6434,10 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>207</v>
       </c>
@@ -6451,7 +6448,7 @@
         <v>48</v>
       </c>
       <c r="D32" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>9</v>
@@ -6460,9 +6457,9 @@
         <v>245</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>430</v>
+        <v>660</v>
       </c>
       <c r="B34" t="s">
         <v>33</v>
@@ -6471,7 +6468,7 @@
         <v>98</v>
       </c>
       <c r="D34" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>10</v>
@@ -6480,7 +6477,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>48</v>
       </c>
@@ -6494,7 +6491,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>49</v>
       </c>
@@ -6508,7 +6505,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>188</v>
       </c>
@@ -6528,12 +6525,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>48</v>
       </c>
       <c r="D39" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>10</v>
@@ -6542,7 +6539,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>49</v>
       </c>
@@ -6553,10 +6550,10 @@
         <v>9</v>
       </c>
       <c r="F40" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>192</v>
       </c>
@@ -6567,7 +6564,7 @@
         <v>159</v>
       </c>
       <c r="D42" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>10</v>
@@ -6576,7 +6573,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>98</v>
       </c>
@@ -6590,7 +6587,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>48</v>
       </c>
@@ -6601,10 +6598,10 @@
         <v>9</v>
       </c>
       <c r="F44" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>195</v>
       </c>
@@ -6624,7 +6621,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>98</v>
       </c>
@@ -6635,10 +6632,10 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>48</v>
       </c>
@@ -6649,10 +6646,10 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>49</v>
       </c>
@@ -6666,9 +6663,9 @@
         <v>165</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B51" t="s">
         <v>88</v>
@@ -6677,7 +6674,7 @@
         <v>98</v>
       </c>
       <c r="D51" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>10</v>
@@ -6686,21 +6683,21 @@
         <v>172</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>48</v>
       </c>
       <c r="D52" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>49</v>
       </c>
@@ -6714,7 +6711,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>199</v>
       </c>
@@ -6734,7 +6731,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>100</v>
       </c>
@@ -6745,7 +6742,7 @@
         <v>159</v>
       </c>
       <c r="D57" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>10</v>
@@ -6754,7 +6751,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>98</v>
       </c>
@@ -6768,21 +6765,21 @@
         <v>90</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>48</v>
       </c>
       <c r="D59" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>49</v>
       </c>
@@ -6793,10 +6790,10 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>50</v>
       </c>
@@ -6810,7 +6807,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>222</v>
       </c>
@@ -6821,21 +6818,21 @@
         <v>98</v>
       </c>
       <c r="D63" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>48</v>
       </c>
       <c r="D64" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>9</v>
@@ -6844,7 +6841,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>377</v>
       </c>
@@ -6855,7 +6852,7 @@
         <v>98</v>
       </c>
       <c r="D66" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>10</v>
@@ -6864,26 +6861,26 @@
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>48</v>
       </c>
       <c r="D67" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>49</v>
       </c>
       <c r="D68" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>9</v>
@@ -6892,7 +6889,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>216</v>
       </c>
@@ -6903,7 +6900,7 @@
         <v>48</v>
       </c>
       <c r="D70" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>10</v>
@@ -6912,12 +6909,12 @@
         <v>212</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>49</v>
       </c>
       <c r="D71" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>10</v>
@@ -6926,12 +6923,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>50</v>
       </c>
       <c r="D72" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>9</v>
@@ -6940,7 +6937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>381</v>
       </c>
@@ -6951,7 +6948,7 @@
         <v>49</v>
       </c>
       <c r="D74" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>10</v>
@@ -6960,12 +6957,12 @@
         <v>107</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>50</v>
       </c>
       <c r="D75" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>10</v>
@@ -6974,7 +6971,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>0</v>
       </c>
@@ -6988,9 +6985,9 @@
         <v>118</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B78" t="s">
         <v>8</v>
@@ -7005,7 +7002,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D79" t="s">
         <v>373</v>
       </c>
@@ -7090,21 +7087,21 @@
   </sheetPr>
   <dimension ref="A1:F83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -7124,7 +7121,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>158</v>
       </c>
@@ -7144,21 +7141,21 @@
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>98</v>
       </c>
       <c r="D3" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>48</v>
       </c>
@@ -7172,7 +7169,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>49</v>
       </c>
@@ -7186,9 +7183,9 @@
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -7197,7 +7194,7 @@
         <v>48</v>
       </c>
       <c r="D7" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>9</v>
@@ -7206,7 +7203,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>163</v>
       </c>
@@ -7226,21 +7223,21 @@
         <v>106</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>48</v>
       </c>
       <c r="D10" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>49</v>
       </c>
@@ -7251,10 +7248,10 @@
         <v>9</v>
       </c>
       <c r="F11" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>167</v>
       </c>
@@ -7271,10 +7268,10 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>49</v>
       </c>
@@ -7285,10 +7282,10 @@
         <v>9</v>
       </c>
       <c r="F14" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>228</v>
       </c>
@@ -7299,7 +7296,7 @@
         <v>98</v>
       </c>
       <c r="D16" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>10</v>
@@ -7308,21 +7305,21 @@
         <v>106</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>48</v>
       </c>
       <c r="D17" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F17" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>177</v>
       </c>
@@ -7333,7 +7330,7 @@
         <v>98</v>
       </c>
       <c r="D19" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>10</v>
@@ -7342,7 +7339,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>48</v>
       </c>
@@ -7356,7 +7353,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>49</v>
       </c>
@@ -7367,12 +7364,12 @@
         <v>9</v>
       </c>
       <c r="F21" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B23" t="s">
         <v>8</v>
@@ -7381,7 +7378,7 @@
         <v>48</v>
       </c>
       <c r="D23" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>10</v>
@@ -7390,21 +7387,21 @@
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>49</v>
       </c>
       <c r="D24" t="s">
+        <v>533</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" t="s">
         <v>535</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F24" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>207</v>
       </c>
@@ -7415,7 +7412,7 @@
         <v>48</v>
       </c>
       <c r="D26" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>10</v>
@@ -7424,7 +7421,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>49</v>
       </c>
@@ -7438,7 +7435,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>50</v>
       </c>
@@ -7452,9 +7449,9 @@
         <v>363</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>430</v>
+        <v>660</v>
       </c>
       <c r="B30" t="s">
         <v>33</v>
@@ -7463,21 +7460,21 @@
         <v>98</v>
       </c>
       <c r="D30" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>48</v>
       </c>
       <c r="D31" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>10</v>
@@ -7486,26 +7483,26 @@
         <v>90</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>49</v>
       </c>
       <c r="D32" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>50</v>
       </c>
       <c r="D33" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>10</v>
@@ -7514,7 +7511,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>0</v>
       </c>
@@ -7528,7 +7525,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>188</v>
       </c>
@@ -7539,16 +7536,16 @@
         <v>98</v>
       </c>
       <c r="D36" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F36" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>192</v>
       </c>
@@ -7559,21 +7556,21 @@
         <v>159</v>
       </c>
       <c r="D38" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>98</v>
       </c>
       <c r="D39" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>10</v>
@@ -7582,7 +7579,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>48</v>
       </c>
@@ -7596,7 +7593,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>49</v>
       </c>
@@ -7607,10 +7604,10 @@
         <v>9</v>
       </c>
       <c r="F41" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>404</v>
       </c>
@@ -7627,10 +7624,10 @@
         <v>9</v>
       </c>
       <c r="F43" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>195</v>
       </c>
@@ -7647,15 +7644,15 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>98</v>
       </c>
       <c r="D46" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>9</v>
@@ -7664,9 +7661,9 @@
         <v>115</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B48" t="s">
         <v>8</v>
@@ -7681,15 +7678,15 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>49</v>
       </c>
       <c r="D49" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>10</v>
@@ -7698,7 +7695,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>50</v>
       </c>
@@ -7709,10 +7706,10 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>0</v>
       </c>
@@ -7723,10 +7720,10 @@
         <v>9</v>
       </c>
       <c r="F51" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>199</v>
       </c>
@@ -7737,7 +7734,7 @@
         <v>98</v>
       </c>
       <c r="D53" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>10</v>
@@ -7746,7 +7743,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>48</v>
       </c>
@@ -7760,7 +7757,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>49</v>
       </c>
@@ -7771,10 +7768,10 @@
         <v>9</v>
       </c>
       <c r="F55" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>409</v>
       </c>
@@ -7791,10 +7788,10 @@
         <v>9</v>
       </c>
       <c r="F57" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>100</v>
       </c>
@@ -7805,7 +7802,7 @@
         <v>159</v>
       </c>
       <c r="D59" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>10</v>
@@ -7814,12 +7811,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>98</v>
       </c>
       <c r="D60" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>10</v>
@@ -7828,21 +7825,21 @@
         <v>128</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>48</v>
       </c>
       <c r="D61" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>49</v>
       </c>
@@ -7856,7 +7853,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>222</v>
       </c>
@@ -7867,7 +7864,7 @@
         <v>98</v>
       </c>
       <c r="D64" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>10</v>
@@ -7876,12 +7873,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>48</v>
       </c>
       <c r="D65" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>10</v>
@@ -7890,12 +7887,12 @@
         <v>221</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>49</v>
       </c>
       <c r="D66" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>9</v>
@@ -7904,7 +7901,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>377</v>
       </c>
@@ -7921,15 +7918,15 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>48</v>
       </c>
       <c r="D69" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>9</v>
@@ -7938,7 +7935,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>216</v>
       </c>
@@ -7949,7 +7946,7 @@
         <v>48</v>
       </c>
       <c r="D71" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>10</v>
@@ -7958,7 +7955,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>49</v>
       </c>
@@ -7972,7 +7969,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>50</v>
       </c>
@@ -7986,12 +7983,12 @@
         <v>104</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>0</v>
       </c>
       <c r="D74" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>10</v>
@@ -8000,12 +7997,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>15</v>
       </c>
       <c r="D75" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>9</v>
@@ -8014,7 +8011,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>381</v>
       </c>
@@ -8034,7 +8031,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>50</v>
       </c>
@@ -8048,9 +8045,9 @@
         <v>298</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B80" t="s">
         <v>8</v>
@@ -8068,7 +8065,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>16</v>
       </c>
@@ -8079,10 +8076,10 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="82" spans="3:6" x14ac:dyDescent="0.25">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="82" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>16</v>
       </c>
@@ -8093,21 +8090,21 @@
         <v>9</v>
       </c>
       <c r="F82" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="83" spans="3:6" x14ac:dyDescent="0.25">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="83" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>0</v>
       </c>
       <c r="D83" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F83" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
   </sheetData>
@@ -8118,17 +8115,17 @@
   <conditionalFormatting sqref="C7">
     <cfRule type="duplicateValues" dxfId="73" priority="24"/>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C10">
+    <cfRule type="duplicateValues" dxfId="72" priority="22"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="duplicateValues" dxfId="72" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="23"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C10">
-    <cfRule type="duplicateValues" dxfId="71" priority="22"/>
+  <conditionalFormatting sqref="C13">
+    <cfRule type="duplicateValues" dxfId="70" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14">
-    <cfRule type="duplicateValues" dxfId="70" priority="21"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C13">
-    <cfRule type="duplicateValues" dxfId="69" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
     <cfRule type="duplicateValues" dxfId="68" priority="19"/>
@@ -8139,53 +8136,53 @@
   <conditionalFormatting sqref="C21">
     <cfRule type="duplicateValues" dxfId="66" priority="17"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C23:D23 F23:F24">
-    <cfRule type="duplicateValues" dxfId="65" priority="16"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C24">
-    <cfRule type="duplicateValues" dxfId="64" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26">
-    <cfRule type="duplicateValues" dxfId="63" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27">
-    <cfRule type="duplicateValues" dxfId="62" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31">
-    <cfRule type="duplicateValues" dxfId="61" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32">
-    <cfRule type="duplicateValues" dxfId="60" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40:C41">
-    <cfRule type="duplicateValues" dxfId="59" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C43">
-    <cfRule type="duplicateValues" dxfId="58" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48">
-    <cfRule type="duplicateValues" dxfId="57" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C49">
-    <cfRule type="duplicateValues" dxfId="56" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C54:C55">
-    <cfRule type="duplicateValues" dxfId="55" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C61:C62">
-    <cfRule type="duplicateValues" dxfId="54" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C65:C66">
-    <cfRule type="duplicateValues" dxfId="53" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C69">
-    <cfRule type="duplicateValues" dxfId="52" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71:C72">
-    <cfRule type="duplicateValues" dxfId="51" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C77">
-    <cfRule type="duplicateValues" dxfId="50" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23:D23 F23:F24">
+    <cfRule type="duplicateValues" dxfId="50" priority="16"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -8199,21 +8196,21 @@
   </sheetPr>
   <dimension ref="A1:F99"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -8233,9 +8230,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -8244,21 +8241,21 @@
         <v>48</v>
       </c>
       <c r="D2" t="s">
+        <v>567</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
         <v>569</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>49</v>
       </c>
       <c r="D3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>10</v>
@@ -8267,12 +8264,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>50</v>
       </c>
       <c r="D4" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>10</v>
@@ -8281,12 +8278,12 @@
         <v>146</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>10</v>
@@ -8295,7 +8292,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>15</v>
       </c>
@@ -8306,10 +8303,10 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>158</v>
       </c>
@@ -8320,7 +8317,7 @@
         <v>159</v>
       </c>
       <c r="D8" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>10</v>
@@ -8329,12 +8326,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>98</v>
       </c>
       <c r="D9" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>10</v>
@@ -8343,7 +8340,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>48</v>
       </c>
@@ -8354,10 +8351,10 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>49</v>
       </c>
@@ -8368,24 +8365,24 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>50</v>
       </c>
       <c r="D12" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F12" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>163</v>
       </c>
@@ -8402,10 +8399,10 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>48</v>
       </c>
@@ -8416,10 +8413,10 @@
         <v>9</v>
       </c>
       <c r="F15" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>167</v>
       </c>
@@ -8430,16 +8427,16 @@
         <v>48</v>
       </c>
       <c r="D17" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>49</v>
       </c>
@@ -8453,7 +8450,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>228</v>
       </c>
@@ -8464,21 +8461,21 @@
         <v>98</v>
       </c>
       <c r="D20" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>48</v>
       </c>
       <c r="D21" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>9</v>
@@ -8487,7 +8484,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>177</v>
       </c>
@@ -8498,7 +8495,7 @@
         <v>98</v>
       </c>
       <c r="D23" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>10</v>
@@ -8507,7 +8504,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>48</v>
       </c>
@@ -8521,7 +8518,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>49</v>
       </c>
@@ -8532,12 +8529,12 @@
         <v>9</v>
       </c>
       <c r="F25" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B27" t="s">
         <v>8</v>
@@ -8546,21 +8543,21 @@
         <v>48</v>
       </c>
       <c r="D27" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>49</v>
       </c>
       <c r="D28" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>10</v>
@@ -8569,7 +8566,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>50</v>
       </c>
@@ -8580,10 +8577,10 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>0</v>
       </c>
@@ -8594,15 +8591,15 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>15</v>
       </c>
       <c r="D31" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>10</v>
@@ -8611,7 +8608,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>207</v>
       </c>
@@ -8622,7 +8619,7 @@
         <v>48</v>
       </c>
       <c r="D33" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>10</v>
@@ -8631,7 +8628,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>49</v>
       </c>
@@ -8642,24 +8639,24 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>50</v>
       </c>
       <c r="D35" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>0</v>
       </c>
@@ -8673,7 +8670,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>15</v>
       </c>
@@ -8687,9 +8684,9 @@
         <v>139</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>430</v>
+        <v>660</v>
       </c>
       <c r="B39" t="s">
         <v>33</v>
@@ -8698,21 +8695,21 @@
         <v>98</v>
       </c>
       <c r="D39" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>48</v>
       </c>
       <c r="D40" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>10</v>
@@ -8721,7 +8718,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>49</v>
       </c>
@@ -8735,12 +8732,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>50</v>
       </c>
       <c r="D42" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>9</v>
@@ -8749,7 +8746,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>188</v>
       </c>
@@ -8760,7 +8757,7 @@
         <v>98</v>
       </c>
       <c r="D44" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>10</v>
@@ -8769,7 +8766,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>48</v>
       </c>
@@ -8780,10 +8777,10 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>49</v>
       </c>
@@ -8797,12 +8794,12 @@
         <v>107</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>50</v>
       </c>
       <c r="D47" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>10</v>
@@ -8811,7 +8808,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>0</v>
       </c>
@@ -8825,7 +8822,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>192</v>
       </c>
@@ -8836,7 +8833,7 @@
         <v>159</v>
       </c>
       <c r="D50" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>10</v>
@@ -8845,12 +8842,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>98</v>
       </c>
       <c r="D51" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>10</v>
@@ -8859,7 +8856,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>48</v>
       </c>
@@ -8873,7 +8870,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>97</v>
       </c>
@@ -8884,7 +8881,7 @@
         <v>48</v>
       </c>
       <c r="D54" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>10</v>
@@ -8893,12 +8890,12 @@
         <v>86</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>49</v>
       </c>
       <c r="D55" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>10</v>
@@ -8907,7 +8904,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>50</v>
       </c>
@@ -8921,12 +8918,12 @@
         <v>107</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>0</v>
       </c>
       <c r="D57" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>10</v>
@@ -8935,12 +8932,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>15</v>
       </c>
       <c r="D58" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>10</v>
@@ -8949,7 +8946,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>195</v>
       </c>
@@ -8969,7 +8966,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>98</v>
       </c>
@@ -8983,23 +8980,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>48</v>
       </c>
       <c r="D62" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F62" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B64" t="s">
         <v>8</v>
@@ -9008,21 +9005,21 @@
         <v>48</v>
       </c>
       <c r="D64" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>49</v>
       </c>
       <c r="D65" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>10</v>
@@ -9031,7 +9028,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>50</v>
       </c>
@@ -9042,10 +9039,10 @@
         <v>9</v>
       </c>
       <c r="F66" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>199</v>
       </c>
@@ -9065,21 +9062,21 @@
         <v>106</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>48</v>
       </c>
       <c r="D69" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F69" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>409</v>
       </c>
@@ -9096,15 +9093,15 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>48</v>
       </c>
       <c r="D72" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>10</v>
@@ -9113,7 +9110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>49</v>
       </c>
@@ -9124,15 +9121,15 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>50</v>
       </c>
       <c r="D74" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>10</v>
@@ -9141,7 +9138,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>0</v>
       </c>
@@ -9152,10 +9149,10 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>15</v>
       </c>
@@ -9169,7 +9166,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>100</v>
       </c>
@@ -9180,7 +9177,7 @@
         <v>159</v>
       </c>
       <c r="D78" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>10</v>
@@ -9189,12 +9186,12 @@
         <v>221</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>98</v>
       </c>
       <c r="D79" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="E79" s="3" t="s">
         <v>9</v>
@@ -9203,7 +9200,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>222</v>
       </c>
@@ -9223,7 +9220,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>50</v>
       </c>
@@ -9237,12 +9234,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>0</v>
       </c>
       <c r="D83" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>10</v>
@@ -9251,7 +9248,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
         <v>15</v>
       </c>
@@ -9262,12 +9259,12 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B86" t="s">
         <v>8</v>
@@ -9282,10 +9279,10 @@
         <v>9</v>
       </c>
       <c r="F86" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>377</v>
       </c>
@@ -9296,7 +9293,7 @@
         <v>98</v>
       </c>
       <c r="D88" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>10</v>
@@ -9305,12 +9302,12 @@
         <v>128</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C89" t="s">
         <v>48</v>
       </c>
       <c r="D89" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>10</v>
@@ -9319,12 +9316,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C90" t="s">
         <v>49</v>
       </c>
       <c r="D90" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>10</v>
@@ -9333,12 +9330,12 @@
         <v>173</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C91" t="s">
         <v>50</v>
       </c>
       <c r="D91" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="E91" s="7" t="s">
         <v>10</v>
@@ -9347,7 +9344,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C92" t="s">
         <v>0</v>
       </c>
@@ -9358,10 +9355,10 @@
         <v>9</v>
       </c>
       <c r="F92" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>216</v>
       </c>
@@ -9381,12 +9378,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C95" t="s">
         <v>49</v>
       </c>
       <c r="D95" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="E95" s="7" t="s">
         <v>201</v>
@@ -9395,7 +9392,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>28</v>
       </c>
@@ -9415,26 +9412,26 @@
         <v>36</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C98" t="s">
         <v>16</v>
       </c>
       <c r="D98" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C99" t="s">
         <v>16</v>
       </c>
       <c r="D99" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>10</v>
@@ -9507,17 +9504,17 @@
   <conditionalFormatting sqref="C81">
     <cfRule type="duplicateValues" dxfId="29" priority="5"/>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C89">
+    <cfRule type="duplicateValues" dxfId="28" priority="3"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C90">
-    <cfRule type="duplicateValues" dxfId="28" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C89">
-    <cfRule type="duplicateValues" dxfId="27" priority="3"/>
+  <conditionalFormatting sqref="C94">
+    <cfRule type="duplicateValues" dxfId="26" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C95">
-    <cfRule type="duplicateValues" dxfId="26" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C94">
-    <cfRule type="duplicateValues" dxfId="25" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -9529,23 +9526,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F67"/>
+  <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="E66" activeCellId="17" sqref="E5 E7 E10 E15 E18 E21 E23 E27 E29 E36 E38 E41 E45 E48 E50 E57 E63 E66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -9565,7 +9562,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>389</v>
       </c>
@@ -9582,29 +9579,29 @@
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>50</v>
       </c>
       <c r="D3" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>10</v>
@@ -9613,7 +9610,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>15</v>
       </c>
@@ -9624,10 +9621,10 @@
         <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>158</v>
       </c>
@@ -9644,10 +9641,10 @@
         <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>167</v>
       </c>
@@ -9658,7 +9655,7 @@
         <v>48</v>
       </c>
       <c r="D9" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>10</v>
@@ -9667,23 +9664,23 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>49</v>
       </c>
       <c r="D10" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
@@ -9698,10 +9695,10 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>49</v>
       </c>
@@ -9715,12 +9712,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>50</v>
       </c>
       <c r="D14" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>10</v>
@@ -9729,12 +9726,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>9</v>
@@ -9743,7 +9740,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>228</v>
       </c>
@@ -9754,7 +9751,7 @@
         <v>98</v>
       </c>
       <c r="D17" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>10</v>
@@ -9763,21 +9760,21 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>48</v>
       </c>
       <c r="D18" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F18" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>177</v>
       </c>
@@ -9788,21 +9785,21 @@
         <v>98</v>
       </c>
       <c r="D20" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>48</v>
       </c>
       <c r="D21" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>9</v>
@@ -9811,7 +9808,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>207</v>
       </c>
@@ -9822,7 +9819,7 @@
         <v>48</v>
       </c>
       <c r="D23" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>9</v>
@@ -9831,9 +9828,9 @@
         <v>240</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>430</v>
+        <v>660</v>
       </c>
       <c r="B25" t="s">
         <v>33</v>
@@ -9842,21 +9839,21 @@
         <v>98</v>
       </c>
       <c r="D25" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>48</v>
       </c>
       <c r="D26" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>10</v>
@@ -9865,21 +9862,21 @@
         <v>68</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>49</v>
       </c>
       <c r="D27" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F27" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>188</v>
       </c>
@@ -9890,16 +9887,16 @@
         <v>48</v>
       </c>
       <c r="D29" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F29" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>192</v>
       </c>
@@ -9916,29 +9913,29 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>98</v>
       </c>
       <c r="D32" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>48</v>
       </c>
       <c r="D33" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>10</v>
@@ -9947,26 +9944,26 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>49</v>
       </c>
       <c r="D34" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>50</v>
       </c>
       <c r="D35" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>10</v>
@@ -9975,7 +9972,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>0</v>
       </c>
@@ -9989,7 +9986,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>97</v>
       </c>
@@ -10000,16 +9997,16 @@
         <v>98</v>
       </c>
       <c r="D38" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F38" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>195</v>
       </c>
@@ -10020,7 +10017,7 @@
         <v>159</v>
       </c>
       <c r="D40" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>10</v>
@@ -10029,12 +10026,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>98</v>
       </c>
       <c r="D41" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>9</v>
@@ -10043,7 +10040,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>199</v>
       </c>
@@ -10060,15 +10057,15 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>49</v>
       </c>
       <c r="D44" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>10</v>
@@ -10077,12 +10074,12 @@
         <v>146</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>50</v>
       </c>
       <c r="D45" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>9</v>
@@ -10091,7 +10088,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>409</v>
       </c>
@@ -10099,256 +10096,242 @@
         <v>8</v>
       </c>
       <c r="C47" t="s">
+        <v>49</v>
+      </c>
+      <c r="D47" t="s">
+        <v>479</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F47" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C48" t="s">
+        <v>50</v>
+      </c>
+      <c r="D48" t="s">
+        <v>32</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F48" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>100</v>
+      </c>
+      <c r="B50" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" t="s">
+        <v>159</v>
+      </c>
+      <c r="D50" t="s">
+        <v>382</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F50" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>222</v>
+      </c>
+      <c r="B52" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" t="s">
+        <v>49</v>
+      </c>
+      <c r="D52" t="s">
+        <v>627</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F52" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C53" t="s">
+        <v>50</v>
+      </c>
+      <c r="D53" t="s">
+        <v>382</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F53" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>602</v>
+      </c>
+      <c r="B55" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" t="s">
+        <v>98</v>
+      </c>
+      <c r="D55" t="s">
+        <v>556</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F55" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C56" t="s">
         <v>48</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D56" t="s">
+        <v>605</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F56" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C57" t="s">
+        <v>49</v>
+      </c>
+      <c r="D57" t="s">
+        <v>628</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F57" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>377</v>
+      </c>
+      <c r="B59" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" t="s">
+        <v>98</v>
+      </c>
+      <c r="D59" t="s">
+        <v>281</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F59" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C60" t="s">
+        <v>48</v>
+      </c>
+      <c r="D60" t="s">
         <v>328</v>
       </c>
-      <c r="E47" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F47" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C48" t="s">
+      <c r="E60" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F60" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C61" t="s">
         <v>49</v>
       </c>
-      <c r="D48" t="s">
-        <v>480</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F48" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C49" t="s">
+      <c r="D61" t="s">
+        <v>314</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F61" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C62" t="s">
         <v>50</v>
       </c>
-      <c r="D49" t="s">
-        <v>32</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F49" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>100</v>
-      </c>
-      <c r="B51" t="s">
+      <c r="D62" t="s">
+        <v>397</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F62" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C63" t="s">
+        <v>0</v>
+      </c>
+      <c r="D63" t="s">
+        <v>418</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F63" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>138</v>
+      </c>
+      <c r="B65" t="s">
         <v>8</v>
       </c>
-      <c r="C51" t="s">
-        <v>159</v>
-      </c>
-      <c r="D51" t="s">
-        <v>382</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F51" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>222</v>
-      </c>
-      <c r="B53" t="s">
-        <v>8</v>
-      </c>
-      <c r="C53" t="s">
+      <c r="C65" t="s">
+        <v>48</v>
+      </c>
+      <c r="D65" t="s">
+        <v>634</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F65" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C66" t="s">
         <v>49</v>
       </c>
-      <c r="D53" t="s">
-        <v>629</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F53" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C54" t="s">
-        <v>50</v>
-      </c>
-      <c r="D54" t="s">
-        <v>382</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F54" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>604</v>
-      </c>
-      <c r="B56" t="s">
-        <v>8</v>
-      </c>
-      <c r="C56" t="s">
-        <v>98</v>
-      </c>
-      <c r="D56" t="s">
-        <v>558</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F56" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C57" t="s">
-        <v>48</v>
-      </c>
-      <c r="D57" t="s">
-        <v>607</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F57" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C58" t="s">
-        <v>49</v>
-      </c>
-      <c r="D58" t="s">
-        <v>630</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F58" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>377</v>
-      </c>
-      <c r="B60" t="s">
-        <v>8</v>
-      </c>
-      <c r="C60" t="s">
-        <v>98</v>
-      </c>
-      <c r="D60" t="s">
-        <v>281</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F60" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C61" t="s">
-        <v>48</v>
-      </c>
-      <c r="D61" t="s">
-        <v>328</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F61" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C62" t="s">
-        <v>49</v>
-      </c>
-      <c r="D62" t="s">
-        <v>314</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F62" t="s">
+      <c r="D66" t="s">
+        <v>632</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F66" t="s">
         <v>633</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C63" t="s">
-        <v>50</v>
-      </c>
-      <c r="D63" t="s">
-        <v>397</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F63" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C64" t="s">
-        <v>0</v>
-      </c>
-      <c r="D64" t="s">
-        <v>418</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F64" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>138</v>
-      </c>
-      <c r="B66" t="s">
-        <v>8</v>
-      </c>
-      <c r="C66" t="s">
-        <v>48</v>
-      </c>
-      <c r="D66" t="s">
-        <v>636</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F66" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C67" t="s">
-        <v>49</v>
-      </c>
-      <c r="D67" t="s">
-        <v>634</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F67" t="s">
-        <v>635</v>
       </c>
     </row>
   </sheetData>
@@ -10364,43 +10347,43 @@
   <conditionalFormatting sqref="C27">
     <cfRule type="duplicateValues" dxfId="21" priority="14"/>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C31:C32">
+    <cfRule type="duplicateValues" dxfId="20" priority="12"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C34">
-    <cfRule type="duplicateValues" dxfId="20" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="13"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C31:C32">
-    <cfRule type="duplicateValues" dxfId="19" priority="12"/>
+  <conditionalFormatting sqref="C40">
+    <cfRule type="duplicateValues" dxfId="18" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41">
-    <cfRule type="duplicateValues" dxfId="18" priority="11"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C40">
-    <cfRule type="duplicateValues" dxfId="17" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C44">
     <cfRule type="duplicateValues" dxfId="16" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C48">
+  <conditionalFormatting sqref="C47">
     <cfRule type="duplicateValues" dxfId="15" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C51">
+  <conditionalFormatting sqref="C50">
     <cfRule type="duplicateValues" dxfId="14" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C53">
+  <conditionalFormatting sqref="C52">
     <cfRule type="duplicateValues" dxfId="13" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C56">
+  <conditionalFormatting sqref="C55">
     <cfRule type="duplicateValues" dxfId="12" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C58">
+  <conditionalFormatting sqref="C57">
     <cfRule type="duplicateValues" dxfId="11" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C60">
+  <conditionalFormatting sqref="C59">
     <cfRule type="duplicateValues" dxfId="10" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C62">
+  <conditionalFormatting sqref="C61">
     <cfRule type="duplicateValues" dxfId="9" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C67">
+  <conditionalFormatting sqref="C66">
     <cfRule type="duplicateValues" dxfId="8" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -10419,17 +10402,17 @@
       <selection activeCell="E47" activeCellId="15" sqref="E2 E4 E8 E12 E16 E19 E22 E25 E28 E31 E35 E39 E41 E43 E45 E47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -10449,9 +10432,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -10460,7 +10443,7 @@
         <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>9</v>
@@ -10469,7 +10452,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>218</v>
       </c>
@@ -10480,7 +10463,7 @@
         <v>48</v>
       </c>
       <c r="D4" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>9</v>
@@ -10489,7 +10472,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>158</v>
       </c>
@@ -10500,7 +10483,7 @@
         <v>159</v>
       </c>
       <c r="D6" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>10</v>
@@ -10509,7 +10492,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>98</v>
       </c>
@@ -10523,23 +10506,23 @@
         <v>115</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>48</v>
       </c>
       <c r="D8" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F8" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
@@ -10548,7 +10531,7 @@
         <v>49</v>
       </c>
       <c r="D10" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>10</v>
@@ -10557,21 +10540,21 @@
         <v>211</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>50</v>
       </c>
       <c r="D11" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>0</v>
       </c>
@@ -10585,7 +10568,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>167</v>
       </c>
@@ -10596,7 +10579,7 @@
         <v>48</v>
       </c>
       <c r="D14" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>10</v>
@@ -10605,26 +10588,26 @@
         <v>165</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>49</v>
       </c>
       <c r="D15" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>50</v>
       </c>
       <c r="D16" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>9</v>
@@ -10633,7 +10616,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>228</v>
       </c>
@@ -10644,21 +10627,21 @@
         <v>98</v>
       </c>
       <c r="D18" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>48</v>
       </c>
       <c r="D19" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>9</v>
@@ -10667,7 +10650,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>177</v>
       </c>
@@ -10678,7 +10661,7 @@
         <v>98</v>
       </c>
       <c r="D21" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>10</v>
@@ -10687,7 +10670,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>48</v>
       </c>
@@ -10701,7 +10684,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>207</v>
       </c>
@@ -10712,32 +10695,32 @@
         <v>48</v>
       </c>
       <c r="D24" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>49</v>
       </c>
       <c r="D25" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F25" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>430</v>
+        <v>660</v>
       </c>
       <c r="B27" t="s">
         <v>33</v>
@@ -10746,30 +10729,30 @@
         <v>98</v>
       </c>
       <c r="D27" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>48</v>
       </c>
       <c r="D28" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F28" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>188</v>
       </c>
@@ -10786,24 +10769,24 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>48</v>
       </c>
       <c r="D31" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F31" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>192</v>
       </c>
@@ -10814,21 +10797,21 @@
         <v>159</v>
       </c>
       <c r="D33" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>98</v>
       </c>
       <c r="D34" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>10</v>
@@ -10837,12 +10820,12 @@
         <v>144</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>48</v>
       </c>
       <c r="D35" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>9</v>
@@ -10851,9 +10834,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B37" t="s">
         <v>88</v>
@@ -10871,12 +10854,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>49</v>
       </c>
       <c r="D38" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>10</v>
@@ -10885,21 +10868,21 @@
         <v>165</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>50</v>
       </c>
       <c r="D39" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F39" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>195</v>
       </c>
@@ -10910,7 +10893,7 @@
         <v>159</v>
       </c>
       <c r="D41" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>9</v>
@@ -10919,9 +10902,9 @@
         <v>156</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B43" t="s">
         <v>8</v>
@@ -10930,16 +10913,16 @@
         <v>98</v>
       </c>
       <c r="D43" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F43" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>409</v>
       </c>
@@ -10950,7 +10933,7 @@
         <v>98</v>
       </c>
       <c r="D45" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>9</v>
@@ -10959,7 +10942,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>100</v>
       </c>
@@ -10970,13 +10953,13 @@
         <v>159</v>
       </c>
       <c r="D47" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F47" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
   </sheetData>
@@ -11016,21 +10999,21 @@
   </sheetPr>
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -11050,7 +11033,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2003</v>
       </c>
@@ -11071,7 +11054,7 @@
         <v>0.63636363636363635</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2004</v>
       </c>
@@ -11092,7 +11075,7 @@
         <v>0.83870967741935487</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2005</v>
       </c>
@@ -11114,7 +11097,7 @@
       </c>
       <c r="N4" s="6"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2006</v>
       </c>
@@ -11136,7 +11119,7 @@
       </c>
       <c r="N5" s="6"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2007</v>
       </c>
@@ -11158,7 +11141,7 @@
       </c>
       <c r="N6" s="6"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2008</v>
       </c>
@@ -11180,7 +11163,7 @@
       </c>
       <c r="N7" s="6"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2009</v>
       </c>
@@ -11202,7 +11185,7 @@
       </c>
       <c r="N8" s="6"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2010</v>
       </c>
@@ -11223,7 +11206,7 @@
         <v>0.39393939393939392</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2011</v>
       </c>
@@ -11244,7 +11227,7 @@
         <v>0.38709677419354838</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2012</v>
       </c>
@@ -11265,7 +11248,7 @@
         <v>0.43243243243243246</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2013</v>
       </c>
@@ -11286,7 +11269,7 @@
         <v>0.39473684210526316</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2014</v>
       </c>
@@ -11307,7 +11290,7 @@
         <v>0.7068965517241379</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2015</v>
       </c>
@@ -11321,14 +11304,14 @@
         <v>28</v>
       </c>
       <c r="E14">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F14" s="6">
         <f t="shared" si="0"/>
-        <v>0.32142857142857145</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.35714285714285715</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2016</v>
       </c>
@@ -11349,7 +11332,7 @@
         <v>-6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
@@ -11367,14 +11350,14 @@
       </c>
       <c r="E16" s="4">
         <f t="shared" si="1"/>
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ref="F16:F17" si="2">(D16-E16)/D16</f>
-        <v>0.52586206896551724</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.52801724137931039</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
@@ -11392,16 +11375,16 @@
       </c>
       <c r="E17" s="4">
         <f t="shared" si="3"/>
-        <v>15.714285714285714</v>
+        <v>15.642857142857142</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" si="2"/>
-        <v>0.52586206896551724</v>
+        <v>0.52801724137931039</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F6:F15">
-    <cfRule type="iconSet" priority="11">
+  <conditionalFormatting sqref="F2:F5">
+    <cfRule type="iconSet" priority="1">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -11409,8 +11392,8 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F5">
-    <cfRule type="iconSet" priority="1">
+  <conditionalFormatting sqref="F6:F15">
+    <cfRule type="iconSet" priority="11">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -11434,17 +11417,17 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -11464,7 +11447,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>69</v>
       </c>
@@ -11484,7 +11467,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>49</v>
       </c>
@@ -11498,7 +11481,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>50</v>
       </c>
@@ -11512,7 +11495,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -11526,7 +11509,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>15</v>
       </c>
@@ -11540,7 +11523,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>79</v>
       </c>
@@ -11560,7 +11543,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>49</v>
       </c>
@@ -11574,7 +11557,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>50</v>
       </c>
@@ -11588,7 +11571,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>0</v>
       </c>
@@ -11602,7 +11585,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>15</v>
       </c>
@@ -11616,7 +11599,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>92</v>
       </c>
@@ -11636,7 +11619,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>49</v>
       </c>
@@ -11650,7 +11633,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>50</v>
       </c>
@@ -11664,7 +11647,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>0</v>
       </c>
@@ -11678,7 +11661,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>15</v>
       </c>
@@ -11692,7 +11675,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>85</v>
       </c>
@@ -11712,7 +11695,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>97</v>
       </c>
@@ -11732,7 +11715,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>100</v>
       </c>
@@ -11752,7 +11735,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>109</v>
       </c>
@@ -11772,7 +11755,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>49</v>
       </c>
@@ -11786,7 +11769,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>50</v>
       </c>
@@ -11800,7 +11783,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>0</v>
       </c>
@@ -11814,7 +11797,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>15</v>
       </c>
@@ -11828,7 +11811,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>119</v>
       </c>
@@ -11848,7 +11831,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>49</v>
       </c>
@@ -11862,7 +11845,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>50</v>
       </c>
@@ -11876,7 +11859,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>0</v>
       </c>
@@ -11890,7 +11873,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>15</v>
       </c>
@@ -11904,7 +11887,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>130</v>
       </c>
@@ -11924,7 +11907,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>131</v>
       </c>
@@ -11938,7 +11921,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>132</v>
       </c>
@@ -11952,7 +11935,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>48</v>
       </c>
@@ -11966,7 +11949,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>49</v>
       </c>
@@ -11980,7 +11963,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>138</v>
       </c>
@@ -12000,7 +11983,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>49</v>
       </c>
@@ -12014,7 +11997,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>50</v>
       </c>
@@ -12045,17 +12028,17 @@
       <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -12075,7 +12058,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>147</v>
       </c>
@@ -12095,7 +12078,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>131</v>
       </c>
@@ -12109,7 +12092,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>132</v>
       </c>
@@ -12123,7 +12106,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>48</v>
       </c>
@@ -12137,7 +12120,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>49</v>
       </c>
@@ -12151,7 +12134,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>50</v>
       </c>
@@ -12165,7 +12148,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>0</v>
       </c>
@@ -12179,7 +12162,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>15</v>
       </c>
@@ -12193,7 +12176,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>158</v>
       </c>
@@ -12213,7 +12196,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>98</v>
       </c>
@@ -12227,7 +12210,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>48</v>
       </c>
@@ -12241,7 +12224,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>163</v>
       </c>
@@ -12261,7 +12244,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>49</v>
       </c>
@@ -12275,7 +12258,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>167</v>
       </c>
@@ -12295,7 +12278,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>131</v>
       </c>
@@ -12309,7 +12292,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>132</v>
       </c>
@@ -12323,7 +12306,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>177</v>
       </c>
@@ -12343,7 +12326,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>98</v>
       </c>
@@ -12357,7 +12340,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>48</v>
       </c>
@@ -12371,7 +12354,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>49</v>
       </c>
@@ -12385,7 +12368,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>50</v>
       </c>
@@ -12399,7 +12382,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>180</v>
       </c>
@@ -12419,7 +12402,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>49</v>
       </c>
@@ -12433,7 +12416,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>50</v>
       </c>
@@ -12447,7 +12430,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>0</v>
       </c>
@@ -12461,7 +12444,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>185</v>
       </c>
@@ -12481,7 +12464,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>188</v>
       </c>
@@ -12501,7 +12484,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>48</v>
       </c>
@@ -12515,7 +12498,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>49</v>
       </c>
@@ -12529,7 +12512,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>192</v>
       </c>
@@ -12549,7 +12532,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>98</v>
       </c>
@@ -12563,7 +12546,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>48</v>
       </c>
@@ -12577,7 +12560,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>49</v>
       </c>
@@ -12591,7 +12574,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>50</v>
       </c>
@@ -12605,7 +12588,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>195</v>
       </c>
@@ -12625,7 +12608,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>98</v>
       </c>
@@ -12639,7 +12622,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>48</v>
       </c>
@@ -12653,7 +12636,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>199</v>
       </c>
@@ -12673,7 +12656,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>48</v>
       </c>
@@ -12687,7 +12670,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>49</v>
       </c>
@@ -12701,7 +12684,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>100</v>
       </c>
@@ -12721,7 +12704,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>98</v>
       </c>
@@ -12735,7 +12718,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>207</v>
       </c>
@@ -12755,7 +12738,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>130</v>
       </c>
@@ -12775,7 +12758,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>49</v>
       </c>
@@ -12789,7 +12772,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>50</v>
       </c>
@@ -12803,7 +12786,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>0</v>
       </c>
@@ -12817,7 +12800,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>216</v>
       </c>
@@ -12837,7 +12820,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>49</v>
       </c>
@@ -12851,7 +12834,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="65" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>50</v>
       </c>
@@ -12865,7 +12848,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="66" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>0</v>
       </c>
@@ -12892,21 +12875,21 @@
   </sheetPr>
   <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" customWidth="1"/>
-    <col min="4" max="4" width="35.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" customWidth="1"/>
+    <col min="4" max="4" width="35.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -12926,7 +12909,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>218</v>
       </c>
@@ -12946,7 +12929,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>49</v>
       </c>
@@ -12960,7 +12943,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>50</v>
       </c>
@@ -12974,7 +12957,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>158</v>
       </c>
@@ -12994,7 +12977,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>98</v>
       </c>
@@ -13008,7 +12991,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>222</v>
       </c>
@@ -13028,7 +13011,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>49</v>
       </c>
@@ -13042,7 +13025,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>224</v>
       </c>
@@ -13062,7 +13045,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>49</v>
       </c>
@@ -13076,7 +13059,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>228</v>
       </c>
@@ -13096,7 +13079,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>48</v>
       </c>
@@ -13110,7 +13093,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>49</v>
       </c>
@@ -13124,7 +13107,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>50</v>
       </c>
@@ -13138,7 +13121,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>177</v>
       </c>
@@ -13158,7 +13141,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>48</v>
       </c>
@@ -13172,7 +13155,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>49</v>
       </c>
@@ -13186,7 +13169,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>180</v>
       </c>
@@ -13206,7 +13189,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>49</v>
       </c>
@@ -13220,7 +13203,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>50</v>
       </c>
@@ -13234,7 +13217,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>185</v>
       </c>
@@ -13254,7 +13237,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>192</v>
       </c>
@@ -13274,7 +13257,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>98</v>
       </c>
@@ -13288,7 +13271,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>48</v>
       </c>
@@ -13302,7 +13285,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>242</v>
       </c>
@@ -13322,7 +13305,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>49</v>
       </c>
@@ -13336,7 +13319,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>50</v>
       </c>
@@ -13350,7 +13333,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>195</v>
       </c>
@@ -13370,7 +13353,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>98</v>
       </c>
@@ -13384,7 +13367,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>48</v>
       </c>
@@ -13398,7 +13381,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>49</v>
       </c>
@@ -13412,7 +13395,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>248</v>
       </c>
@@ -13432,7 +13415,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>48</v>
       </c>
@@ -13446,7 +13429,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>49</v>
       </c>
@@ -13460,7 +13443,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>253</v>
       </c>
@@ -13480,7 +13463,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>48</v>
       </c>
@@ -13494,7 +13477,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>49</v>
       </c>
@@ -13508,7 +13491,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>50</v>
       </c>
@@ -13522,7 +13505,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>199</v>
       </c>
@@ -13542,7 +13525,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>48</v>
       </c>
@@ -13556,7 +13539,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>49</v>
       </c>
@@ -13570,7 +13553,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>50</v>
       </c>
@@ -13584,7 +13567,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>0</v>
       </c>
@@ -13598,7 +13581,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>15</v>
       </c>
@@ -13612,7 +13595,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>100</v>
       </c>
@@ -13632,7 +13615,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>98</v>
       </c>
@@ -13646,7 +13629,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>48</v>
       </c>
@@ -13660,7 +13643,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>265</v>
       </c>
@@ -13680,7 +13663,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>138</v>
       </c>
@@ -13700,7 +13683,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>216</v>
       </c>
@@ -13720,7 +13703,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>49</v>
       </c>
@@ -13734,7 +13717,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>50</v>
       </c>
@@ -13748,7 +13731,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>207</v>
       </c>
@@ -13768,7 +13751,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>49</v>
       </c>
@@ -13782,7 +13765,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>50</v>
       </c>
@@ -13809,21 +13792,21 @@
   </sheetPr>
   <dimension ref="A1:F85"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="30.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -13843,7 +13826,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>275</v>
       </c>
@@ -13863,7 +13846,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>49</v>
       </c>
@@ -13877,7 +13860,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>50</v>
       </c>
@@ -13891,7 +13874,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>218</v>
       </c>
@@ -13911,7 +13894,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>49</v>
       </c>
@@ -13925,7 +13908,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>50</v>
       </c>
@@ -13939,7 +13922,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>158</v>
       </c>
@@ -13959,7 +13942,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>98</v>
       </c>
@@ -13973,7 +13956,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>48</v>
       </c>
@@ -13987,7 +13970,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>222</v>
       </c>
@@ -14007,7 +13990,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>49</v>
       </c>
@@ -14021,7 +14004,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>50</v>
       </c>
@@ -14035,7 +14018,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>0</v>
       </c>
@@ -14049,7 +14032,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>15</v>
       </c>
@@ -14063,7 +14046,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>224</v>
       </c>
@@ -14083,7 +14066,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>49</v>
       </c>
@@ -14097,7 +14080,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>50</v>
       </c>
@@ -14111,7 +14094,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>228</v>
       </c>
@@ -14131,7 +14114,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>48</v>
       </c>
@@ -14145,7 +14128,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>49</v>
       </c>
@@ -14159,7 +14142,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>177</v>
       </c>
@@ -14179,7 +14162,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>299</v>
       </c>
@@ -14199,7 +14182,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>49</v>
       </c>
@@ -14213,7 +14196,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>50</v>
       </c>
@@ -14227,7 +14210,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>0</v>
       </c>
@@ -14241,7 +14224,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>302</v>
       </c>
@@ -14261,7 +14244,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>49</v>
       </c>
@@ -14275,7 +14258,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>305</v>
       </c>
@@ -14295,7 +14278,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>48</v>
       </c>
@@ -14309,7 +14292,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>49</v>
       </c>
@@ -14323,7 +14306,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>50</v>
       </c>
@@ -14337,7 +14320,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>0</v>
       </c>
@@ -14351,7 +14334,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>15</v>
       </c>
@@ -14365,7 +14348,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>192</v>
       </c>
@@ -14385,7 +14368,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>98</v>
       </c>
@@ -14399,7 +14382,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>48</v>
       </c>
@@ -14413,7 +14396,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>49</v>
       </c>
@@ -14427,7 +14410,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>50</v>
       </c>
@@ -14441,7 +14424,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>0</v>
       </c>
@@ -14455,7 +14438,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>15</v>
       </c>
@@ -14469,7 +14452,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>242</v>
       </c>
@@ -14489,7 +14472,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>50</v>
       </c>
@@ -14503,7 +14486,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>195</v>
       </c>
@@ -14523,7 +14506,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>98</v>
       </c>
@@ -14537,7 +14520,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>48</v>
       </c>
@@ -14551,7 +14534,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>49</v>
       </c>
@@ -14565,7 +14548,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>50</v>
       </c>
@@ -14579,7 +14562,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>0</v>
       </c>
@@ -14593,7 +14576,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>253</v>
       </c>
@@ -14613,7 +14596,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>49</v>
       </c>
@@ -14627,7 +14610,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>50</v>
       </c>
@@ -14641,7 +14624,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>0</v>
       </c>
@@ -14655,7 +14638,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>15</v>
       </c>
@@ -14669,7 +14652,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>100</v>
       </c>
@@ -14689,7 +14672,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>98</v>
       </c>
@@ -14703,7 +14686,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>48</v>
       </c>
@@ -14717,7 +14700,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>49</v>
       </c>
@@ -14731,7 +14714,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>138</v>
       </c>
@@ -14751,7 +14734,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>50</v>
       </c>
@@ -14765,7 +14748,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>0</v>
       </c>
@@ -14779,7 +14762,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>15</v>
       </c>
@@ -14793,7 +14776,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>207</v>
       </c>
@@ -14813,7 +14796,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>49</v>
       </c>
@@ -14827,7 +14810,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>28</v>
       </c>
@@ -14847,7 +14830,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>16</v>
       </c>
@@ -14861,7 +14844,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
         <v>16</v>
       </c>
@@ -14875,7 +14858,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
         <v>0</v>
       </c>
@@ -14902,21 +14885,21 @@
   </sheetPr>
   <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -14936,7 +14919,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>218</v>
       </c>
@@ -14956,7 +14939,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>50</v>
       </c>
@@ -14970,7 +14953,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>0</v>
       </c>
@@ -14984,7 +14967,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>158</v>
       </c>
@@ -15004,7 +14987,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>98</v>
       </c>
@@ -15018,7 +15001,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>48</v>
       </c>
@@ -15032,7 +15015,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>49</v>
       </c>
@@ -15046,7 +15029,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>50</v>
       </c>
@@ -15060,7 +15043,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>0</v>
       </c>
@@ -15074,7 +15057,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>15</v>
       </c>
@@ -15088,7 +15071,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>163</v>
       </c>
@@ -15108,7 +15091,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>49</v>
       </c>
@@ -15122,7 +15105,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>167</v>
       </c>
@@ -15142,7 +15125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>50</v>
       </c>
@@ -15156,7 +15139,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>228</v>
       </c>
@@ -15176,7 +15159,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>48</v>
       </c>
@@ -15190,7 +15173,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>49</v>
       </c>
@@ -15204,7 +15187,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>50</v>
       </c>
@@ -15218,7 +15201,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>0</v>
       </c>
@@ -15232,7 +15215,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>15</v>
       </c>
@@ -15246,7 +15229,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>177</v>
       </c>
@@ -15266,7 +15249,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>48</v>
       </c>
@@ -15280,7 +15263,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>185</v>
       </c>
@@ -15300,7 +15283,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>49</v>
       </c>
@@ -15314,7 +15297,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>50</v>
       </c>
@@ -15328,7 +15311,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>0</v>
       </c>
@@ -15342,7 +15325,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>188</v>
       </c>
@@ -15362,7 +15345,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>192</v>
       </c>
@@ -15382,7 +15365,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>98</v>
       </c>
@@ -15396,7 +15379,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>48</v>
       </c>
@@ -15410,7 +15393,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>49</v>
       </c>
@@ -15424,7 +15407,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>50</v>
       </c>
@@ -15438,7 +15421,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>0</v>
       </c>
@@ -15452,7 +15435,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>15</v>
       </c>
@@ -15466,7 +15449,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>195</v>
       </c>
@@ -15486,7 +15469,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>98</v>
       </c>
@@ -15500,7 +15483,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>48</v>
       </c>
@@ -15514,7 +15497,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>199</v>
       </c>
@@ -15534,7 +15517,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>49</v>
       </c>
@@ -15548,7 +15531,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>100</v>
       </c>
@@ -15568,7 +15551,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>98</v>
       </c>
@@ -15582,7 +15565,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>222</v>
       </c>
@@ -15602,7 +15585,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>377</v>
       </c>
@@ -15622,7 +15605,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>50</v>
       </c>
@@ -15636,7 +15619,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>381</v>
       </c>
@@ -15656,7 +15639,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>130</v>
       </c>
@@ -15676,7 +15659,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>50</v>
       </c>
@@ -15690,7 +15673,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>0</v>
       </c>
@@ -15704,7 +15687,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>216</v>
       </c>
@@ -15724,7 +15707,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>50</v>
       </c>
@@ -15738,7 +15721,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>0</v>
       </c>
@@ -15752,7 +15735,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>15</v>
       </c>
@@ -15766,7 +15749,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>28</v>
       </c>
@@ -15786,7 +15769,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>16</v>
       </c>
@@ -15814,21 +15797,21 @@
   </sheetPr>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -15848,7 +15831,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>389</v>
       </c>
@@ -15868,7 +15851,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>49</v>
       </c>
@@ -15882,7 +15865,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>50</v>
       </c>
@@ -15896,7 +15879,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>158</v>
       </c>
@@ -15916,7 +15899,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>98</v>
       </c>
@@ -15930,7 +15913,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>48</v>
       </c>
@@ -15944,7 +15927,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>167</v>
       </c>
@@ -15964,7 +15947,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>49</v>
       </c>
@@ -15978,7 +15961,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>50</v>
       </c>
@@ -15992,7 +15975,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>228</v>
       </c>
@@ -16012,7 +15995,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>48</v>
       </c>
@@ -16026,7 +16009,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>49</v>
       </c>
@@ -16040,7 +16023,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>50</v>
       </c>
@@ -16054,7 +16037,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>0</v>
       </c>
@@ -16068,7 +16051,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -16082,7 +16065,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>177</v>
       </c>
@@ -16102,7 +16085,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>48</v>
       </c>
@@ -16116,7 +16099,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>188</v>
       </c>
@@ -16136,7 +16119,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>49</v>
       </c>
@@ -16150,7 +16133,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>192</v>
       </c>
@@ -16170,7 +16153,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>98</v>
       </c>
@@ -16184,7 +16167,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>48</v>
       </c>
@@ -16198,7 +16181,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>49</v>
       </c>
@@ -16212,7 +16195,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>404</v>
       </c>
@@ -16232,7 +16215,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>195</v>
       </c>
@@ -16252,7 +16235,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>98</v>
       </c>
@@ -16266,7 +16249,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>48</v>
       </c>
@@ -16280,7 +16263,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>49</v>
       </c>
@@ -16294,7 +16277,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>408</v>
       </c>
@@ -16314,7 +16297,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>49</v>
       </c>
@@ -16328,7 +16311,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>409</v>
       </c>
@@ -16348,7 +16331,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>48</v>
       </c>
@@ -16362,7 +16345,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>199</v>
       </c>
@@ -16382,7 +16365,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>48</v>
       </c>
@@ -16396,7 +16379,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>100</v>
       </c>
@@ -16416,7 +16399,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>222</v>
       </c>
@@ -16450,21 +16433,21 @@
   </sheetPr>
   <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="D64" sqref="D64"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="51.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="48.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -16484,7 +16467,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>389</v>
       </c>
@@ -16504,7 +16487,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>49</v>
       </c>
@@ -16518,7 +16501,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>50</v>
       </c>
@@ -16532,7 +16515,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -16546,7 +16529,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>158</v>
       </c>
@@ -16566,7 +16549,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>98</v>
       </c>
@@ -16580,7 +16563,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>422</v>
       </c>
@@ -16597,7 +16580,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
         <v>394</v>
       </c>
@@ -16608,7 +16591,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>228</v>
       </c>
@@ -16628,7 +16611,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>177</v>
       </c>
@@ -16648,7 +16631,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>48</v>
       </c>
@@ -16662,7 +16645,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>207</v>
       </c>
@@ -16682,7 +16665,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>188</v>
       </c>
@@ -16702,7 +16685,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>48</v>
       </c>
@@ -16716,7 +16699,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>49</v>
       </c>
@@ -16730,7 +16713,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>50</v>
       </c>
@@ -16744,7 +16727,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>0</v>
       </c>
@@ -16758,9 +16741,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>430</v>
+        <v>660</v>
       </c>
       <c r="B26" t="s">
         <v>33</v>
@@ -16778,7 +16761,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>192</v>
       </c>
@@ -16789,7 +16772,7 @@
         <v>159</v>
       </c>
       <c r="D28" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>10</v>
@@ -16798,7 +16781,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>98</v>
       </c>
@@ -16812,7 +16795,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>242</v>
       </c>
@@ -16829,24 +16812,24 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>49</v>
       </c>
       <c r="D32" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F32" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>195</v>
       </c>
@@ -16866,9 +16849,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B36" t="s">
         <v>8</v>
@@ -16886,12 +16869,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>49</v>
       </c>
       <c r="D37" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>9</v>
@@ -16900,9 +16883,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B39" t="s">
         <v>8</v>
@@ -16920,7 +16903,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>409</v>
       </c>
@@ -16937,10 +16920,10 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>48</v>
       </c>
@@ -16951,10 +16934,10 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>49</v>
       </c>
@@ -16968,7 +16951,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>50</v>
       </c>
@@ -16982,7 +16965,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>0</v>
       </c>
@@ -16993,10 +16976,10 @@
         <v>9</v>
       </c>
       <c r="F45" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>100</v>
       </c>
@@ -17007,7 +16990,7 @@
         <v>159</v>
       </c>
       <c r="D47" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>10</v>
@@ -17016,7 +16999,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>98</v>
       </c>
@@ -17030,7 +17013,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>48</v>
       </c>
@@ -17041,10 +17024,10 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>49</v>
       </c>
@@ -17058,9 +17041,9 @@
         <v>128</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B52" t="s">
         <v>8</v>
@@ -17069,7 +17052,7 @@
         <v>48</v>
       </c>
       <c r="D52" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>9</v>
@@ -17078,7 +17061,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>222</v>
       </c>
@@ -17098,7 +17081,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>48</v>
       </c>
@@ -17112,7 +17095,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>377</v>
       </c>
@@ -17132,7 +17115,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>48</v>
       </c>
@@ -17146,7 +17129,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>49</v>
       </c>
@@ -17157,10 +17140,10 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>50</v>
       </c>
@@ -17171,10 +17154,10 @@
         <v>9</v>
       </c>
       <c r="F60" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>216</v>
       </c>
@@ -17194,12 +17177,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>49</v>
       </c>
       <c r="D63" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>10</v>
@@ -17208,7 +17191,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>50</v>
       </c>
@@ -17219,10 +17202,10 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>0</v>
       </c>
@@ -17236,7 +17219,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>15</v>
       </c>
@@ -17250,7 +17233,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>138</v>
       </c>
@@ -17261,7 +17244,7 @@
         <v>48</v>
       </c>
       <c r="D68" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>10</v>
@@ -17270,12 +17253,12 @@
         <v>221</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>49</v>
       </c>
       <c r="D69" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>10</v>
@@ -17284,7 +17267,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>50</v>
       </c>
@@ -17298,9 +17281,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B72" t="s">
         <v>8</v>
@@ -17315,15 +17298,15 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>0</v>
       </c>
       <c r="D73" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>10</v>
@@ -17332,7 +17315,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>15</v>
       </c>
@@ -17360,20 +17343,20 @@
   <dimension ref="A1:F71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="51.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="48.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -17393,7 +17376,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>158</v>
       </c>
@@ -17404,18 +17387,18 @@
         <v>159</v>
       </c>
       <c r="D2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -17424,7 +17407,7 @@
         <v>48</v>
       </c>
       <c r="D4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>10</v>
@@ -17433,21 +17416,21 @@
         <v>340</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>49</v>
       </c>
       <c r="D5" t="s">
+        <v>455</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
         <v>456</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>50</v>
       </c>
@@ -17461,7 +17444,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>167</v>
       </c>
@@ -17478,10 +17461,10 @@
         <v>9</v>
       </c>
       <c r="F8" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>177</v>
       </c>
@@ -17492,7 +17475,7 @@
         <v>98</v>
       </c>
       <c r="D10" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>10</v>
@@ -17501,12 +17484,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>48</v>
       </c>
       <c r="D11" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>10</v>
@@ -17515,7 +17498,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>49</v>
       </c>
@@ -17529,7 +17512,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>50</v>
       </c>
@@ -17540,10 +17523,10 @@
         <v>9</v>
       </c>
       <c r="F13" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>177</v>
       </c>
@@ -17554,7 +17537,7 @@
         <v>98</v>
       </c>
       <c r="D15" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>10</v>
@@ -17563,7 +17546,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>48</v>
       </c>
@@ -17574,10 +17557,10 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>49</v>
       </c>
@@ -17588,12 +17571,12 @@
         <v>9</v>
       </c>
       <c r="F17" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>430</v>
+        <v>660</v>
       </c>
       <c r="B19" t="s">
         <v>33</v>
@@ -17602,16 +17585,16 @@
         <v>98</v>
       </c>
       <c r="D19" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F19" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>188</v>
       </c>
@@ -17628,24 +17611,24 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>48</v>
       </c>
       <c r="D22" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F22" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>192</v>
       </c>
@@ -17656,16 +17639,16 @@
         <v>159</v>
       </c>
       <c r="D24" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F24" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>97</v>
       </c>
@@ -17676,7 +17659,7 @@
         <v>48</v>
       </c>
       <c r="D26" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>10</v>
@@ -17685,12 +17668,12 @@
         <v>165</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>49</v>
       </c>
       <c r="D27" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>10</v>
@@ -17699,12 +17682,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>50</v>
       </c>
       <c r="D28" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>10</v>
@@ -17713,7 +17696,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>0</v>
       </c>
@@ -17724,10 +17707,10 @@
         <v>9</v>
       </c>
       <c r="F29" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>404</v>
       </c>
@@ -17747,7 +17730,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>49</v>
       </c>
@@ -17761,7 +17744,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>195</v>
       </c>
@@ -17778,10 +17761,10 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>98</v>
       </c>
@@ -17795,7 +17778,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>48</v>
       </c>
@@ -17806,12 +17789,12 @@
         <v>9</v>
       </c>
       <c r="F36" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B38" t="s">
         <v>8</v>
@@ -17820,7 +17803,7 @@
         <v>48</v>
       </c>
       <c r="D38" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>9</v>
@@ -17829,9 +17812,9 @@
         <v>173</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B40" t="s">
         <v>8</v>
@@ -17840,7 +17823,7 @@
         <v>48</v>
       </c>
       <c r="D40" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>10</v>
@@ -17849,12 +17832,12 @@
         <v>429</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>49</v>
       </c>
       <c r="D41" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>10</v>
@@ -17863,7 +17846,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>50</v>
       </c>
@@ -17877,7 +17860,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>0</v>
       </c>
@@ -17891,7 +17874,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>199</v>
       </c>
@@ -17902,7 +17885,7 @@
         <v>98</v>
       </c>
       <c r="D45" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>10</v>
@@ -17911,7 +17894,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>48</v>
       </c>
@@ -17925,7 +17908,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>49</v>
       </c>
@@ -17936,10 +17919,10 @@
         <v>9</v>
       </c>
       <c r="F47" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>409</v>
       </c>
@@ -17950,7 +17933,7 @@
         <v>98</v>
       </c>
       <c r="D49" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>10</v>
@@ -17959,7 +17942,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>48</v>
       </c>
@@ -17970,10 +17953,10 @@
         <v>9</v>
       </c>
       <c r="F50" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>100</v>
       </c>
@@ -17984,7 +17967,7 @@
         <v>159</v>
       </c>
       <c r="D52" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>10</v>
@@ -17993,7 +17976,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>98</v>
       </c>
@@ -18007,12 +17990,12 @@
         <v>202</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>48</v>
       </c>
       <c r="D54" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>10</v>
@@ -18021,7 +18004,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>49</v>
       </c>
@@ -18035,7 +18018,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>222</v>
       </c>
@@ -18046,7 +18029,7 @@
         <v>98</v>
       </c>
       <c r="D57" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>10</v>
@@ -18055,12 +18038,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>48</v>
       </c>
       <c r="D58" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>10</v>
@@ -18069,7 +18052,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>49</v>
       </c>
@@ -18083,7 +18066,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>377</v>
       </c>
@@ -18094,7 +18077,7 @@
         <v>98</v>
       </c>
       <c r="D61" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>10</v>
@@ -18103,7 +18086,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>48</v>
       </c>
@@ -18117,7 +18100,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>49</v>
       </c>
@@ -18131,7 +18114,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>50</v>
       </c>
@@ -18142,10 +18125,10 @@
         <v>9</v>
       </c>
       <c r="F64" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>138</v>
       </c>
@@ -18165,12 +18148,12 @@
         <v>179</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>49</v>
       </c>
       <c r="D67" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>9</v>
@@ -18179,9 +18162,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B69" t="s">
         <v>8</v>
@@ -18199,7 +18182,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>0</v>
       </c>
@@ -18210,10 +18193,10 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>15</v>
       </c>

--- a/Tennis/WTA Tour/Ana Ivanović.xlsx
+++ b/Tennis/WTA Tour/Ana Ivanović.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8560" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{13A22EEE-B6B4-4064-B3BD-4D636A866282}"/>
+  <xr:revisionPtr revIDLastSave="8564" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8CA855FB-7997-4D4F-A640-5EB426AB54A1}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="11" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="13" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2003" sheetId="25" r:id="rId1"/>
@@ -540,9 +540,6 @@
     <t>Iveta Benešová (CZECH REPUBLIC)</t>
   </si>
   <si>
-    <t>QATAR TOTAL OPEN</t>
-  </si>
-  <si>
     <t>2-6 6-2 6-4</t>
   </si>
   <si>
@@ -2032,6 +2029,9 @@
   </si>
   <si>
     <t>MADRID OPEN</t>
+  </si>
+  <si>
+    <t>QATAR LADIES OPEN</t>
   </si>
 </sst>
 </file>
@@ -5404,7 +5404,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8582025" cy="5838825"/>
+    <xdr:ext cx="8564880" cy="5821680"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -5773,17 +5773,17 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -6054,7 +6054,7 @@
   <dimension ref="A1:F79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6089,7 +6089,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -6098,7 +6098,7 @@
         <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>10</v>
@@ -6112,18 +6112,18 @@
         <v>49</v>
       </c>
       <c r="D3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -6132,13 +6132,13 @@
         <v>48</v>
       </c>
       <c r="D5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -6152,7 +6152,7 @@
         <v>159</v>
       </c>
       <c r="D7" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>10</v>
@@ -6166,7 +6166,7 @@
         <v>98</v>
       </c>
       <c r="D8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>10</v>
@@ -6180,7 +6180,7 @@
         <v>48</v>
       </c>
       <c r="D9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>10</v>
@@ -6194,18 +6194,18 @@
         <v>49</v>
       </c>
       <c r="D10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>163</v>
+        <v>660</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
@@ -6214,13 +6214,13 @@
         <v>98</v>
       </c>
       <c r="D12" t="s">
+        <v>486</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
         <v>487</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -6228,7 +6228,7 @@
         <v>48</v>
       </c>
       <c r="D13" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>9</v>
@@ -6239,7 +6239,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
@@ -6248,13 +6248,13 @@
         <v>48</v>
       </c>
       <c r="D15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -6262,13 +6262,13 @@
         <v>49</v>
       </c>
       <c r="D16" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -6276,18 +6276,18 @@
         <v>50</v>
       </c>
       <c r="D17" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F17" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B19" t="s">
         <v>8</v>
@@ -6296,7 +6296,7 @@
         <v>98</v>
       </c>
       <c r="D19" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>10</v>
@@ -6310,13 +6310,13 @@
         <v>48</v>
       </c>
       <c r="D20" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -6324,7 +6324,7 @@
         <v>49</v>
       </c>
       <c r="D21" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>10</v>
@@ -6338,7 +6338,7 @@
         <v>50</v>
       </c>
       <c r="D22" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>10</v>
@@ -6352,18 +6352,18 @@
         <v>0</v>
       </c>
       <c r="D23" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F23" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B25" t="s">
         <v>8</v>
@@ -6372,13 +6372,13 @@
         <v>98</v>
       </c>
       <c r="D25" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -6386,13 +6386,13 @@
         <v>48</v>
       </c>
       <c r="D26" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -6400,46 +6400,46 @@
         <v>49</v>
       </c>
       <c r="D27" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F27" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B29" t="s">
         <v>8</v>
       </c>
       <c r="D29" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F29" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D30" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B32" t="s">
         <v>33</v>
@@ -6448,18 +6448,18 @@
         <v>48</v>
       </c>
       <c r="D32" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F32" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B34" t="s">
         <v>33</v>
@@ -6468,7 +6468,7 @@
         <v>98</v>
       </c>
       <c r="D34" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>10</v>
@@ -6482,7 +6482,7 @@
         <v>48</v>
       </c>
       <c r="D35" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>10</v>
@@ -6507,7 +6507,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B38" t="s">
         <v>33</v>
@@ -6516,7 +6516,7 @@
         <v>98</v>
       </c>
       <c r="D38" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>10</v>
@@ -6530,7 +6530,7 @@
         <v>48</v>
       </c>
       <c r="D39" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>10</v>
@@ -6544,18 +6544,18 @@
         <v>49</v>
       </c>
       <c r="D40" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F40" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B42" t="s">
         <v>33</v>
@@ -6564,7 +6564,7 @@
         <v>159</v>
       </c>
       <c r="D42" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>10</v>
@@ -6578,7 +6578,7 @@
         <v>98</v>
       </c>
       <c r="D43" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>10</v>
@@ -6598,12 +6598,12 @@
         <v>9</v>
       </c>
       <c r="F44" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B46" t="s">
         <v>88</v>
@@ -6612,13 +6612,13 @@
         <v>159</v>
       </c>
       <c r="D46" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -6626,13 +6626,13 @@
         <v>98</v>
       </c>
       <c r="D47" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -6640,13 +6640,13 @@
         <v>48</v>
       </c>
       <c r="D48" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -6660,12 +6660,12 @@
         <v>9</v>
       </c>
       <c r="F49" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B51" t="s">
         <v>88</v>
@@ -6674,13 +6674,13 @@
         <v>98</v>
       </c>
       <c r="D51" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -6688,13 +6688,13 @@
         <v>48</v>
       </c>
       <c r="D52" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -6702,7 +6702,7 @@
         <v>49</v>
       </c>
       <c r="D53" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>9</v>
@@ -6713,7 +6713,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B55" t="s">
         <v>8</v>
@@ -6722,7 +6722,7 @@
         <v>48</v>
       </c>
       <c r="D55" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>9</v>
@@ -6742,7 +6742,7 @@
         <v>159</v>
       </c>
       <c r="D57" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>10</v>
@@ -6756,7 +6756,7 @@
         <v>98</v>
       </c>
       <c r="D58" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>10</v>
@@ -6770,13 +6770,13 @@
         <v>48</v>
       </c>
       <c r="D59" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -6790,7 +6790,7 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -6809,7 +6809,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B63" t="s">
         <v>8</v>
@@ -6818,13 +6818,13 @@
         <v>98</v>
       </c>
       <c r="D63" t="s">
+        <v>509</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F63" t="s">
         <v>510</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F63" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -6832,18 +6832,18 @@
         <v>48</v>
       </c>
       <c r="D64" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F64" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B66" t="s">
         <v>8</v>
@@ -6852,7 +6852,7 @@
         <v>98</v>
       </c>
       <c r="D66" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>10</v>
@@ -6866,13 +6866,13 @@
         <v>48</v>
       </c>
       <c r="D67" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -6880,7 +6880,7 @@
         <v>49</v>
       </c>
       <c r="D68" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>9</v>
@@ -6891,7 +6891,7 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B70" t="s">
         <v>8</v>
@@ -6900,13 +6900,13 @@
         <v>48</v>
       </c>
       <c r="D70" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -6914,7 +6914,7 @@
         <v>49</v>
       </c>
       <c r="D71" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>10</v>
@@ -6928,7 +6928,7 @@
         <v>50</v>
       </c>
       <c r="D72" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>9</v>
@@ -6939,7 +6939,7 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B74" t="s">
         <v>8</v>
@@ -6948,7 +6948,7 @@
         <v>49</v>
       </c>
       <c r="D74" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>10</v>
@@ -6962,7 +6962,7 @@
         <v>50</v>
       </c>
       <c r="D75" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>10</v>
@@ -6987,13 +6987,13 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B78" t="s">
         <v>8</v>
       </c>
       <c r="D78" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E78" s="3" t="s">
         <v>9</v>
@@ -7004,13 +7004,13 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D79" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -7088,7 +7088,7 @@
   <dimension ref="A1:F83"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7132,7 +7132,7 @@
         <v>159</v>
       </c>
       <c r="D2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>10</v>
@@ -7146,13 +7146,13 @@
         <v>98</v>
       </c>
       <c r="D3" t="s">
+        <v>521</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
         <v>522</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -7160,13 +7160,13 @@
         <v>48</v>
       </c>
       <c r="D4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -7185,7 +7185,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -7194,18 +7194,18 @@
         <v>48</v>
       </c>
       <c r="D7" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>163</v>
+        <v>660</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
@@ -7214,7 +7214,7 @@
         <v>98</v>
       </c>
       <c r="D9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>10</v>
@@ -7228,13 +7228,13 @@
         <v>48</v>
       </c>
       <c r="D10" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -7248,12 +7248,12 @@
         <v>9</v>
       </c>
       <c r="F11" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
@@ -7262,13 +7262,13 @@
         <v>48</v>
       </c>
       <c r="D13" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -7276,18 +7276,18 @@
         <v>49</v>
       </c>
       <c r="D14" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F14" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B16" t="s">
         <v>8</v>
@@ -7296,7 +7296,7 @@
         <v>98</v>
       </c>
       <c r="D16" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>10</v>
@@ -7310,18 +7310,18 @@
         <v>48</v>
       </c>
       <c r="D17" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F17" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B19" t="s">
         <v>8</v>
@@ -7330,7 +7330,7 @@
         <v>98</v>
       </c>
       <c r="D19" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>10</v>
@@ -7344,7 +7344,7 @@
         <v>48</v>
       </c>
       <c r="D20" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>10</v>
@@ -7364,12 +7364,12 @@
         <v>9</v>
       </c>
       <c r="F21" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B23" t="s">
         <v>8</v>
@@ -7378,7 +7378,7 @@
         <v>48</v>
       </c>
       <c r="D23" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>10</v>
@@ -7392,18 +7392,18 @@
         <v>49</v>
       </c>
       <c r="D24" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F24" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B26" t="s">
         <v>33</v>
@@ -7412,7 +7412,7 @@
         <v>48</v>
       </c>
       <c r="D26" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>10</v>
@@ -7426,7 +7426,7 @@
         <v>49</v>
       </c>
       <c r="D27" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>10</v>
@@ -7440,18 +7440,18 @@
         <v>50</v>
       </c>
       <c r="D28" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F28" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B30" t="s">
         <v>33</v>
@@ -7460,13 +7460,13 @@
         <v>98</v>
       </c>
       <c r="D30" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -7474,7 +7474,7 @@
         <v>48</v>
       </c>
       <c r="D31" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>10</v>
@@ -7488,13 +7488,13 @@
         <v>49</v>
       </c>
       <c r="D32" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -7502,7 +7502,7 @@
         <v>50</v>
       </c>
       <c r="D33" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>10</v>
@@ -7516,7 +7516,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>9</v>
@@ -7527,7 +7527,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B36" t="s">
         <v>33</v>
@@ -7536,18 +7536,18 @@
         <v>98</v>
       </c>
       <c r="D36" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F36" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B38" t="s">
         <v>33</v>
@@ -7556,13 +7556,13 @@
         <v>159</v>
       </c>
       <c r="D38" t="s">
+        <v>540</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" t="s">
         <v>541</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F38" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -7570,7 +7570,7 @@
         <v>98</v>
       </c>
       <c r="D39" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>10</v>
@@ -7584,7 +7584,7 @@
         <v>48</v>
       </c>
       <c r="D40" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>10</v>
@@ -7604,12 +7604,12 @@
         <v>9</v>
       </c>
       <c r="F41" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B43" t="s">
         <v>88</v>
@@ -7618,18 +7618,18 @@
         <v>48</v>
       </c>
       <c r="D43" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F43" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B45" t="s">
         <v>88</v>
@@ -7638,13 +7638,13 @@
         <v>159</v>
       </c>
       <c r="D45" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -7652,7 +7652,7 @@
         <v>98</v>
       </c>
       <c r="D46" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>9</v>
@@ -7663,7 +7663,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B48" t="s">
         <v>8</v>
@@ -7672,13 +7672,13 @@
         <v>48</v>
       </c>
       <c r="D48" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -7686,13 +7686,13 @@
         <v>49</v>
       </c>
       <c r="D49" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -7700,13 +7700,13 @@
         <v>50</v>
       </c>
       <c r="D50" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -7720,12 +7720,12 @@
         <v>9</v>
       </c>
       <c r="F51" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B53" t="s">
         <v>8</v>
@@ -7734,7 +7734,7 @@
         <v>98</v>
       </c>
       <c r="D53" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>10</v>
@@ -7748,7 +7748,7 @@
         <v>48</v>
       </c>
       <c r="D54" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>10</v>
@@ -7768,12 +7768,12 @@
         <v>9</v>
       </c>
       <c r="F55" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B57" t="s">
         <v>8</v>
@@ -7782,13 +7782,13 @@
         <v>98</v>
       </c>
       <c r="D57" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F57" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -7802,7 +7802,7 @@
         <v>159</v>
       </c>
       <c r="D59" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>10</v>
@@ -7816,7 +7816,7 @@
         <v>98</v>
       </c>
       <c r="D60" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>10</v>
@@ -7830,13 +7830,13 @@
         <v>48</v>
       </c>
       <c r="D61" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -7850,12 +7850,12 @@
         <v>9</v>
       </c>
       <c r="F62" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B64" t="s">
         <v>8</v>
@@ -7864,7 +7864,7 @@
         <v>98</v>
       </c>
       <c r="D64" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>10</v>
@@ -7878,13 +7878,13 @@
         <v>48</v>
       </c>
       <c r="D65" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -7892,7 +7892,7 @@
         <v>49</v>
       </c>
       <c r="D66" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>9</v>
@@ -7903,7 +7903,7 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B68" t="s">
         <v>8</v>
@@ -7912,13 +7912,13 @@
         <v>98</v>
       </c>
       <c r="D68" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -7926,7 +7926,7 @@
         <v>48</v>
       </c>
       <c r="D69" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>9</v>
@@ -7937,7 +7937,7 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B71" t="s">
         <v>8</v>
@@ -7946,7 +7946,7 @@
         <v>48</v>
       </c>
       <c r="D71" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>10</v>
@@ -7960,13 +7960,13 @@
         <v>49</v>
       </c>
       <c r="D72" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -7974,7 +7974,7 @@
         <v>50</v>
       </c>
       <c r="D73" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>10</v>
@@ -7988,7 +7988,7 @@
         <v>0</v>
       </c>
       <c r="D74" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>10</v>
@@ -8002,18 +8002,18 @@
         <v>15</v>
       </c>
       <c r="D75" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F75" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B77" t="s">
         <v>8</v>
@@ -8042,12 +8042,12 @@
         <v>9</v>
       </c>
       <c r="F78" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B80" t="s">
         <v>8</v>
@@ -8062,7 +8062,7 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="81" spans="3:6" x14ac:dyDescent="0.3">
@@ -8076,7 +8076,7 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="82" spans="3:6" x14ac:dyDescent="0.3">
@@ -8084,13 +8084,13 @@
         <v>16</v>
       </c>
       <c r="D82" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E82" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F82" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="83" spans="3:6" x14ac:dyDescent="0.3">
@@ -8098,13 +8098,13 @@
         <v>0</v>
       </c>
       <c r="D83" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F83" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
   </sheetData>
@@ -8196,8 +8196,8 @@
   </sheetPr>
   <dimension ref="A1:F99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8232,7 +8232,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -8241,13 +8241,13 @@
         <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -8255,7 +8255,7 @@
         <v>49</v>
       </c>
       <c r="D3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>10</v>
@@ -8269,7 +8269,7 @@
         <v>50</v>
       </c>
       <c r="D4" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>10</v>
@@ -8283,13 +8283,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -8297,13 +8297,13 @@
         <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -8317,7 +8317,7 @@
         <v>159</v>
       </c>
       <c r="D8" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>10</v>
@@ -8331,7 +8331,7 @@
         <v>98</v>
       </c>
       <c r="D9" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>10</v>
@@ -8351,7 +8351,7 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -8365,7 +8365,7 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -8373,18 +8373,18 @@
         <v>50</v>
       </c>
       <c r="D12" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F12" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>163</v>
+        <v>660</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
@@ -8393,13 +8393,13 @@
         <v>98</v>
       </c>
       <c r="D14" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -8413,12 +8413,12 @@
         <v>9</v>
       </c>
       <c r="F15" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
@@ -8427,13 +8427,13 @@
         <v>48</v>
       </c>
       <c r="D17" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -8441,7 +8441,7 @@
         <v>49</v>
       </c>
       <c r="D18" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>9</v>
@@ -8452,7 +8452,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B20" t="s">
         <v>8</v>
@@ -8461,13 +8461,13 @@
         <v>98</v>
       </c>
       <c r="D20" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -8475,18 +8475,18 @@
         <v>48</v>
       </c>
       <c r="D21" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F21" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B23" t="s">
         <v>8</v>
@@ -8495,7 +8495,7 @@
         <v>98</v>
       </c>
       <c r="D23" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>10</v>
@@ -8509,7 +8509,7 @@
         <v>48</v>
       </c>
       <c r="D24" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>10</v>
@@ -8523,18 +8523,18 @@
         <v>49</v>
       </c>
       <c r="D25" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F25" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B27" t="s">
         <v>8</v>
@@ -8543,13 +8543,13 @@
         <v>48</v>
       </c>
       <c r="D27" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -8557,7 +8557,7 @@
         <v>49</v>
       </c>
       <c r="D28" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>10</v>
@@ -8571,13 +8571,13 @@
         <v>50</v>
       </c>
       <c r="D29" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -8585,13 +8585,13 @@
         <v>0</v>
       </c>
       <c r="D30" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -8599,7 +8599,7 @@
         <v>15</v>
       </c>
       <c r="D31" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>10</v>
@@ -8610,7 +8610,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B33" t="s">
         <v>33</v>
@@ -8619,7 +8619,7 @@
         <v>48</v>
       </c>
       <c r="D33" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>10</v>
@@ -8633,13 +8633,13 @@
         <v>49</v>
       </c>
       <c r="D34" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -8647,13 +8647,13 @@
         <v>50</v>
       </c>
       <c r="D35" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -8661,13 +8661,13 @@
         <v>0</v>
       </c>
       <c r="D36" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -8675,7 +8675,7 @@
         <v>15</v>
       </c>
       <c r="D37" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>9</v>
@@ -8686,7 +8686,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B39" t="s">
         <v>33</v>
@@ -8695,13 +8695,13 @@
         <v>98</v>
       </c>
       <c r="D39" t="s">
+        <v>588</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" t="s">
         <v>589</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F39" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -8709,7 +8709,7 @@
         <v>48</v>
       </c>
       <c r="D40" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>10</v>
@@ -8723,7 +8723,7 @@
         <v>49</v>
       </c>
       <c r="D41" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>10</v>
@@ -8737,7 +8737,7 @@
         <v>50</v>
       </c>
       <c r="D42" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>9</v>
@@ -8748,7 +8748,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B44" t="s">
         <v>33</v>
@@ -8757,7 +8757,7 @@
         <v>98</v>
       </c>
       <c r="D44" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>10</v>
@@ -8771,13 +8771,13 @@
         <v>48</v>
       </c>
       <c r="D45" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -8785,7 +8785,7 @@
         <v>49</v>
       </c>
       <c r="D46" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>10</v>
@@ -8799,13 +8799,13 @@
         <v>50</v>
       </c>
       <c r="D47" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -8824,7 +8824,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B50" t="s">
         <v>33</v>
@@ -8833,7 +8833,7 @@
         <v>159</v>
       </c>
       <c r="D50" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>10</v>
@@ -8847,13 +8847,13 @@
         <v>98</v>
       </c>
       <c r="D51" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -8861,7 +8861,7 @@
         <v>48</v>
       </c>
       <c r="D52" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>9</v>
@@ -8881,7 +8881,7 @@
         <v>48</v>
       </c>
       <c r="D54" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>10</v>
@@ -8895,7 +8895,7 @@
         <v>49</v>
       </c>
       <c r="D55" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>10</v>
@@ -8923,7 +8923,7 @@
         <v>0</v>
       </c>
       <c r="D57" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>10</v>
@@ -8937,7 +8937,7 @@
         <v>15</v>
       </c>
       <c r="D58" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>10</v>
@@ -8948,7 +8948,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B60" t="s">
         <v>88</v>
@@ -8957,13 +8957,13 @@
         <v>159</v>
       </c>
       <c r="D60" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -8971,7 +8971,7 @@
         <v>98</v>
       </c>
       <c r="D61" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>10</v>
@@ -8985,18 +8985,18 @@
         <v>48</v>
       </c>
       <c r="D62" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F62" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B64" t="s">
         <v>8</v>
@@ -9005,13 +9005,13 @@
         <v>48</v>
       </c>
       <c r="D64" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -9019,7 +9019,7 @@
         <v>49</v>
       </c>
       <c r="D65" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>10</v>
@@ -9039,12 +9039,12 @@
         <v>9</v>
       </c>
       <c r="F66" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B68" t="s">
         <v>8</v>
@@ -9053,7 +9053,7 @@
         <v>98</v>
       </c>
       <c r="D68" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>10</v>
@@ -9067,18 +9067,18 @@
         <v>48</v>
       </c>
       <c r="D69" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F69" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B71" t="s">
         <v>8</v>
@@ -9087,13 +9087,13 @@
         <v>98</v>
       </c>
       <c r="D71" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
@@ -9101,7 +9101,7 @@
         <v>48</v>
       </c>
       <c r="D72" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>10</v>
@@ -9115,13 +9115,13 @@
         <v>49</v>
       </c>
       <c r="D73" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -9129,7 +9129,7 @@
         <v>50</v>
       </c>
       <c r="D74" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>10</v>
@@ -9143,13 +9143,13 @@
         <v>0</v>
       </c>
       <c r="D75" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -9177,13 +9177,13 @@
         <v>159</v>
       </c>
       <c r="D78" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -9191,18 +9191,18 @@
         <v>98</v>
       </c>
       <c r="D79" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E79" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F79" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B81" t="s">
         <v>8</v>
@@ -9225,7 +9225,7 @@
         <v>50</v>
       </c>
       <c r="D82" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>10</v>
@@ -9239,13 +9239,13 @@
         <v>0</v>
       </c>
       <c r="D83" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
@@ -9253,18 +9253,18 @@
         <v>15</v>
       </c>
       <c r="D84" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B86" t="s">
         <v>8</v>
@@ -9273,18 +9273,18 @@
         <v>98</v>
       </c>
       <c r="D86" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E86" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F86" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B88" t="s">
         <v>8</v>
@@ -9293,7 +9293,7 @@
         <v>98</v>
       </c>
       <c r="D88" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>10</v>
@@ -9307,7 +9307,7 @@
         <v>48</v>
       </c>
       <c r="D89" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>10</v>
@@ -9321,13 +9321,13 @@
         <v>49</v>
       </c>
       <c r="D90" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
@@ -9335,13 +9335,13 @@
         <v>50</v>
       </c>
       <c r="D91" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E91" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
@@ -9349,18 +9349,18 @@
         <v>0</v>
       </c>
       <c r="D92" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E92" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F92" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B94" t="s">
         <v>8</v>
@@ -9369,7 +9369,7 @@
         <v>48</v>
       </c>
       <c r="D94" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>10</v>
@@ -9383,13 +9383,13 @@
         <v>49</v>
       </c>
       <c r="D95" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E95" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F95" t="s">
         <v>201</v>
-      </c>
-      <c r="F95" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
@@ -9417,13 +9417,13 @@
         <v>16</v>
       </c>
       <c r="D98" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
@@ -9431,7 +9431,7 @@
         <v>16</v>
       </c>
       <c r="D99" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>10</v>
@@ -9529,7 +9529,7 @@
   <dimension ref="A1:F66"/>
   <sheetViews>
     <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E66" activeCellId="17" sqref="E5 E7 E10 E15 E18 E21 E23 E27 E29 E36 E38 E41 E45 E48 E50 E57 E63 E66"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9564,7 +9564,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -9587,13 +9587,13 @@
         <v>50</v>
       </c>
       <c r="D3" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -9601,13 +9601,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -9615,13 +9615,13 @@
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -9635,18 +9635,18 @@
         <v>159</v>
       </c>
       <c r="D7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
@@ -9655,7 +9655,7 @@
         <v>48</v>
       </c>
       <c r="D9" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>10</v>
@@ -9669,18 +9669,18 @@
         <v>49</v>
       </c>
       <c r="D10" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
@@ -9689,13 +9689,13 @@
         <v>48</v>
       </c>
       <c r="D12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -9703,7 +9703,7 @@
         <v>49</v>
       </c>
       <c r="D13" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>10</v>
@@ -9717,7 +9717,7 @@
         <v>50</v>
       </c>
       <c r="D14" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>10</v>
@@ -9731,7 +9731,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>9</v>
@@ -9742,7 +9742,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
@@ -9751,7 +9751,7 @@
         <v>98</v>
       </c>
       <c r="D17" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>10</v>
@@ -9765,18 +9765,18 @@
         <v>48</v>
       </c>
       <c r="D18" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F18" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B20" t="s">
         <v>8</v>
@@ -9785,13 +9785,13 @@
         <v>98</v>
       </c>
       <c r="D20" t="s">
+        <v>613</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" t="s">
         <v>614</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -9799,18 +9799,18 @@
         <v>48</v>
       </c>
       <c r="D21" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F21" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B23" t="s">
         <v>33</v>
@@ -9819,18 +9819,18 @@
         <v>48</v>
       </c>
       <c r="D23" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F23" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B25" t="s">
         <v>33</v>
@@ -9839,13 +9839,13 @@
         <v>98</v>
       </c>
       <c r="D25" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -9853,7 +9853,7 @@
         <v>48</v>
       </c>
       <c r="D26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>10</v>
@@ -9867,18 +9867,18 @@
         <v>49</v>
       </c>
       <c r="D27" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F27" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B29" t="s">
         <v>33</v>
@@ -9887,18 +9887,18 @@
         <v>48</v>
       </c>
       <c r="D29" t="s">
+        <v>616</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" t="s">
         <v>617</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F29" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B31" t="s">
         <v>33</v>
@@ -9907,13 +9907,13 @@
         <v>159</v>
       </c>
       <c r="D31" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -9921,13 +9921,13 @@
         <v>98</v>
       </c>
       <c r="D32" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -9935,7 +9935,7 @@
         <v>48</v>
       </c>
       <c r="D33" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>10</v>
@@ -9949,13 +9949,13 @@
         <v>49</v>
       </c>
       <c r="D34" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -9963,7 +9963,7 @@
         <v>50</v>
       </c>
       <c r="D35" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>10</v>
@@ -9977,13 +9977,13 @@
         <v>0</v>
       </c>
       <c r="D36" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F36" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -9997,18 +9997,18 @@
         <v>98</v>
       </c>
       <c r="D38" t="s">
+        <v>622</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" t="s">
         <v>623</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F38" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B40" t="s">
         <v>88</v>
@@ -10017,7 +10017,7 @@
         <v>159</v>
       </c>
       <c r="D40" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>10</v>
@@ -10031,7 +10031,7 @@
         <v>98</v>
       </c>
       <c r="D41" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>9</v>
@@ -10042,7 +10042,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B43" t="s">
         <v>8</v>
@@ -10051,13 +10051,13 @@
         <v>48</v>
       </c>
       <c r="D43" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -10065,7 +10065,7 @@
         <v>49</v>
       </c>
       <c r="D44" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>10</v>
@@ -10079,7 +10079,7 @@
         <v>50</v>
       </c>
       <c r="D45" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>9</v>
@@ -10090,7 +10090,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B47" t="s">
         <v>8</v>
@@ -10099,13 +10099,13 @@
         <v>49</v>
       </c>
       <c r="D47" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -10119,7 +10119,7 @@
         <v>9</v>
       </c>
       <c r="F48" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -10133,18 +10133,18 @@
         <v>159</v>
       </c>
       <c r="D50" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F50" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B52" t="s">
         <v>8</v>
@@ -10153,13 +10153,13 @@
         <v>49</v>
       </c>
       <c r="D52" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -10167,18 +10167,18 @@
         <v>50</v>
       </c>
       <c r="D53" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F53" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B55" t="s">
         <v>8</v>
@@ -10187,7 +10187,7 @@
         <v>98</v>
       </c>
       <c r="D55" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>10</v>
@@ -10201,7 +10201,7 @@
         <v>48</v>
       </c>
       <c r="D56" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>10</v>
@@ -10215,18 +10215,18 @@
         <v>49</v>
       </c>
       <c r="D57" t="s">
+        <v>627</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F57" t="s">
         <v>628</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F57" t="s">
-        <v>629</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B59" t="s">
         <v>8</v>
@@ -10235,7 +10235,7 @@
         <v>98</v>
       </c>
       <c r="D59" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>10</v>
@@ -10249,13 +10249,13 @@
         <v>48</v>
       </c>
       <c r="D60" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -10263,13 +10263,13 @@
         <v>49</v>
       </c>
       <c r="D61" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -10277,13 +10277,13 @@
         <v>50</v>
       </c>
       <c r="D62" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -10291,13 +10291,13 @@
         <v>0</v>
       </c>
       <c r="D63" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F63" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -10311,7 +10311,7 @@
         <v>48</v>
       </c>
       <c r="D65" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>10</v>
@@ -10325,13 +10325,13 @@
         <v>49</v>
       </c>
       <c r="D66" t="s">
+        <v>631</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F66" t="s">
         <v>632</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F66" t="s">
-        <v>633</v>
       </c>
     </row>
   </sheetData>
@@ -10398,18 +10398,18 @@
   </sheetPr>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E47" activeCellId="15" sqref="E2 E4 E8 E12 E16 E19 E22 E25 E28 E31 E35 E39 E41 E43 E45 E47"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -10434,7 +10434,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -10443,18 +10443,18 @@
         <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -10463,7 +10463,7 @@
         <v>48</v>
       </c>
       <c r="D4" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>9</v>
@@ -10483,7 +10483,7 @@
         <v>159</v>
       </c>
       <c r="D6" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>10</v>
@@ -10497,7 +10497,7 @@
         <v>98</v>
       </c>
       <c r="D7" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>10</v>
@@ -10511,18 +10511,18 @@
         <v>48</v>
       </c>
       <c r="D8" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F8" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
@@ -10531,13 +10531,13 @@
         <v>49</v>
       </c>
       <c r="D10" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -10545,13 +10545,13 @@
         <v>50</v>
       </c>
       <c r="D11" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -10559,18 +10559,18 @@
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F12" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
@@ -10579,13 +10579,13 @@
         <v>48</v>
       </c>
       <c r="D14" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -10593,13 +10593,13 @@
         <v>49</v>
       </c>
       <c r="D15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -10607,18 +10607,18 @@
         <v>50</v>
       </c>
       <c r="D16" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F16" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B18" t="s">
         <v>8</v>
@@ -10627,13 +10627,13 @@
         <v>98</v>
       </c>
       <c r="D18" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -10641,7 +10641,7 @@
         <v>48</v>
       </c>
       <c r="D19" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>9</v>
@@ -10652,7 +10652,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B21" t="s">
         <v>8</v>
@@ -10661,13 +10661,13 @@
         <v>98</v>
       </c>
       <c r="D21" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -10675,18 +10675,18 @@
         <v>48</v>
       </c>
       <c r="D22" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F22" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B24" t="s">
         <v>33</v>
@@ -10695,13 +10695,13 @@
         <v>48</v>
       </c>
       <c r="D24" t="s">
+        <v>643</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" t="s">
         <v>644</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" t="s">
-        <v>645</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -10709,18 +10709,18 @@
         <v>49</v>
       </c>
       <c r="D25" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F25" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B27" t="s">
         <v>33</v>
@@ -10729,13 +10729,13 @@
         <v>98</v>
       </c>
       <c r="D27" t="s">
+        <v>645</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" t="s">
         <v>646</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -10743,18 +10743,18 @@
         <v>48</v>
       </c>
       <c r="D28" t="s">
+        <v>647</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" t="s">
         <v>648</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F28" t="s">
-        <v>649</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B30" t="s">
         <v>33</v>
@@ -10763,13 +10763,13 @@
         <v>98</v>
       </c>
       <c r="D30" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -10777,18 +10777,18 @@
         <v>48</v>
       </c>
       <c r="D31" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F31" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B33" t="s">
         <v>33</v>
@@ -10797,13 +10797,13 @@
         <v>159</v>
       </c>
       <c r="D33" t="s">
+        <v>650</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" t="s">
         <v>651</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F33" t="s">
-        <v>652</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -10811,7 +10811,7 @@
         <v>98</v>
       </c>
       <c r="D34" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>10</v>
@@ -10825,7 +10825,7 @@
         <v>48</v>
       </c>
       <c r="D35" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>9</v>
@@ -10836,7 +10836,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B37" t="s">
         <v>88</v>
@@ -10845,7 +10845,7 @@
         <v>48</v>
       </c>
       <c r="D37" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>10</v>
@@ -10859,13 +10859,13 @@
         <v>49</v>
       </c>
       <c r="D38" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -10873,18 +10873,18 @@
         <v>50</v>
       </c>
       <c r="D39" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F39" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B41" t="s">
         <v>88</v>
@@ -10893,7 +10893,7 @@
         <v>159</v>
       </c>
       <c r="D41" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>9</v>
@@ -10904,7 +10904,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B43" t="s">
         <v>8</v>
@@ -10913,18 +10913,18 @@
         <v>98</v>
       </c>
       <c r="D43" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F43" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B45" t="s">
         <v>8</v>
@@ -10933,7 +10933,7 @@
         <v>98</v>
       </c>
       <c r="D45" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>9</v>
@@ -10953,13 +10953,13 @@
         <v>159</v>
       </c>
       <c r="D47" t="s">
+        <v>657</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F47" t="s">
         <v>658</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F47" t="s">
-        <v>659</v>
       </c>
     </row>
   </sheetData>
@@ -11000,16 +11000,17 @@
   <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -11414,17 +11415,17 @@
   <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -12024,18 +12025,18 @@
   </sheetPr>
   <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -12226,7 +12227,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>163</v>
+        <v>660</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
@@ -12235,13 +12236,13 @@
         <v>48</v>
       </c>
       <c r="D15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -12255,12 +12256,12 @@
         <v>9</v>
       </c>
       <c r="F16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B18" t="s">
         <v>8</v>
@@ -12269,7 +12270,7 @@
         <v>102</v>
       </c>
       <c r="D18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>10</v>
@@ -12297,7 +12298,7 @@
         <v>132</v>
       </c>
       <c r="D20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>9</v>
@@ -12308,7 +12309,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B22" t="s">
         <v>8</v>
@@ -12317,13 +12318,13 @@
         <v>159</v>
       </c>
       <c r="D22" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -12331,13 +12332,13 @@
         <v>98</v>
       </c>
       <c r="D23" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -12345,13 +12346,13 @@
         <v>48</v>
       </c>
       <c r="D24" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -12359,13 +12360,13 @@
         <v>49</v>
       </c>
       <c r="D25" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -12384,7 +12385,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B28" t="s">
         <v>33</v>
@@ -12393,7 +12394,7 @@
         <v>48</v>
       </c>
       <c r="D28" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>10</v>
@@ -12407,7 +12408,7 @@
         <v>49</v>
       </c>
       <c r="D29" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>10</v>
@@ -12421,13 +12422,13 @@
         <v>50</v>
       </c>
       <c r="D30" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -12435,18 +12436,18 @@
         <v>0</v>
       </c>
       <c r="D31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F31" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B33" t="s">
         <v>33</v>
@@ -12455,7 +12456,7 @@
         <v>98</v>
       </c>
       <c r="D33" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>9</v>
@@ -12466,7 +12467,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B35" t="s">
         <v>33</v>
@@ -12495,7 +12496,7 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -12503,7 +12504,7 @@
         <v>49</v>
       </c>
       <c r="D37" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>9</v>
@@ -12514,7 +12515,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B39" t="s">
         <v>33</v>
@@ -12523,7 +12524,7 @@
         <v>159</v>
       </c>
       <c r="D39" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>10</v>
@@ -12557,7 +12558,7 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -12565,13 +12566,13 @@
         <v>49</v>
       </c>
       <c r="D42" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -12579,7 +12580,7 @@
         <v>50</v>
       </c>
       <c r="D43" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>9</v>
@@ -12590,7 +12591,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B45" t="s">
         <v>88</v>
@@ -12599,7 +12600,7 @@
         <v>159</v>
       </c>
       <c r="D45" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>10</v>
@@ -12613,7 +12614,7 @@
         <v>98</v>
       </c>
       <c r="D46" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>10</v>
@@ -12627,7 +12628,7 @@
         <v>48</v>
       </c>
       <c r="D47" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>9</v>
@@ -12638,7 +12639,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B49" t="s">
         <v>8</v>
@@ -12647,13 +12648,13 @@
         <v>98</v>
       </c>
       <c r="D49" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -12667,7 +12668,7 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -12675,13 +12676,13 @@
         <v>49</v>
       </c>
       <c r="D51" t="s">
+        <v>199</v>
+      </c>
+      <c r="E51" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="E51" s="7" t="s">
+      <c r="F51" t="s">
         <v>201</v>
-      </c>
-      <c r="F51" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -12695,13 +12696,13 @@
         <v>159</v>
       </c>
       <c r="D53" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -12709,18 +12710,18 @@
         <v>98</v>
       </c>
       <c r="D54" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F54" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B56" t="s">
         <v>8</v>
@@ -12729,7 +12730,7 @@
         <v>48</v>
       </c>
       <c r="D56" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>9</v>
@@ -12755,7 +12756,7 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -12763,7 +12764,7 @@
         <v>49</v>
       </c>
       <c r="D59" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>10</v>
@@ -12777,7 +12778,7 @@
         <v>50</v>
       </c>
       <c r="D60" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>10</v>
@@ -12791,7 +12792,7 @@
         <v>0</v>
       </c>
       <c r="D61" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>9</v>
@@ -12802,7 +12803,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B63" t="s">
         <v>8</v>
@@ -12811,13 +12812,13 @@
         <v>48</v>
       </c>
       <c r="D63" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -12825,7 +12826,7 @@
         <v>49</v>
       </c>
       <c r="D64" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>10</v>
@@ -12845,7 +12846,7 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="66" spans="3:6" x14ac:dyDescent="0.3">
@@ -12853,13 +12854,13 @@
         <v>0</v>
       </c>
       <c r="D66" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F66" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -12876,17 +12877,17 @@
   <dimension ref="A1:F73"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" customWidth="1"/>
-    <col min="4" max="4" width="35.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -12911,7 +12912,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -12920,7 +12921,7 @@
         <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>10</v>
@@ -12940,7 +12941,7 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -12948,13 +12949,13 @@
         <v>50</v>
       </c>
       <c r="D4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -12968,7 +12969,7 @@
         <v>159</v>
       </c>
       <c r="D6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>10</v>
@@ -12988,12 +12989,12 @@
         <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B9" t="s">
         <v>75</v>
@@ -13002,13 +13003,13 @@
         <v>48</v>
       </c>
       <c r="D9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -13027,7 +13028,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
@@ -13036,7 +13037,7 @@
         <v>48</v>
       </c>
       <c r="D12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>10</v>
@@ -13050,18 +13051,18 @@
         <v>49</v>
       </c>
       <c r="D13" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F13" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
@@ -13070,7 +13071,7 @@
         <v>98</v>
       </c>
       <c r="D15" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>10</v>
@@ -13084,7 +13085,7 @@
         <v>48</v>
       </c>
       <c r="D16" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>10</v>
@@ -13112,18 +13113,18 @@
         <v>50</v>
       </c>
       <c r="D18" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B20" t="s">
         <v>8</v>
@@ -13138,7 +13139,7 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -13146,13 +13147,13 @@
         <v>48</v>
       </c>
       <c r="D21" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -13166,12 +13167,12 @@
         <v>9</v>
       </c>
       <c r="F22" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B24" t="s">
         <v>33</v>
@@ -13180,13 +13181,13 @@
         <v>48</v>
       </c>
       <c r="D24" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -13194,7 +13195,7 @@
         <v>49</v>
       </c>
       <c r="D25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>10</v>
@@ -13214,12 +13215,12 @@
         <v>9</v>
       </c>
       <c r="F26" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B28" t="s">
         <v>33</v>
@@ -13234,12 +13235,12 @@
         <v>9</v>
       </c>
       <c r="F28" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B30" t="s">
         <v>33</v>
@@ -13262,7 +13263,7 @@
         <v>98</v>
       </c>
       <c r="D31" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>10</v>
@@ -13276,7 +13277,7 @@
         <v>48</v>
       </c>
       <c r="D32" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>9</v>
@@ -13287,7 +13288,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B34" t="s">
         <v>88</v>
@@ -13296,13 +13297,13 @@
         <v>48</v>
       </c>
       <c r="D34" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -13316,7 +13317,7 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -13324,18 +13325,18 @@
         <v>50</v>
       </c>
       <c r="D36" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F36" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B38" t="s">
         <v>88</v>
@@ -13344,13 +13345,13 @@
         <v>159</v>
       </c>
       <c r="D38" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -13358,7 +13359,7 @@
         <v>98</v>
       </c>
       <c r="D39" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>10</v>
@@ -13372,13 +13373,13 @@
         <v>48</v>
       </c>
       <c r="D40" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -13397,7 +13398,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B43" t="s">
         <v>8</v>
@@ -13406,7 +13407,7 @@
         <v>98</v>
       </c>
       <c r="D43" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>10</v>
@@ -13420,7 +13421,7 @@
         <v>48</v>
       </c>
       <c r="D44" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>10</v>
@@ -13445,7 +13446,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B47" t="s">
         <v>8</v>
@@ -13454,7 +13455,7 @@
         <v>98</v>
       </c>
       <c r="D47" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>10</v>
@@ -13468,13 +13469,13 @@
         <v>48</v>
       </c>
       <c r="D48" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -13482,7 +13483,7 @@
         <v>49</v>
       </c>
       <c r="D49" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>10</v>
@@ -13496,18 +13497,18 @@
         <v>50</v>
       </c>
       <c r="D50" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F50" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B52" t="s">
         <v>8</v>
@@ -13516,7 +13517,7 @@
         <v>98</v>
       </c>
       <c r="D52" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>10</v>
@@ -13530,13 +13531,13 @@
         <v>48</v>
       </c>
       <c r="D53" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -13544,13 +13545,13 @@
         <v>49</v>
       </c>
       <c r="D54" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E54" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -13558,7 +13559,7 @@
         <v>50</v>
       </c>
       <c r="D55" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>10</v>
@@ -13572,7 +13573,7 @@
         <v>0</v>
       </c>
       <c r="D56" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>10</v>
@@ -13586,13 +13587,13 @@
         <v>15</v>
       </c>
       <c r="D57" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -13606,13 +13607,13 @@
         <v>159</v>
       </c>
       <c r="D59" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -13620,13 +13621,13 @@
         <v>98</v>
       </c>
       <c r="D60" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -13645,7 +13646,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B63" t="s">
         <v>8</v>
@@ -13654,13 +13655,13 @@
         <v>48</v>
       </c>
       <c r="D63" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F63" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -13685,7 +13686,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B67" t="s">
         <v>8</v>
@@ -13694,13 +13695,13 @@
         <v>48</v>
       </c>
       <c r="D67" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -13722,18 +13723,18 @@
         <v>50</v>
       </c>
       <c r="D69" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F69" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B71" t="s">
         <v>8</v>
@@ -13742,13 +13743,13 @@
         <v>48</v>
       </c>
       <c r="D71" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
@@ -13756,13 +13757,13 @@
         <v>49</v>
       </c>
       <c r="D72" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -13770,7 +13771,7 @@
         <v>50</v>
       </c>
       <c r="D73" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>9</v>
@@ -13793,17 +13794,17 @@
   <dimension ref="A1:F85"/>
   <sheetViews>
     <sheetView topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -13828,7 +13829,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -13837,13 +13838,13 @@
         <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -13851,7 +13852,7 @@
         <v>49</v>
       </c>
       <c r="D3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>10</v>
@@ -13865,18 +13866,18 @@
         <v>50</v>
       </c>
       <c r="D4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
@@ -13885,7 +13886,7 @@
         <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>10</v>
@@ -13899,13 +13900,13 @@
         <v>49</v>
       </c>
       <c r="D7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -13913,7 +13914,7 @@
         <v>50</v>
       </c>
       <c r="D8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>9</v>
@@ -13933,7 +13934,7 @@
         <v>159</v>
       </c>
       <c r="D10" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>10</v>
@@ -13953,7 +13954,7 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -13961,7 +13962,7 @@
         <v>48</v>
       </c>
       <c r="D12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>9</v>
@@ -13972,7 +13973,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
@@ -13981,7 +13982,7 @@
         <v>48</v>
       </c>
       <c r="D14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>10</v>
@@ -13995,13 +13996,13 @@
         <v>49</v>
       </c>
       <c r="D15" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -14009,13 +14010,13 @@
         <v>50</v>
       </c>
       <c r="D16" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -14023,13 +14024,13 @@
         <v>0</v>
       </c>
       <c r="D17" t="s">
+        <v>286</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" t="s">
         <v>287</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -14037,7 +14038,7 @@
         <v>15</v>
       </c>
       <c r="D18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>9</v>
@@ -14048,7 +14049,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B20" t="s">
         <v>8</v>
@@ -14057,7 +14058,7 @@
         <v>48</v>
       </c>
       <c r="D20" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>10</v>
@@ -14071,13 +14072,13 @@
         <v>49</v>
       </c>
       <c r="D21" t="s">
+        <v>291</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" t="s">
         <v>292</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -14085,7 +14086,7 @@
         <v>50</v>
       </c>
       <c r="D22" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>9</v>
@@ -14096,7 +14097,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B24" t="s">
         <v>8</v>
@@ -14105,13 +14106,13 @@
         <v>98</v>
       </c>
       <c r="D24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -14119,7 +14120,7 @@
         <v>48</v>
       </c>
       <c r="D25" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>10</v>
@@ -14133,18 +14134,18 @@
         <v>49</v>
       </c>
       <c r="D26" t="s">
+        <v>294</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" t="s">
         <v>295</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F26" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B28" t="s">
         <v>8</v>
@@ -14153,18 +14154,18 @@
         <v>98</v>
       </c>
       <c r="D28" t="s">
+        <v>296</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" t="s">
         <v>297</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F28" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B30" t="s">
         <v>33</v>
@@ -14173,13 +14174,13 @@
         <v>48</v>
       </c>
       <c r="D30" t="s">
+        <v>299</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" t="s">
         <v>300</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F30" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -14187,7 +14188,7 @@
         <v>49</v>
       </c>
       <c r="D31" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>10</v>
@@ -14201,13 +14202,13 @@
         <v>50</v>
       </c>
       <c r="D32" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -14215,18 +14216,18 @@
         <v>0</v>
       </c>
       <c r="D33" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F33" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B35" t="s">
         <v>33</v>
@@ -14235,13 +14236,13 @@
         <v>48</v>
       </c>
       <c r="D35" t="s">
+        <v>302</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" t="s">
         <v>303</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F35" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -14249,7 +14250,7 @@
         <v>49</v>
       </c>
       <c r="D36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>9</v>
@@ -14260,7 +14261,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B38" t="s">
         <v>33</v>
@@ -14269,7 +14270,7 @@
         <v>98</v>
       </c>
       <c r="D38" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>10</v>
@@ -14283,7 +14284,7 @@
         <v>48</v>
       </c>
       <c r="D39" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>10</v>
@@ -14297,13 +14298,13 @@
         <v>49</v>
       </c>
       <c r="D40" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -14311,13 +14312,13 @@
         <v>50</v>
       </c>
       <c r="D41" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -14325,13 +14326,13 @@
         <v>0</v>
       </c>
       <c r="D42" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -14339,18 +14340,18 @@
         <v>15</v>
       </c>
       <c r="D43" t="s">
+        <v>313</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F43" t="s">
         <v>314</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F43" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B45" t="s">
         <v>33</v>
@@ -14359,7 +14360,7 @@
         <v>159</v>
       </c>
       <c r="D45" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>10</v>
@@ -14373,7 +14374,7 @@
         <v>98</v>
       </c>
       <c r="D46" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>10</v>
@@ -14387,7 +14388,7 @@
         <v>48</v>
       </c>
       <c r="D47" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>10</v>
@@ -14401,13 +14402,13 @@
         <v>49</v>
       </c>
       <c r="D48" t="s">
+        <v>318</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F48" t="s">
         <v>319</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F48" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -14415,13 +14416,13 @@
         <v>50</v>
       </c>
       <c r="D49" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -14429,7 +14430,7 @@
         <v>0</v>
       </c>
       <c r="D50" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>10</v>
@@ -14443,7 +14444,7 @@
         <v>15</v>
       </c>
       <c r="D51" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>9</v>
@@ -14454,7 +14455,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B53" t="s">
         <v>88</v>
@@ -14463,13 +14464,13 @@
         <v>49</v>
       </c>
       <c r="D53" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -14477,7 +14478,7 @@
         <v>50</v>
       </c>
       <c r="D54" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>9</v>
@@ -14488,7 +14489,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B56" t="s">
         <v>88</v>
@@ -14497,13 +14498,13 @@
         <v>159</v>
       </c>
       <c r="D56" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -14511,7 +14512,7 @@
         <v>98</v>
       </c>
       <c r="D57" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>10</v>
@@ -14525,7 +14526,7 @@
         <v>48</v>
       </c>
       <c r="D58" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>10</v>
@@ -14539,13 +14540,13 @@
         <v>49</v>
       </c>
       <c r="D59" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -14553,13 +14554,13 @@
         <v>50</v>
       </c>
       <c r="D60" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -14567,7 +14568,7 @@
         <v>0</v>
       </c>
       <c r="D61" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>9</v>
@@ -14578,7 +14579,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B63" t="s">
         <v>8</v>
@@ -14587,7 +14588,7 @@
         <v>48</v>
       </c>
       <c r="D63" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>10</v>
@@ -14601,7 +14602,7 @@
         <v>49</v>
       </c>
       <c r="D64" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>10</v>
@@ -14615,13 +14616,13 @@
         <v>50</v>
       </c>
       <c r="D65" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -14629,13 +14630,13 @@
         <v>0</v>
       </c>
       <c r="D66" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -14643,13 +14644,13 @@
         <v>15</v>
       </c>
       <c r="D67" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -14663,7 +14664,7 @@
         <v>159</v>
       </c>
       <c r="D69" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>10</v>
@@ -14677,7 +14678,7 @@
         <v>98</v>
       </c>
       <c r="D70" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>10</v>
@@ -14691,7 +14692,7 @@
         <v>48</v>
       </c>
       <c r="D71" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>10</v>
@@ -14705,7 +14706,7 @@
         <v>49</v>
       </c>
       <c r="D72" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>9</v>
@@ -14725,13 +14726,13 @@
         <v>49</v>
       </c>
       <c r="D74" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -14739,7 +14740,7 @@
         <v>50</v>
       </c>
       <c r="D75" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>10</v>
@@ -14753,7 +14754,7 @@
         <v>0</v>
       </c>
       <c r="D76" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>10</v>
@@ -14767,18 +14768,18 @@
         <v>15</v>
       </c>
       <c r="D77" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B79" t="s">
         <v>8</v>
@@ -14787,13 +14788,13 @@
         <v>48</v>
       </c>
       <c r="D79" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -14801,13 +14802,13 @@
         <v>49</v>
       </c>
       <c r="D80" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E80" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F80" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
@@ -14821,13 +14822,13 @@
         <v>16</v>
       </c>
       <c r="D82" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
@@ -14835,7 +14836,7 @@
         <v>16</v>
       </c>
       <c r="D83" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>9</v>
@@ -14849,13 +14850,13 @@
         <v>16</v>
       </c>
       <c r="D84" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
@@ -14863,7 +14864,7 @@
         <v>0</v>
       </c>
       <c r="D85" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E85" s="3" t="s">
         <v>9</v>
@@ -14886,17 +14887,17 @@
   <dimension ref="A1:F72"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -14921,7 +14922,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -14930,13 +14931,13 @@
         <v>49</v>
       </c>
       <c r="D2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -14944,13 +14945,13 @@
         <v>50</v>
       </c>
       <c r="D3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -14958,13 +14959,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -14978,13 +14979,13 @@
         <v>159</v>
       </c>
       <c r="D6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -14992,7 +14993,7 @@
         <v>98</v>
       </c>
       <c r="D7" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>10</v>
@@ -15006,7 +15007,7 @@
         <v>48</v>
       </c>
       <c r="D8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>10</v>
@@ -15020,13 +15021,13 @@
         <v>49</v>
       </c>
       <c r="D9" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -15034,13 +15035,13 @@
         <v>50</v>
       </c>
       <c r="D10" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -15048,13 +15049,13 @@
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -15062,18 +15063,18 @@
         <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>163</v>
+        <v>660</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
@@ -15082,7 +15083,7 @@
         <v>48</v>
       </c>
       <c r="D14" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>10</v>
@@ -15099,15 +15100,15 @@
         <v>20</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F15" t="s">
         <v>201</v>
-      </c>
-      <c r="F15" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
@@ -15116,7 +15117,7 @@
         <v>49</v>
       </c>
       <c r="D17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>10</v>
@@ -15130,18 +15131,18 @@
         <v>50</v>
       </c>
       <c r="D18" t="s">
+        <v>355</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" t="s">
         <v>356</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B20" t="s">
         <v>8</v>
@@ -15150,13 +15151,13 @@
         <v>98</v>
       </c>
       <c r="D20" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -15164,13 +15165,13 @@
         <v>48</v>
       </c>
       <c r="D21" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -15178,13 +15179,13 @@
         <v>49</v>
       </c>
       <c r="D22" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -15192,7 +15193,7 @@
         <v>50</v>
       </c>
       <c r="D23" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>10</v>
@@ -15206,13 +15207,13 @@
         <v>0</v>
       </c>
       <c r="D24" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -15220,7 +15221,7 @@
         <v>15</v>
       </c>
       <c r="D25" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>10</v>
@@ -15231,7 +15232,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B27" t="s">
         <v>8</v>
@@ -15240,7 +15241,7 @@
         <v>98</v>
       </c>
       <c r="D27" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>10</v>
@@ -15254,7 +15255,7 @@
         <v>48</v>
       </c>
       <c r="D28" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>9</v>
@@ -15265,7 +15266,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B30" t="s">
         <v>33</v>
@@ -15274,13 +15275,13 @@
         <v>48</v>
       </c>
       <c r="D30" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -15288,13 +15289,13 @@
         <v>49</v>
       </c>
       <c r="D31" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -15302,13 +15303,13 @@
         <v>50</v>
       </c>
       <c r="D32" t="s">
+        <v>360</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" t="s">
         <v>361</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F32" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -15316,7 +15317,7 @@
         <v>0</v>
       </c>
       <c r="D33" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>9</v>
@@ -15327,7 +15328,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B35" t="s">
         <v>33</v>
@@ -15342,12 +15343,12 @@
         <v>9</v>
       </c>
       <c r="F35" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B37" t="s">
         <v>33</v>
@@ -15356,7 +15357,7 @@
         <v>159</v>
       </c>
       <c r="D37" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>10</v>
@@ -15370,7 +15371,7 @@
         <v>98</v>
       </c>
       <c r="D38" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>10</v>
@@ -15384,7 +15385,7 @@
         <v>48</v>
       </c>
       <c r="D39" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>10</v>
@@ -15398,7 +15399,7 @@
         <v>49</v>
       </c>
       <c r="D40" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>10</v>
@@ -15412,7 +15413,7 @@
         <v>50</v>
       </c>
       <c r="D41" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>10</v>
@@ -15426,13 +15427,13 @@
         <v>0</v>
       </c>
       <c r="D42" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -15440,7 +15441,7 @@
         <v>15</v>
       </c>
       <c r="D43" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>10</v>
@@ -15451,7 +15452,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B45" t="s">
         <v>88</v>
@@ -15460,13 +15461,13 @@
         <v>159</v>
       </c>
       <c r="D45" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -15474,13 +15475,13 @@
         <v>98</v>
       </c>
       <c r="D46" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -15488,7 +15489,7 @@
         <v>48</v>
       </c>
       <c r="D47" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>9</v>
@@ -15499,7 +15500,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B49" t="s">
         <v>8</v>
@@ -15508,13 +15509,13 @@
         <v>48</v>
       </c>
       <c r="D49" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -15522,13 +15523,13 @@
         <v>49</v>
       </c>
       <c r="D50" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F50" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -15542,13 +15543,13 @@
         <v>159</v>
       </c>
       <c r="D52" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -15556,18 +15557,18 @@
         <v>98</v>
       </c>
       <c r="D53" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F53" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B55" t="s">
         <v>8</v>
@@ -15576,18 +15577,18 @@
         <v>49</v>
       </c>
       <c r="D55" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F55" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B57" t="s">
         <v>8</v>
@@ -15596,13 +15597,13 @@
         <v>49</v>
       </c>
       <c r="D57" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -15610,18 +15611,18 @@
         <v>50</v>
       </c>
       <c r="D58" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F58" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B60" t="s">
         <v>8</v>
@@ -15630,13 +15631,13 @@
         <v>49</v>
       </c>
       <c r="D60" t="s">
+        <v>381</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F60" t="s">
         <v>382</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F60" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -15650,7 +15651,7 @@
         <v>49</v>
       </c>
       <c r="D62" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>10</v>
@@ -15664,7 +15665,7 @@
         <v>50</v>
       </c>
       <c r="D63" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>10</v>
@@ -15678,18 +15679,18 @@
         <v>0</v>
       </c>
       <c r="D64" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F64" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B66" t="s">
         <v>8</v>
@@ -15698,7 +15699,7 @@
         <v>49</v>
       </c>
       <c r="D66" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>10</v>
@@ -15712,7 +15713,7 @@
         <v>50</v>
       </c>
       <c r="D67" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>10</v>
@@ -15732,7 +15733,7 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -15740,7 +15741,7 @@
         <v>15</v>
       </c>
       <c r="D69" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>10</v>
@@ -15760,7 +15761,7 @@
         <v>16</v>
       </c>
       <c r="D71" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>9</v>
@@ -15774,13 +15775,13 @@
         <v>16</v>
       </c>
       <c r="D72" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F72" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
   </sheetData>
@@ -15798,17 +15799,17 @@
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -15833,7 +15834,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -15842,7 +15843,7 @@
         <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>10</v>
@@ -15856,13 +15857,13 @@
         <v>49</v>
       </c>
       <c r="D3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -15890,13 +15891,13 @@
         <v>159</v>
       </c>
       <c r="D6" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -15904,7 +15905,7 @@
         <v>98</v>
       </c>
       <c r="D7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>10</v>
@@ -15918,18 +15919,18 @@
         <v>48</v>
       </c>
       <c r="D8" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F8" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
@@ -15938,13 +15939,13 @@
         <v>48</v>
       </c>
       <c r="D10" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -15952,13 +15953,13 @@
         <v>49</v>
       </c>
       <c r="D11" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -15977,7 +15978,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
@@ -15986,7 +15987,7 @@
         <v>98</v>
       </c>
       <c r="D14" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>10</v>
@@ -16000,7 +16001,7 @@
         <v>48</v>
       </c>
       <c r="D15" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>10</v>
@@ -16014,13 +16015,13 @@
         <v>49</v>
       </c>
       <c r="D16" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -16028,13 +16029,13 @@
         <v>50</v>
       </c>
       <c r="D17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -16042,7 +16043,7 @@
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>10</v>
@@ -16056,18 +16057,18 @@
         <v>15</v>
       </c>
       <c r="D19" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F19" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B21" t="s">
         <v>8</v>
@@ -16076,7 +16077,7 @@
         <v>98</v>
       </c>
       <c r="D21" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>10</v>
@@ -16090,18 +16091,18 @@
         <v>48</v>
       </c>
       <c r="D22" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F22" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B24" t="s">
         <v>33</v>
@@ -16110,7 +16111,7 @@
         <v>48</v>
       </c>
       <c r="D24" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>10</v>
@@ -16130,12 +16131,12 @@
         <v>9</v>
       </c>
       <c r="F25" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B27" t="s">
         <v>33</v>
@@ -16150,7 +16151,7 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -16158,7 +16159,7 @@
         <v>98</v>
       </c>
       <c r="D28" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>10</v>
@@ -16178,7 +16179,7 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -16197,7 +16198,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B32" t="s">
         <v>88</v>
@@ -16206,18 +16207,18 @@
         <v>48</v>
       </c>
       <c r="D32" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F32" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B34" t="s">
         <v>88</v>
@@ -16226,13 +16227,13 @@
         <v>159</v>
       </c>
       <c r="D34" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -16260,7 +16261,7 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -16268,18 +16269,18 @@
         <v>49</v>
       </c>
       <c r="D37" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F37" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B39" t="s">
         <v>8</v>
@@ -16288,13 +16289,13 @@
         <v>48</v>
       </c>
       <c r="D39" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -16313,7 +16314,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B42" t="s">
         <v>8</v>
@@ -16322,13 +16323,13 @@
         <v>98</v>
       </c>
       <c r="D42" t="s">
+        <v>409</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42" t="s">
         <v>410</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F42" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -16336,18 +16337,18 @@
         <v>48</v>
       </c>
       <c r="D43" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F43" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B45" t="s">
         <v>8</v>
@@ -16356,7 +16357,7 @@
         <v>98</v>
       </c>
       <c r="D45" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>10</v>
@@ -16370,13 +16371,13 @@
         <v>48</v>
       </c>
       <c r="D46" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F46" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -16390,18 +16391,18 @@
         <v>159</v>
       </c>
       <c r="D48" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F48" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B50" t="s">
         <v>8</v>
@@ -16410,13 +16411,13 @@
         <v>98</v>
       </c>
       <c r="D50" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F50" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
   </sheetData>
@@ -16434,7 +16435,7 @@
   <dimension ref="A1:F74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16469,7 +16470,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -16478,13 +16479,13 @@
         <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -16492,13 +16493,13 @@
         <v>49</v>
       </c>
       <c r="D3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -16506,13 +16507,13 @@
         <v>50</v>
       </c>
       <c r="D4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -16520,7 +16521,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>9</v>
@@ -16540,7 +16541,7 @@
         <v>159</v>
       </c>
       <c r="D7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>10</v>
@@ -16554,24 +16555,24 @@
         <v>98</v>
       </c>
       <c r="D8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F8" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>9</v>
@@ -16582,7 +16583,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>9</v>
@@ -16593,7 +16594,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
@@ -16602,7 +16603,7 @@
         <v>98</v>
       </c>
       <c r="D13" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>9</v>
@@ -16613,7 +16614,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
@@ -16622,7 +16623,7 @@
         <v>98</v>
       </c>
       <c r="D15" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>10</v>
@@ -16642,12 +16643,12 @@
         <v>9</v>
       </c>
       <c r="F16" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B18" t="s">
         <v>33</v>
@@ -16662,12 +16663,12 @@
         <v>9</v>
       </c>
       <c r="F18" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B20" t="s">
         <v>33</v>
@@ -16676,7 +16677,7 @@
         <v>98</v>
       </c>
       <c r="D20" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>10</v>
@@ -16704,13 +16705,13 @@
         <v>49</v>
       </c>
       <c r="D22" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -16718,7 +16719,7 @@
         <v>50</v>
       </c>
       <c r="D23" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>10</v>
@@ -16732,7 +16733,7 @@
         <v>0</v>
       </c>
       <c r="D24" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>9</v>
@@ -16743,7 +16744,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B26" t="s">
         <v>33</v>
@@ -16752,7 +16753,7 @@
         <v>48</v>
       </c>
       <c r="D26" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>9</v>
@@ -16763,7 +16764,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B28" t="s">
         <v>33</v>
@@ -16772,7 +16773,7 @@
         <v>159</v>
       </c>
       <c r="D28" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>10</v>
@@ -16786,18 +16787,18 @@
         <v>98</v>
       </c>
       <c r="D29" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F29" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B31" t="s">
         <v>88</v>
@@ -16806,13 +16807,13 @@
         <v>48</v>
       </c>
       <c r="D31" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -16820,18 +16821,18 @@
         <v>49</v>
       </c>
       <c r="D32" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F32" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B34" t="s">
         <v>88</v>
@@ -16840,7 +16841,7 @@
         <v>159</v>
       </c>
       <c r="D34" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>9</v>
@@ -16851,7 +16852,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B36" t="s">
         <v>8</v>
@@ -16860,7 +16861,7 @@
         <v>48</v>
       </c>
       <c r="D36" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>10</v>
@@ -16874,7 +16875,7 @@
         <v>49</v>
       </c>
       <c r="D37" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>9</v>
@@ -16885,7 +16886,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B39" t="s">
         <v>8</v>
@@ -16894,18 +16895,18 @@
         <v>48</v>
       </c>
       <c r="D39" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F39" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B41" t="s">
         <v>8</v>
@@ -16920,7 +16921,7 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -16928,13 +16929,13 @@
         <v>48</v>
       </c>
       <c r="D42" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -16942,7 +16943,7 @@
         <v>49</v>
       </c>
       <c r="D43" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>10</v>
@@ -16956,7 +16957,7 @@
         <v>50</v>
       </c>
       <c r="D44" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>10</v>
@@ -16970,13 +16971,13 @@
         <v>0</v>
       </c>
       <c r="D45" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F45" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -16990,7 +16991,7 @@
         <v>159</v>
       </c>
       <c r="D47" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>10</v>
@@ -17004,13 +17005,13 @@
         <v>98</v>
       </c>
       <c r="D48" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -17018,13 +17019,13 @@
         <v>48</v>
       </c>
       <c r="D49" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -17032,7 +17033,7 @@
         <v>49</v>
       </c>
       <c r="D50" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>9</v>
@@ -17043,7 +17044,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B52" t="s">
         <v>8</v>
@@ -17052,18 +17053,18 @@
         <v>48</v>
       </c>
       <c r="D52" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F52" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B54" t="s">
         <v>8</v>
@@ -17072,7 +17073,7 @@
         <v>98</v>
       </c>
       <c r="D54" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>10</v>
@@ -17086,7 +17087,7 @@
         <v>48</v>
       </c>
       <c r="D55" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>9</v>
@@ -17097,7 +17098,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B57" t="s">
         <v>8</v>
@@ -17106,7 +17107,7 @@
         <v>98</v>
       </c>
       <c r="D57" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>10</v>
@@ -17120,7 +17121,7 @@
         <v>48</v>
       </c>
       <c r="D58" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>10</v>
@@ -17134,13 +17135,13 @@
         <v>49</v>
       </c>
       <c r="D59" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -17148,18 +17149,18 @@
         <v>50</v>
       </c>
       <c r="D60" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F60" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B62" t="s">
         <v>8</v>
@@ -17168,7 +17169,7 @@
         <v>48</v>
       </c>
       <c r="D62" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>10</v>
@@ -17182,7 +17183,7 @@
         <v>49</v>
       </c>
       <c r="D63" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>10</v>
@@ -17196,13 +17197,13 @@
         <v>50</v>
       </c>
       <c r="D64" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -17210,13 +17211,13 @@
         <v>0</v>
       </c>
       <c r="D65" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -17224,7 +17225,7 @@
         <v>15</v>
       </c>
       <c r="D66" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>10</v>
@@ -17244,13 +17245,13 @@
         <v>48</v>
       </c>
       <c r="D68" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -17258,7 +17259,7 @@
         <v>49</v>
       </c>
       <c r="D69" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>10</v>
@@ -17272,7 +17273,7 @@
         <v>50</v>
       </c>
       <c r="D70" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>9</v>
@@ -17283,7 +17284,7 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B72" t="s">
         <v>8</v>
@@ -17292,13 +17293,13 @@
         <v>50</v>
       </c>
       <c r="D72" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -17306,13 +17307,13 @@
         <v>0</v>
       </c>
       <c r="D73" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -17320,13 +17321,13 @@
         <v>15</v>
       </c>
       <c r="D74" t="s">
+        <v>393</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F74" t="s">
         <v>394</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F74" t="s">
-        <v>395</v>
       </c>
     </row>
   </sheetData>
@@ -17343,7 +17344,7 @@
   <dimension ref="A1:F71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17387,18 +17388,18 @@
         <v>159</v>
       </c>
       <c r="D2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -17407,13 +17408,13 @@
         <v>48</v>
       </c>
       <c r="D4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -17421,13 +17422,13 @@
         <v>49</v>
       </c>
       <c r="D5" t="s">
+        <v>454</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
         <v>455</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -17435,18 +17436,18 @@
         <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -17455,18 +17456,18 @@
         <v>98</v>
       </c>
       <c r="D8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F8" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
@@ -17475,7 +17476,7 @@
         <v>98</v>
       </c>
       <c r="D10" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>10</v>
@@ -17489,7 +17490,7 @@
         <v>48</v>
       </c>
       <c r="D11" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>10</v>
@@ -17503,7 +17504,7 @@
         <v>49</v>
       </c>
       <c r="D12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>10</v>
@@ -17517,18 +17518,18 @@
         <v>50</v>
       </c>
       <c r="D13" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F13" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
@@ -17537,7 +17538,7 @@
         <v>98</v>
       </c>
       <c r="D15" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>10</v>
@@ -17551,13 +17552,13 @@
         <v>48</v>
       </c>
       <c r="D16" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -17565,18 +17566,18 @@
         <v>49</v>
       </c>
       <c r="D17" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F17" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B19" t="s">
         <v>33</v>
@@ -17585,18 +17586,18 @@
         <v>98</v>
       </c>
       <c r="D19" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F19" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B21" t="s">
         <v>33</v>
@@ -17605,13 +17606,13 @@
         <v>98</v>
       </c>
       <c r="D21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -17619,18 +17620,18 @@
         <v>48</v>
       </c>
       <c r="D22" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F22" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B24" t="s">
         <v>33</v>
@@ -17639,13 +17640,13 @@
         <v>159</v>
       </c>
       <c r="D24" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F24" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -17659,13 +17660,13 @@
         <v>48</v>
       </c>
       <c r="D26" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -17673,7 +17674,7 @@
         <v>49</v>
       </c>
       <c r="D27" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>10</v>
@@ -17687,7 +17688,7 @@
         <v>50</v>
       </c>
       <c r="D28" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>10</v>
@@ -17701,18 +17702,18 @@
         <v>0</v>
       </c>
       <c r="D29" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F29" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B31" t="s">
         <v>88</v>
@@ -17721,7 +17722,7 @@
         <v>48</v>
       </c>
       <c r="D31" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>10</v>
@@ -17735,7 +17736,7 @@
         <v>49</v>
       </c>
       <c r="D32" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>9</v>
@@ -17746,7 +17747,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B34" t="s">
         <v>88</v>
@@ -17755,13 +17756,13 @@
         <v>159</v>
       </c>
       <c r="D34" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -17769,13 +17770,13 @@
         <v>98</v>
       </c>
       <c r="D35" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -17783,18 +17784,18 @@
         <v>48</v>
       </c>
       <c r="D36" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F36" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B38" t="s">
         <v>8</v>
@@ -17803,18 +17804,18 @@
         <v>48</v>
       </c>
       <c r="D38" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F38" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B40" t="s">
         <v>8</v>
@@ -17823,13 +17824,13 @@
         <v>48</v>
       </c>
       <c r="D40" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -17837,7 +17838,7 @@
         <v>49</v>
       </c>
       <c r="D41" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>10</v>
@@ -17851,7 +17852,7 @@
         <v>50</v>
       </c>
       <c r="D42" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>10</v>
@@ -17865,18 +17866,18 @@
         <v>0</v>
       </c>
       <c r="D43" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F43" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B45" t="s">
         <v>8</v>
@@ -17885,7 +17886,7 @@
         <v>98</v>
       </c>
       <c r="D45" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>10</v>
@@ -17913,18 +17914,18 @@
         <v>49</v>
       </c>
       <c r="D47" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F47" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B49" t="s">
         <v>8</v>
@@ -17933,13 +17934,13 @@
         <v>98</v>
       </c>
       <c r="D49" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -17947,13 +17948,13 @@
         <v>48</v>
       </c>
       <c r="D50" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F50" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -17967,7 +17968,7 @@
         <v>159</v>
       </c>
       <c r="D52" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>10</v>
@@ -17981,13 +17982,13 @@
         <v>98</v>
       </c>
       <c r="D53" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E53" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -17995,7 +17996,7 @@
         <v>48</v>
       </c>
       <c r="D54" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>10</v>
@@ -18020,7 +18021,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B57" t="s">
         <v>8</v>
@@ -18029,7 +18030,7 @@
         <v>98</v>
       </c>
       <c r="D57" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>10</v>
@@ -18043,13 +18044,13 @@
         <v>48</v>
       </c>
       <c r="D58" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -18057,7 +18058,7 @@
         <v>49</v>
       </c>
       <c r="D59" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>9</v>
@@ -18068,7 +18069,7 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B61" t="s">
         <v>8</v>
@@ -18077,7 +18078,7 @@
         <v>98</v>
       </c>
       <c r="D61" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>10</v>
@@ -18091,7 +18092,7 @@
         <v>48</v>
       </c>
       <c r="D62" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>10</v>
@@ -18105,7 +18106,7 @@
         <v>49</v>
       </c>
       <c r="D63" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>10</v>
@@ -18125,7 +18126,7 @@
         <v>9</v>
       </c>
       <c r="F64" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -18139,13 +18140,13 @@
         <v>48</v>
       </c>
       <c r="D66" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -18153,7 +18154,7 @@
         <v>49</v>
       </c>
       <c r="D67" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>9</v>
@@ -18164,7 +18165,7 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B69" t="s">
         <v>8</v>
@@ -18173,7 +18174,7 @@
         <v>50</v>
       </c>
       <c r="D69" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>10</v>
@@ -18187,13 +18188,13 @@
         <v>0</v>
       </c>
       <c r="D70" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -18201,13 +18202,13 @@
         <v>15</v>
       </c>
       <c r="D71" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Ana Ivanović.xlsx
+++ b/Tennis/WTA Tour/Ana Ivanović.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8545" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3FB1BF69-A73A-4D9E-AF54-B943E344AF09}"/>
+  <xr:revisionPtr revIDLastSave="8567" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{765649F0-57CC-4769-83BD-2503F4E93945}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="9" activeTab="14" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="9465" yWindow="2265" windowWidth="28800" windowHeight="15345" firstSheet="4" activeTab="13" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2003" sheetId="25" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3332" uniqueCount="662">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3328" uniqueCount="661">
   <si>
     <t>Semifinal</t>
   </si>
@@ -540,9 +540,6 @@
     <t>Iveta Benešová (CZECH REPUBLIC)</t>
   </si>
   <si>
-    <t>QATAR TOTAL OPEN</t>
-  </si>
-  <si>
     <t>2-6 6-2 6-4</t>
   </si>
   <si>
@@ -552,9 +549,6 @@
     <t>María Vento-Kabchi (VENEZUELA)</t>
   </si>
   <si>
-    <t>DUBAI TENNIS CHAMPIONSHIPS</t>
-  </si>
-  <si>
     <t>Heidi El-Tabakh (CANADA)</t>
   </si>
   <si>
@@ -1341,9 +1335,6 @@
     <t>6-1 7-6(5)</t>
   </si>
   <si>
-    <t>MUTUA MADRID OPEN</t>
-  </si>
-  <si>
     <t>Kai-Lung Chang (CHINESE TAIPEI)</t>
   </si>
   <si>
@@ -1542,9 +1533,6 @@
     <t>Mona Barthel (GERMANY)</t>
   </si>
   <si>
-    <t>6-4, 6-1</t>
-  </si>
-  <si>
     <t>Mathilde Johansson (FRANCE)</t>
   </si>
   <si>
@@ -2035,6 +2023,15 @@
   </si>
   <si>
     <t>7-6(4) 6-1</t>
+  </si>
+  <si>
+    <t>MADRID OPEN</t>
+  </si>
+  <si>
+    <t>QATAR LADIES OPEN</t>
+  </si>
+  <si>
+    <t>DUBAI OPEN</t>
   </si>
 </sst>
 </file>
@@ -3432,7 +3429,7 @@
                   <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>19</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>16</c:v>
@@ -3971,7 +3968,7 @@
                   <c:v>0.7068965517241379</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.32142857142857145</c:v>
+                  <c:v>0.35714285714285715</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>-6.6666666666666666E-2</c:v>
@@ -5384,7 +5381,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{BEFAAB55-596A-40B8-8663-10219CC086A1}">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -5396,7 +5393,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{575DF813-855C-48CC-BEF5-47C3E1E68184}">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5407,7 +5404,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8582025" cy="5838825"/>
+    <xdr:ext cx="8564880" cy="5821680"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -5469,14 +5466,10 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -5514,7 +5507,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -5620,7 +5613,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5762,7 +5755,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5775,8 +5768,8 @@
   </sheetPr>
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6056,13 +6049,13 @@
   </sheetPr>
   <dimension ref="A1:F79"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="D78" sqref="D78"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="41.28515625" bestFit="1" customWidth="1"/>
@@ -6092,7 +6085,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -6101,7 +6094,7 @@
         <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>10</v>
@@ -6115,18 +6108,18 @@
         <v>49</v>
       </c>
       <c r="D3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -6135,13 +6128,13 @@
         <v>48</v>
       </c>
       <c r="D5" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -6155,7 +6148,7 @@
         <v>159</v>
       </c>
       <c r="D7" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>10</v>
@@ -6169,7 +6162,7 @@
         <v>98</v>
       </c>
       <c r="D8" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>10</v>
@@ -6183,7 +6176,7 @@
         <v>48</v>
       </c>
       <c r="D9" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>10</v>
@@ -6197,18 +6190,18 @@
         <v>49</v>
       </c>
       <c r="D10" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>163</v>
+        <v>659</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
@@ -6217,13 +6210,13 @@
         <v>98</v>
       </c>
       <c r="D12" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -6231,7 +6224,7 @@
         <v>48</v>
       </c>
       <c r="D13" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>9</v>
@@ -6242,7 +6235,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>167</v>
+        <v>660</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
@@ -6251,13 +6244,13 @@
         <v>48</v>
       </c>
       <c r="D15" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -6265,13 +6258,13 @@
         <v>49</v>
       </c>
       <c r="D16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -6279,18 +6272,18 @@
         <v>50</v>
       </c>
       <c r="D17" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F17" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B19" t="s">
         <v>8</v>
@@ -6299,7 +6292,7 @@
         <v>98</v>
       </c>
       <c r="D19" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>10</v>
@@ -6313,13 +6306,13 @@
         <v>48</v>
       </c>
       <c r="D20" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -6327,7 +6320,7 @@
         <v>49</v>
       </c>
       <c r="D21" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>10</v>
@@ -6341,7 +6334,7 @@
         <v>50</v>
       </c>
       <c r="D22" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>10</v>
@@ -6355,18 +6348,18 @@
         <v>0</v>
       </c>
       <c r="D23" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F23" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B25" t="s">
         <v>8</v>
@@ -6375,13 +6368,13 @@
         <v>98</v>
       </c>
       <c r="D25" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -6389,13 +6382,13 @@
         <v>48</v>
       </c>
       <c r="D26" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -6403,46 +6396,46 @@
         <v>49</v>
       </c>
       <c r="D27" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F27" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B29" t="s">
         <v>8</v>
       </c>
       <c r="D29" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F29" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B32" t="s">
         <v>33</v>
@@ -6451,18 +6444,18 @@
         <v>48</v>
       </c>
       <c r="D32" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F32" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>430</v>
+        <v>658</v>
       </c>
       <c r="B34" t="s">
         <v>33</v>
@@ -6471,7 +6464,7 @@
         <v>98</v>
       </c>
       <c r="D34" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>10</v>
@@ -6485,7 +6478,7 @@
         <v>48</v>
       </c>
       <c r="D35" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>10</v>
@@ -6510,7 +6503,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B38" t="s">
         <v>33</v>
@@ -6519,7 +6512,7 @@
         <v>98</v>
       </c>
       <c r="D38" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>10</v>
@@ -6533,7 +6526,7 @@
         <v>48</v>
       </c>
       <c r="D39" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>10</v>
@@ -6547,18 +6540,18 @@
         <v>49</v>
       </c>
       <c r="D40" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F40" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B42" t="s">
         <v>33</v>
@@ -6567,7 +6560,7 @@
         <v>159</v>
       </c>
       <c r="D42" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>10</v>
@@ -6581,7 +6574,7 @@
         <v>98</v>
       </c>
       <c r="D43" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>10</v>
@@ -6601,12 +6594,12 @@
         <v>9</v>
       </c>
       <c r="F44" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B46" t="s">
         <v>88</v>
@@ -6615,13 +6608,13 @@
         <v>159</v>
       </c>
       <c r="D46" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -6629,13 +6622,13 @@
         <v>98</v>
       </c>
       <c r="D47" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -6643,13 +6636,13 @@
         <v>48</v>
       </c>
       <c r="D48" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -6663,12 +6656,12 @@
         <v>9</v>
       </c>
       <c r="F49" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="B51" t="s">
         <v>88</v>
@@ -6677,13 +6670,13 @@
         <v>98</v>
       </c>
       <c r="D51" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -6691,13 +6684,13 @@
         <v>48</v>
       </c>
       <c r="D52" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -6705,7 +6698,7 @@
         <v>49</v>
       </c>
       <c r="D53" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>9</v>
@@ -6716,7 +6709,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B55" t="s">
         <v>8</v>
@@ -6725,7 +6718,7 @@
         <v>48</v>
       </c>
       <c r="D55" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>9</v>
@@ -6745,7 +6738,7 @@
         <v>159</v>
       </c>
       <c r="D57" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>10</v>
@@ -6759,7 +6752,7 @@
         <v>98</v>
       </c>
       <c r="D58" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>10</v>
@@ -6773,13 +6766,13 @@
         <v>48</v>
       </c>
       <c r="D59" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -6793,7 +6786,7 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -6812,7 +6805,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B63" t="s">
         <v>8</v>
@@ -6821,13 +6814,13 @@
         <v>98</v>
       </c>
       <c r="D63" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -6835,18 +6828,18 @@
         <v>48</v>
       </c>
       <c r="D64" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F64" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B66" t="s">
         <v>8</v>
@@ -6855,7 +6848,7 @@
         <v>98</v>
       </c>
       <c r="D66" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>10</v>
@@ -6869,13 +6862,13 @@
         <v>48</v>
       </c>
       <c r="D67" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -6883,7 +6876,7 @@
         <v>49</v>
       </c>
       <c r="D68" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>9</v>
@@ -6894,7 +6887,7 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B70" t="s">
         <v>8</v>
@@ -6903,13 +6896,13 @@
         <v>48</v>
       </c>
       <c r="D70" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -6917,7 +6910,7 @@
         <v>49</v>
       </c>
       <c r="D71" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>10</v>
@@ -6931,7 +6924,7 @@
         <v>50</v>
       </c>
       <c r="D72" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>9</v>
@@ -6942,7 +6935,7 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B74" t="s">
         <v>8</v>
@@ -6951,7 +6944,7 @@
         <v>49</v>
       </c>
       <c r="D74" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>10</v>
@@ -6965,7 +6958,7 @@
         <v>50</v>
       </c>
       <c r="D75" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>10</v>
@@ -6990,13 +6983,13 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B78" t="s">
         <v>8</v>
       </c>
       <c r="D78" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E78" s="3" t="s">
         <v>9</v>
@@ -7007,13 +7000,13 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D79" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -7090,13 +7083,13 @@
   </sheetPr>
   <dimension ref="A1:F83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
@@ -7135,7 +7128,7 @@
         <v>159</v>
       </c>
       <c r="D2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>10</v>
@@ -7149,13 +7142,13 @@
         <v>98</v>
       </c>
       <c r="D3" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -7163,13 +7156,13 @@
         <v>48</v>
       </c>
       <c r="D4" t="s">
+        <v>208</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
         <v>210</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -7188,7 +7181,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -7197,18 +7190,18 @@
         <v>48</v>
       </c>
       <c r="D7" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>163</v>
+        <v>659</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
@@ -7217,7 +7210,7 @@
         <v>98</v>
       </c>
       <c r="D9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>10</v>
@@ -7231,13 +7224,13 @@
         <v>48</v>
       </c>
       <c r="D10" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -7251,12 +7244,12 @@
         <v>9</v>
       </c>
       <c r="F11" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>167</v>
+        <v>660</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
@@ -7265,13 +7258,13 @@
         <v>48</v>
       </c>
       <c r="D13" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -7279,18 +7272,18 @@
         <v>49</v>
       </c>
       <c r="D14" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F14" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B16" t="s">
         <v>8</v>
@@ -7299,7 +7292,7 @@
         <v>98</v>
       </c>
       <c r="D16" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>10</v>
@@ -7313,18 +7306,18 @@
         <v>48</v>
       </c>
       <c r="D17" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F17" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B19" t="s">
         <v>8</v>
@@ -7333,7 +7326,7 @@
         <v>98</v>
       </c>
       <c r="D19" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>10</v>
@@ -7347,7 +7340,7 @@
         <v>48</v>
       </c>
       <c r="D20" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>10</v>
@@ -7367,12 +7360,12 @@
         <v>9</v>
       </c>
       <c r="F21" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B23" t="s">
         <v>8</v>
@@ -7381,7 +7374,7 @@
         <v>48</v>
       </c>
       <c r="D23" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>10</v>
@@ -7395,18 +7388,18 @@
         <v>49</v>
       </c>
       <c r="D24" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F24" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B26" t="s">
         <v>33</v>
@@ -7415,7 +7408,7 @@
         <v>48</v>
       </c>
       <c r="D26" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>10</v>
@@ -7429,7 +7422,7 @@
         <v>49</v>
       </c>
       <c r="D27" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>10</v>
@@ -7443,18 +7436,18 @@
         <v>50</v>
       </c>
       <c r="D28" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F28" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>430</v>
+        <v>658</v>
       </c>
       <c r="B30" t="s">
         <v>33</v>
@@ -7463,13 +7456,13 @@
         <v>98</v>
       </c>
       <c r="D30" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -7477,7 +7470,7 @@
         <v>48</v>
       </c>
       <c r="D31" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>10</v>
@@ -7491,13 +7484,13 @@
         <v>49</v>
       </c>
       <c r="D32" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -7505,7 +7498,7 @@
         <v>50</v>
       </c>
       <c r="D33" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>10</v>
@@ -7519,7 +7512,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>9</v>
@@ -7530,7 +7523,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B36" t="s">
         <v>33</v>
@@ -7539,18 +7532,18 @@
         <v>98</v>
       </c>
       <c r="D36" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F36" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B38" t="s">
         <v>33</v>
@@ -7559,13 +7552,13 @@
         <v>159</v>
       </c>
       <c r="D38" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -7573,7 +7566,7 @@
         <v>98</v>
       </c>
       <c r="D39" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>10</v>
@@ -7587,7 +7580,7 @@
         <v>48</v>
       </c>
       <c r="D40" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>10</v>
@@ -7607,12 +7600,12 @@
         <v>9</v>
       </c>
       <c r="F41" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B43" t="s">
         <v>88</v>
@@ -7621,18 +7614,18 @@
         <v>48</v>
       </c>
       <c r="D43" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F43" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B45" t="s">
         <v>88</v>
@@ -7641,13 +7634,13 @@
         <v>159</v>
       </c>
       <c r="D45" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -7655,7 +7648,7 @@
         <v>98</v>
       </c>
       <c r="D46" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>9</v>
@@ -7666,7 +7659,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="B48" t="s">
         <v>8</v>
@@ -7675,13 +7668,13 @@
         <v>48</v>
       </c>
       <c r="D48" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -7689,13 +7682,13 @@
         <v>49</v>
       </c>
       <c r="D49" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -7703,13 +7696,13 @@
         <v>50</v>
       </c>
       <c r="D50" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -7723,12 +7716,12 @@
         <v>9</v>
       </c>
       <c r="F51" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B53" t="s">
         <v>8</v>
@@ -7737,7 +7730,7 @@
         <v>98</v>
       </c>
       <c r="D53" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>10</v>
@@ -7751,7 +7744,7 @@
         <v>48</v>
       </c>
       <c r="D54" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>10</v>
@@ -7771,12 +7764,12 @@
         <v>9</v>
       </c>
       <c r="F55" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B57" t="s">
         <v>8</v>
@@ -7785,13 +7778,13 @@
         <v>98</v>
       </c>
       <c r="D57" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F57" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -7805,7 +7798,7 @@
         <v>159</v>
       </c>
       <c r="D59" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>10</v>
@@ -7819,7 +7812,7 @@
         <v>98</v>
       </c>
       <c r="D60" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>10</v>
@@ -7833,13 +7826,13 @@
         <v>48</v>
       </c>
       <c r="D61" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -7853,12 +7846,12 @@
         <v>9</v>
       </c>
       <c r="F62" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B64" t="s">
         <v>8</v>
@@ -7867,7 +7860,7 @@
         <v>98</v>
       </c>
       <c r="D64" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>10</v>
@@ -7881,13 +7874,13 @@
         <v>48</v>
       </c>
       <c r="D65" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -7895,7 +7888,7 @@
         <v>49</v>
       </c>
       <c r="D66" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>9</v>
@@ -7906,7 +7899,7 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B68" t="s">
         <v>8</v>
@@ -7915,13 +7908,13 @@
         <v>98</v>
       </c>
       <c r="D68" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -7929,7 +7922,7 @@
         <v>48</v>
       </c>
       <c r="D69" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>9</v>
@@ -7940,7 +7933,7 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B71" t="s">
         <v>8</v>
@@ -7949,7 +7942,7 @@
         <v>48</v>
       </c>
       <c r="D71" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>10</v>
@@ -7963,13 +7956,13 @@
         <v>49</v>
       </c>
       <c r="D72" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -7977,7 +7970,7 @@
         <v>50</v>
       </c>
       <c r="D73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>10</v>
@@ -7991,7 +7984,7 @@
         <v>0</v>
       </c>
       <c r="D74" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>10</v>
@@ -8005,18 +7998,18 @@
         <v>15</v>
       </c>
       <c r="D75" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F75" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B77" t="s">
         <v>8</v>
@@ -8045,12 +8038,12 @@
         <v>9</v>
       </c>
       <c r="F78" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="B80" t="s">
         <v>8</v>
@@ -8065,7 +8058,7 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="81" spans="3:6" x14ac:dyDescent="0.25">
@@ -8079,7 +8072,7 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
     </row>
     <row r="82" spans="3:6" x14ac:dyDescent="0.25">
@@ -8087,13 +8080,13 @@
         <v>16</v>
       </c>
       <c r="D82" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E82" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F82" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
     </row>
     <row r="83" spans="3:6" x14ac:dyDescent="0.25">
@@ -8101,13 +8094,13 @@
         <v>0</v>
       </c>
       <c r="D83" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F83" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
     </row>
   </sheetData>
@@ -8118,17 +8111,17 @@
   <conditionalFormatting sqref="C7">
     <cfRule type="duplicateValues" dxfId="73" priority="24"/>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C10">
+    <cfRule type="duplicateValues" dxfId="72" priority="22"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="duplicateValues" dxfId="72" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="23"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C10">
-    <cfRule type="duplicateValues" dxfId="71" priority="22"/>
+  <conditionalFormatting sqref="C13">
+    <cfRule type="duplicateValues" dxfId="70" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14">
-    <cfRule type="duplicateValues" dxfId="70" priority="21"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C13">
-    <cfRule type="duplicateValues" dxfId="69" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
     <cfRule type="duplicateValues" dxfId="68" priority="19"/>
@@ -8139,53 +8132,53 @@
   <conditionalFormatting sqref="C21">
     <cfRule type="duplicateValues" dxfId="66" priority="17"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C23:D23 F23:F24">
-    <cfRule type="duplicateValues" dxfId="65" priority="16"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C24">
-    <cfRule type="duplicateValues" dxfId="64" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26">
-    <cfRule type="duplicateValues" dxfId="63" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27">
-    <cfRule type="duplicateValues" dxfId="62" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31">
-    <cfRule type="duplicateValues" dxfId="61" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32">
-    <cfRule type="duplicateValues" dxfId="60" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40:C41">
-    <cfRule type="duplicateValues" dxfId="59" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C43">
-    <cfRule type="duplicateValues" dxfId="58" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48">
-    <cfRule type="duplicateValues" dxfId="57" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C49">
-    <cfRule type="duplicateValues" dxfId="56" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C54:C55">
-    <cfRule type="duplicateValues" dxfId="55" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C61:C62">
-    <cfRule type="duplicateValues" dxfId="54" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C65:C66">
-    <cfRule type="duplicateValues" dxfId="53" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C69">
-    <cfRule type="duplicateValues" dxfId="52" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71:C72">
-    <cfRule type="duplicateValues" dxfId="51" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C77">
-    <cfRule type="duplicateValues" dxfId="50" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23:D23 F23:F24">
+    <cfRule type="duplicateValues" dxfId="50" priority="16"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -8199,13 +8192,13 @@
   </sheetPr>
   <dimension ref="A1:F99"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.42578125" bestFit="1" customWidth="1"/>
@@ -8235,7 +8228,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -8244,13 +8237,13 @@
         <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -8258,7 +8251,7 @@
         <v>49</v>
       </c>
       <c r="D3" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>10</v>
@@ -8272,7 +8265,7 @@
         <v>50</v>
       </c>
       <c r="D4" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>10</v>
@@ -8286,13 +8279,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -8300,13 +8293,13 @@
         <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -8320,7 +8313,7 @@
         <v>159</v>
       </c>
       <c r="D8" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>10</v>
@@ -8334,7 +8327,7 @@
         <v>98</v>
       </c>
       <c r="D9" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>10</v>
@@ -8354,7 +8347,7 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -8368,7 +8361,7 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -8376,18 +8369,18 @@
         <v>50</v>
       </c>
       <c r="D12" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F12" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>163</v>
+        <v>659</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
@@ -8396,13 +8389,13 @@
         <v>98</v>
       </c>
       <c r="D14" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -8416,12 +8409,12 @@
         <v>9</v>
       </c>
       <c r="F15" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>167</v>
+        <v>660</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
@@ -8430,13 +8423,13 @@
         <v>48</v>
       </c>
       <c r="D17" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -8444,7 +8437,7 @@
         <v>49</v>
       </c>
       <c r="D18" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>9</v>
@@ -8455,7 +8448,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B20" t="s">
         <v>8</v>
@@ -8464,13 +8457,13 @@
         <v>98</v>
       </c>
       <c r="D20" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -8478,18 +8471,18 @@
         <v>48</v>
       </c>
       <c r="D21" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F21" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B23" t="s">
         <v>8</v>
@@ -8498,7 +8491,7 @@
         <v>98</v>
       </c>
       <c r="D23" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>10</v>
@@ -8512,7 +8505,7 @@
         <v>48</v>
       </c>
       <c r="D24" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>10</v>
@@ -8526,18 +8519,18 @@
         <v>49</v>
       </c>
       <c r="D25" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F25" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B27" t="s">
         <v>8</v>
@@ -8546,13 +8539,13 @@
         <v>48</v>
       </c>
       <c r="D27" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -8560,7 +8553,7 @@
         <v>49</v>
       </c>
       <c r="D28" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>10</v>
@@ -8574,13 +8567,13 @@
         <v>50</v>
       </c>
       <c r="D29" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -8588,13 +8581,13 @@
         <v>0</v>
       </c>
       <c r="D30" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -8602,7 +8595,7 @@
         <v>15</v>
       </c>
       <c r="D31" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>10</v>
@@ -8613,7 +8606,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B33" t="s">
         <v>33</v>
@@ -8622,7 +8615,7 @@
         <v>48</v>
       </c>
       <c r="D33" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>10</v>
@@ -8636,13 +8629,13 @@
         <v>49</v>
       </c>
       <c r="D34" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -8650,13 +8643,13 @@
         <v>50</v>
       </c>
       <c r="D35" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -8664,13 +8657,13 @@
         <v>0</v>
       </c>
       <c r="D36" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -8678,7 +8671,7 @@
         <v>15</v>
       </c>
       <c r="D37" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>9</v>
@@ -8689,7 +8682,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>430</v>
+        <v>658</v>
       </c>
       <c r="B39" t="s">
         <v>33</v>
@@ -8698,13 +8691,13 @@
         <v>98</v>
       </c>
       <c r="D39" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -8712,7 +8705,7 @@
         <v>48</v>
       </c>
       <c r="D40" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>10</v>
@@ -8726,7 +8719,7 @@
         <v>49</v>
       </c>
       <c r="D41" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>10</v>
@@ -8740,7 +8733,7 @@
         <v>50</v>
       </c>
       <c r="D42" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>9</v>
@@ -8751,7 +8744,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B44" t="s">
         <v>33</v>
@@ -8760,7 +8753,7 @@
         <v>98</v>
       </c>
       <c r="D44" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>10</v>
@@ -8774,13 +8767,13 @@
         <v>48</v>
       </c>
       <c r="D45" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -8788,7 +8781,7 @@
         <v>49</v>
       </c>
       <c r="D46" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>10</v>
@@ -8802,13 +8795,13 @@
         <v>50</v>
       </c>
       <c r="D47" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -8827,7 +8820,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B50" t="s">
         <v>33</v>
@@ -8836,7 +8829,7 @@
         <v>159</v>
       </c>
       <c r="D50" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>10</v>
@@ -8850,13 +8843,13 @@
         <v>98</v>
       </c>
       <c r="D51" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -8864,7 +8857,7 @@
         <v>48</v>
       </c>
       <c r="D52" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>9</v>
@@ -8884,7 +8877,7 @@
         <v>48</v>
       </c>
       <c r="D54" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>10</v>
@@ -8898,7 +8891,7 @@
         <v>49</v>
       </c>
       <c r="D55" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>10</v>
@@ -8926,7 +8919,7 @@
         <v>0</v>
       </c>
       <c r="D57" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>10</v>
@@ -8940,7 +8933,7 @@
         <v>15</v>
       </c>
       <c r="D58" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>10</v>
@@ -8951,7 +8944,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B60" t="s">
         <v>88</v>
@@ -8960,13 +8953,13 @@
         <v>159</v>
       </c>
       <c r="D60" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -8974,7 +8967,7 @@
         <v>98</v>
       </c>
       <c r="D61" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>10</v>
@@ -8988,18 +8981,18 @@
         <v>48</v>
       </c>
       <c r="D62" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F62" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B64" t="s">
         <v>8</v>
@@ -9008,13 +9001,13 @@
         <v>48</v>
       </c>
       <c r="D64" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -9022,7 +9015,7 @@
         <v>49</v>
       </c>
       <c r="D65" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>10</v>
@@ -9042,12 +9035,12 @@
         <v>9</v>
       </c>
       <c r="F66" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B68" t="s">
         <v>8</v>
@@ -9056,7 +9049,7 @@
         <v>98</v>
       </c>
       <c r="D68" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>10</v>
@@ -9070,18 +9063,18 @@
         <v>48</v>
       </c>
       <c r="D69" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F69" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B71" t="s">
         <v>8</v>
@@ -9090,13 +9083,13 @@
         <v>98</v>
       </c>
       <c r="D71" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -9104,7 +9097,7 @@
         <v>48</v>
       </c>
       <c r="D72" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>10</v>
@@ -9118,13 +9111,13 @@
         <v>49</v>
       </c>
       <c r="D73" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -9132,7 +9125,7 @@
         <v>50</v>
       </c>
       <c r="D74" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>10</v>
@@ -9146,13 +9139,13 @@
         <v>0</v>
       </c>
       <c r="D75" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -9180,13 +9173,13 @@
         <v>159</v>
       </c>
       <c r="D78" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -9194,18 +9187,18 @@
         <v>98</v>
       </c>
       <c r="D79" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="E79" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F79" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B81" t="s">
         <v>8</v>
@@ -9228,7 +9221,7 @@
         <v>50</v>
       </c>
       <c r="D82" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>10</v>
@@ -9242,13 +9235,13 @@
         <v>0</v>
       </c>
       <c r="D83" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -9256,18 +9249,18 @@
         <v>15</v>
       </c>
       <c r="D84" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="B86" t="s">
         <v>8</v>
@@ -9276,18 +9269,18 @@
         <v>98</v>
       </c>
       <c r="D86" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E86" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F86" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B88" t="s">
         <v>8</v>
@@ -9296,7 +9289,7 @@
         <v>98</v>
       </c>
       <c r="D88" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>10</v>
@@ -9310,7 +9303,7 @@
         <v>48</v>
       </c>
       <c r="D89" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>10</v>
@@ -9324,13 +9317,13 @@
         <v>49</v>
       </c>
       <c r="D90" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -9338,13 +9331,13 @@
         <v>50</v>
       </c>
       <c r="D91" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="E91" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -9352,18 +9345,18 @@
         <v>0</v>
       </c>
       <c r="D92" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E92" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F92" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B94" t="s">
         <v>8</v>
@@ -9372,7 +9365,7 @@
         <v>48</v>
       </c>
       <c r="D94" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>10</v>
@@ -9386,13 +9379,13 @@
         <v>49</v>
       </c>
       <c r="D95" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F95" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -9420,13 +9413,13 @@
         <v>16</v>
       </c>
       <c r="D98" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -9434,7 +9427,7 @@
         <v>16</v>
       </c>
       <c r="D99" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>10</v>
@@ -9507,17 +9500,17 @@
   <conditionalFormatting sqref="C81">
     <cfRule type="duplicateValues" dxfId="29" priority="5"/>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C89">
+    <cfRule type="duplicateValues" dxfId="28" priority="3"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C90">
-    <cfRule type="duplicateValues" dxfId="28" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C89">
-    <cfRule type="duplicateValues" dxfId="27" priority="3"/>
+  <conditionalFormatting sqref="C94">
+    <cfRule type="duplicateValues" dxfId="26" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C95">
-    <cfRule type="duplicateValues" dxfId="26" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C94">
-    <cfRule type="duplicateValues" dxfId="25" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -9529,15 +9522,15 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F67"/>
+  <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35.28515625" bestFit="1" customWidth="1"/>
@@ -9567,7 +9560,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -9582,7 +9575,7 @@
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>497</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -9590,13 +9583,13 @@
         <v>50</v>
       </c>
       <c r="D3" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -9604,13 +9597,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -9618,13 +9611,13 @@
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -9638,18 +9631,18 @@
         <v>159</v>
       </c>
       <c r="D7" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>167</v>
+        <v>660</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
@@ -9658,7 +9651,7 @@
         <v>48</v>
       </c>
       <c r="D9" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>10</v>
@@ -9672,18 +9665,18 @@
         <v>49</v>
       </c>
       <c r="D10" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
@@ -9692,13 +9685,13 @@
         <v>48</v>
       </c>
       <c r="D12" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -9706,7 +9699,7 @@
         <v>49</v>
       </c>
       <c r="D13" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>10</v>
@@ -9720,7 +9713,7 @@
         <v>50</v>
       </c>
       <c r="D14" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>10</v>
@@ -9734,7 +9727,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>9</v>
@@ -9745,7 +9738,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
@@ -9754,7 +9747,7 @@
         <v>98</v>
       </c>
       <c r="D17" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>10</v>
@@ -9768,18 +9761,18 @@
         <v>48</v>
       </c>
       <c r="D18" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F18" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B20" t="s">
         <v>8</v>
@@ -9788,13 +9781,13 @@
         <v>98</v>
       </c>
       <c r="D20" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -9802,18 +9795,18 @@
         <v>48</v>
       </c>
       <c r="D21" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F21" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B23" t="s">
         <v>33</v>
@@ -9822,18 +9815,18 @@
         <v>48</v>
       </c>
       <c r="D23" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F23" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>430</v>
+        <v>658</v>
       </c>
       <c r="B25" t="s">
         <v>33</v>
@@ -9842,13 +9835,13 @@
         <v>98</v>
       </c>
       <c r="D25" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -9856,7 +9849,7 @@
         <v>48</v>
       </c>
       <c r="D26" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>10</v>
@@ -9870,18 +9863,18 @@
         <v>49</v>
       </c>
       <c r="D27" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F27" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B29" t="s">
         <v>33</v>
@@ -9890,18 +9883,18 @@
         <v>48</v>
       </c>
       <c r="D29" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F29" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B31" t="s">
         <v>33</v>
@@ -9910,13 +9903,13 @@
         <v>159</v>
       </c>
       <c r="D31" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -9924,13 +9917,13 @@
         <v>98</v>
       </c>
       <c r="D32" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -9938,7 +9931,7 @@
         <v>48</v>
       </c>
       <c r="D33" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>10</v>
@@ -9952,13 +9945,13 @@
         <v>49</v>
       </c>
       <c r="D34" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -9966,7 +9959,7 @@
         <v>50</v>
       </c>
       <c r="D35" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>10</v>
@@ -9980,13 +9973,13 @@
         <v>0</v>
       </c>
       <c r="D36" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F36" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -10000,18 +9993,18 @@
         <v>98</v>
       </c>
       <c r="D38" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F38" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B40" t="s">
         <v>88</v>
@@ -10020,7 +10013,7 @@
         <v>159</v>
       </c>
       <c r="D40" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>10</v>
@@ -10034,7 +10027,7 @@
         <v>98</v>
       </c>
       <c r="D41" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>9</v>
@@ -10045,7 +10038,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B43" t="s">
         <v>8</v>
@@ -10054,13 +10047,13 @@
         <v>48</v>
       </c>
       <c r="D43" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -10068,7 +10061,7 @@
         <v>49</v>
       </c>
       <c r="D44" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>10</v>
@@ -10082,7 +10075,7 @@
         <v>50</v>
       </c>
       <c r="D45" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>9</v>
@@ -10093,262 +10086,248 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B47" t="s">
         <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D47" t="s">
-        <v>328</v>
-      </c>
-      <c r="E47" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>202</v>
+        <v>624</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
+        <v>50</v>
+      </c>
+      <c r="D48" t="s">
+        <v>32</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F48" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>100</v>
+      </c>
+      <c r="B50" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" t="s">
+        <v>159</v>
+      </c>
+      <c r="D50" t="s">
+        <v>380</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F50" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>220</v>
+      </c>
+      <c r="B52" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" t="s">
         <v>49</v>
       </c>
-      <c r="D48" t="s">
-        <v>480</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F48" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C49" t="s">
+      <c r="D52" t="s">
+        <v>625</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F52" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C53" t="s">
         <v>50</v>
       </c>
-      <c r="D49" t="s">
-        <v>32</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F49" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>100</v>
-      </c>
-      <c r="B51" t="s">
+      <c r="D53" t="s">
+        <v>380</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F53" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>600</v>
+      </c>
+      <c r="B55" t="s">
         <v>8</v>
       </c>
-      <c r="C51" t="s">
-        <v>159</v>
-      </c>
-      <c r="D51" t="s">
-        <v>382</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F51" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>222</v>
-      </c>
-      <c r="B53" t="s">
-        <v>8</v>
-      </c>
-      <c r="C53" t="s">
-        <v>49</v>
-      </c>
-      <c r="D53" t="s">
-        <v>629</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F53" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C54" t="s">
-        <v>50</v>
-      </c>
-      <c r="D54" t="s">
-        <v>382</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F54" t="s">
-        <v>205</v>
+      <c r="C55" t="s">
+        <v>98</v>
+      </c>
+      <c r="D55" t="s">
+        <v>554</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F55" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>604</v>
-      </c>
-      <c r="B56" t="s">
-        <v>8</v>
-      </c>
       <c r="C56" t="s">
-        <v>98</v>
+        <v>48</v>
       </c>
       <c r="D56" t="s">
-        <v>558</v>
+        <v>603</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>78</v>
+        <v>17</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
+        <v>49</v>
+      </c>
+      <c r="D57" t="s">
+        <v>626</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F57" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>375</v>
+      </c>
+      <c r="B59" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" t="s">
+        <v>98</v>
+      </c>
+      <c r="D59" t="s">
+        <v>279</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F59" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C60" t="s">
         <v>48</v>
       </c>
-      <c r="D57" t="s">
-        <v>607</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F57" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C58" t="s">
-        <v>49</v>
-      </c>
-      <c r="D58" t="s">
-        <v>630</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F58" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>377</v>
-      </c>
-      <c r="B60" t="s">
-        <v>8</v>
-      </c>
-      <c r="C60" t="s">
-        <v>98</v>
-      </c>
       <c r="D60" t="s">
-        <v>281</v>
+        <v>326</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>1</v>
+        <v>473</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D61" t="s">
-        <v>328</v>
+        <v>312</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>476</v>
+        <v>629</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D62" t="s">
-        <v>314</v>
+        <v>395</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>633</v>
+        <v>171</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D63" t="s">
-        <v>397</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>10</v>
+        <v>416</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="F63" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C64" t="s">
-        <v>0</v>
-      </c>
-      <c r="D64" t="s">
-        <v>418</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F64" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>138</v>
+      </c>
+      <c r="B65" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" t="s">
+        <v>48</v>
+      </c>
+      <c r="D65" t="s">
         <v>632</v>
       </c>
+      <c r="E65" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F65" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>138</v>
-      </c>
-      <c r="B66" t="s">
-        <v>8</v>
-      </c>
       <c r="C66" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D66" t="s">
-        <v>636</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>10</v>
+        <v>630</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="F66" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C67" t="s">
-        <v>49</v>
-      </c>
-      <c r="D67" t="s">
-        <v>634</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F67" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
     </row>
   </sheetData>
@@ -10364,43 +10343,43 @@
   <conditionalFormatting sqref="C27">
     <cfRule type="duplicateValues" dxfId="21" priority="14"/>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C31:C32">
+    <cfRule type="duplicateValues" dxfId="20" priority="12"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C34">
-    <cfRule type="duplicateValues" dxfId="20" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="13"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C31:C32">
-    <cfRule type="duplicateValues" dxfId="19" priority="12"/>
+  <conditionalFormatting sqref="C40">
+    <cfRule type="duplicateValues" dxfId="18" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41">
-    <cfRule type="duplicateValues" dxfId="18" priority="11"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C40">
-    <cfRule type="duplicateValues" dxfId="17" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C44">
     <cfRule type="duplicateValues" dxfId="16" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C48">
+  <conditionalFormatting sqref="C47">
     <cfRule type="duplicateValues" dxfId="15" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C51">
+  <conditionalFormatting sqref="C50">
     <cfRule type="duplicateValues" dxfId="14" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C53">
+  <conditionalFormatting sqref="C52">
     <cfRule type="duplicateValues" dxfId="13" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C56">
+  <conditionalFormatting sqref="C55">
     <cfRule type="duplicateValues" dxfId="12" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C58">
+  <conditionalFormatting sqref="C57">
     <cfRule type="duplicateValues" dxfId="11" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C60">
+  <conditionalFormatting sqref="C59">
     <cfRule type="duplicateValues" dxfId="10" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C62">
+  <conditionalFormatting sqref="C61">
     <cfRule type="duplicateValues" dxfId="9" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C67">
+  <conditionalFormatting sqref="C66">
     <cfRule type="duplicateValues" dxfId="8" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -10415,14 +10394,14 @@
   </sheetPr>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E47" activeCellId="15" sqref="E2 E4 E8 E12 E16 E19 E22 E25 E28 E31 E35 E39 E41 E43 E45 E47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
@@ -10451,7 +10430,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -10460,18 +10439,18 @@
         <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -10480,7 +10459,7 @@
         <v>48</v>
       </c>
       <c r="D4" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>9</v>
@@ -10500,7 +10479,7 @@
         <v>159</v>
       </c>
       <c r="D6" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>10</v>
@@ -10514,7 +10493,7 @@
         <v>98</v>
       </c>
       <c r="D7" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>10</v>
@@ -10528,18 +10507,18 @@
         <v>48</v>
       </c>
       <c r="D8" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F8" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
@@ -10548,13 +10527,13 @@
         <v>49</v>
       </c>
       <c r="D10" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -10562,13 +10541,13 @@
         <v>50</v>
       </c>
       <c r="D11" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -10576,18 +10555,18 @@
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F12" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>167</v>
+        <v>660</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
@@ -10596,13 +10575,13 @@
         <v>48</v>
       </c>
       <c r="D14" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -10610,13 +10589,13 @@
         <v>49</v>
       </c>
       <c r="D15" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -10624,18 +10603,18 @@
         <v>50</v>
       </c>
       <c r="D16" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F16" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B18" t="s">
         <v>8</v>
@@ -10644,13 +10623,13 @@
         <v>98</v>
       </c>
       <c r="D18" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -10658,7 +10637,7 @@
         <v>48</v>
       </c>
       <c r="D19" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>9</v>
@@ -10669,7 +10648,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B21" t="s">
         <v>8</v>
@@ -10678,13 +10657,13 @@
         <v>98</v>
       </c>
       <c r="D21" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -10692,18 +10671,18 @@
         <v>48</v>
       </c>
       <c r="D22" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F22" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B24" t="s">
         <v>33</v>
@@ -10712,13 +10691,13 @@
         <v>48</v>
       </c>
       <c r="D24" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -10726,18 +10705,18 @@
         <v>49</v>
       </c>
       <c r="D25" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F25" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>430</v>
+        <v>658</v>
       </c>
       <c r="B27" t="s">
         <v>33</v>
@@ -10746,13 +10725,13 @@
         <v>98</v>
       </c>
       <c r="D27" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -10760,18 +10739,18 @@
         <v>48</v>
       </c>
       <c r="D28" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F28" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B30" t="s">
         <v>33</v>
@@ -10780,13 +10759,13 @@
         <v>98</v>
       </c>
       <c r="D30" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -10794,18 +10773,18 @@
         <v>48</v>
       </c>
       <c r="D31" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F31" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B33" t="s">
         <v>33</v>
@@ -10814,13 +10793,13 @@
         <v>159</v>
       </c>
       <c r="D33" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -10828,7 +10807,7 @@
         <v>98</v>
       </c>
       <c r="D34" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>10</v>
@@ -10842,7 +10821,7 @@
         <v>48</v>
       </c>
       <c r="D35" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>9</v>
@@ -10853,7 +10832,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="B37" t="s">
         <v>88</v>
@@ -10862,7 +10841,7 @@
         <v>48</v>
       </c>
       <c r="D37" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>10</v>
@@ -10876,13 +10855,13 @@
         <v>49</v>
       </c>
       <c r="D38" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -10890,18 +10869,18 @@
         <v>50</v>
       </c>
       <c r="D39" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F39" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B41" t="s">
         <v>88</v>
@@ -10910,7 +10889,7 @@
         <v>159</v>
       </c>
       <c r="D41" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>9</v>
@@ -10921,7 +10900,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="B43" t="s">
         <v>8</v>
@@ -10930,18 +10909,18 @@
         <v>98</v>
       </c>
       <c r="D43" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F43" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B45" t="s">
         <v>8</v>
@@ -10950,7 +10929,7 @@
         <v>98</v>
       </c>
       <c r="D45" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>9</v>
@@ -10970,13 +10949,13 @@
         <v>159</v>
       </c>
       <c r="D47" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F47" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
     </row>
   </sheetData>
@@ -11017,7 +10996,7 @@
   <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11025,7 +11004,8 @@
     <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.140625" customWidth="1"/>
   </cols>
@@ -11321,11 +11301,11 @@
         <v>28</v>
       </c>
       <c r="E14">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F14" s="6">
         <f t="shared" si="0"/>
-        <v>0.32142857142857145</v>
+        <v>0.35714285714285715</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -11367,11 +11347,11 @@
       </c>
       <c r="E16" s="4">
         <f t="shared" si="1"/>
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ref="F16:F17" si="2">(D16-E16)/D16</f>
-        <v>0.52586206896551724</v>
+        <v>0.52801724137931039</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -11392,16 +11372,16 @@
       </c>
       <c r="E17" s="4">
         <f t="shared" si="3"/>
-        <v>15.714285714285714</v>
+        <v>15.642857142857142</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" si="2"/>
-        <v>0.52586206896551724</v>
+        <v>0.52801724137931039</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F6:F15">
-    <cfRule type="iconSet" priority="11">
+  <conditionalFormatting sqref="F2:F5">
+    <cfRule type="iconSet" priority="1">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -11409,8 +11389,8 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F5">
-    <cfRule type="iconSet" priority="1">
+  <conditionalFormatting sqref="F6:F15">
+    <cfRule type="iconSet" priority="11">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -11430,8 +11410,8 @@
   </sheetPr>
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12041,13 +12021,13 @@
   </sheetPr>
   <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
@@ -12243,7 +12223,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>163</v>
+        <v>659</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
@@ -12252,13 +12232,13 @@
         <v>48</v>
       </c>
       <c r="D15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -12272,12 +12252,12 @@
         <v>9</v>
       </c>
       <c r="F16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>167</v>
+        <v>660</v>
       </c>
       <c r="B18" t="s">
         <v>8</v>
@@ -12286,7 +12266,7 @@
         <v>102</v>
       </c>
       <c r="D18" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>10</v>
@@ -12314,7 +12294,7 @@
         <v>132</v>
       </c>
       <c r="D20" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>9</v>
@@ -12325,7 +12305,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B22" t="s">
         <v>8</v>
@@ -12334,13 +12314,13 @@
         <v>159</v>
       </c>
       <c r="D22" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -12348,13 +12328,13 @@
         <v>98</v>
       </c>
       <c r="D23" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -12362,13 +12342,13 @@
         <v>48</v>
       </c>
       <c r="D24" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -12376,13 +12356,13 @@
         <v>49</v>
       </c>
       <c r="D25" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -12401,7 +12381,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B28" t="s">
         <v>33</v>
@@ -12410,7 +12390,7 @@
         <v>48</v>
       </c>
       <c r="D28" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>10</v>
@@ -12424,7 +12404,7 @@
         <v>49</v>
       </c>
       <c r="D29" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>10</v>
@@ -12438,13 +12418,13 @@
         <v>50</v>
       </c>
       <c r="D30" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -12452,18 +12432,18 @@
         <v>0</v>
       </c>
       <c r="D31" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F31" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B33" t="s">
         <v>33</v>
@@ -12472,7 +12452,7 @@
         <v>98</v>
       </c>
       <c r="D33" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>9</v>
@@ -12483,7 +12463,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B35" t="s">
         <v>33</v>
@@ -12512,7 +12492,7 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -12520,7 +12500,7 @@
         <v>49</v>
       </c>
       <c r="D37" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>9</v>
@@ -12531,7 +12511,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B39" t="s">
         <v>33</v>
@@ -12540,7 +12520,7 @@
         <v>159</v>
       </c>
       <c r="D39" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>10</v>
@@ -12574,7 +12554,7 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -12582,13 +12562,13 @@
         <v>49</v>
       </c>
       <c r="D42" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -12596,7 +12576,7 @@
         <v>50</v>
       </c>
       <c r="D43" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>9</v>
@@ -12607,7 +12587,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B45" t="s">
         <v>88</v>
@@ -12616,7 +12596,7 @@
         <v>159</v>
       </c>
       <c r="D45" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>10</v>
@@ -12630,7 +12610,7 @@
         <v>98</v>
       </c>
       <c r="D46" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>10</v>
@@ -12644,7 +12624,7 @@
         <v>48</v>
       </c>
       <c r="D47" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>9</v>
@@ -12655,7 +12635,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B49" t="s">
         <v>8</v>
@@ -12664,13 +12644,13 @@
         <v>98</v>
       </c>
       <c r="D49" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -12684,7 +12664,7 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -12692,13 +12672,13 @@
         <v>49</v>
       </c>
       <c r="D51" t="s">
+        <v>198</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F51" t="s">
         <v>200</v>
-      </c>
-      <c r="E51" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="F51" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -12712,13 +12692,13 @@
         <v>159</v>
       </c>
       <c r="D53" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -12726,18 +12706,18 @@
         <v>98</v>
       </c>
       <c r="D54" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F54" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B56" t="s">
         <v>8</v>
@@ -12746,7 +12726,7 @@
         <v>48</v>
       </c>
       <c r="D56" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>9</v>
@@ -12772,7 +12752,7 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -12780,7 +12760,7 @@
         <v>49</v>
       </c>
       <c r="D59" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>10</v>
@@ -12794,7 +12774,7 @@
         <v>50</v>
       </c>
       <c r="D60" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>10</v>
@@ -12808,7 +12788,7 @@
         <v>0</v>
       </c>
       <c r="D61" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>9</v>
@@ -12819,7 +12799,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B63" t="s">
         <v>8</v>
@@ -12828,13 +12808,13 @@
         <v>48</v>
       </c>
       <c r="D63" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -12842,7 +12822,7 @@
         <v>49</v>
       </c>
       <c r="D64" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>10</v>
@@ -12862,7 +12842,7 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="66" spans="3:6" x14ac:dyDescent="0.25">
@@ -12870,13 +12850,13 @@
         <v>0</v>
       </c>
       <c r="D66" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F66" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -12892,15 +12872,15 @@
   </sheetPr>
   <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
@@ -12928,7 +12908,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -12937,7 +12917,7 @@
         <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>10</v>
@@ -12957,7 +12937,7 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -12965,13 +12945,13 @@
         <v>50</v>
       </c>
       <c r="D4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -12985,7 +12965,7 @@
         <v>159</v>
       </c>
       <c r="D6" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>10</v>
@@ -13005,12 +12985,12 @@
         <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B9" t="s">
         <v>75</v>
@@ -13019,13 +12999,13 @@
         <v>48</v>
       </c>
       <c r="D9" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -13044,7 +13024,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
@@ -13053,7 +13033,7 @@
         <v>48</v>
       </c>
       <c r="D12" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>10</v>
@@ -13067,18 +13047,18 @@
         <v>49</v>
       </c>
       <c r="D13" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F13" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
@@ -13087,7 +13067,7 @@
         <v>98</v>
       </c>
       <c r="D15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>10</v>
@@ -13101,7 +13081,7 @@
         <v>48</v>
       </c>
       <c r="D16" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>10</v>
@@ -13129,18 +13109,18 @@
         <v>50</v>
       </c>
       <c r="D18" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F18" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B20" t="s">
         <v>8</v>
@@ -13155,7 +13135,7 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -13163,13 +13143,13 @@
         <v>48</v>
       </c>
       <c r="D21" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -13183,12 +13163,12 @@
         <v>9</v>
       </c>
       <c r="F22" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B24" t="s">
         <v>33</v>
@@ -13197,13 +13177,13 @@
         <v>48</v>
       </c>
       <c r="D24" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -13211,7 +13191,7 @@
         <v>49</v>
       </c>
       <c r="D25" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>10</v>
@@ -13231,12 +13211,12 @@
         <v>9</v>
       </c>
       <c r="F26" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B28" t="s">
         <v>33</v>
@@ -13251,12 +13231,12 @@
         <v>9</v>
       </c>
       <c r="F28" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B30" t="s">
         <v>33</v>
@@ -13279,7 +13259,7 @@
         <v>98</v>
       </c>
       <c r="D31" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>10</v>
@@ -13293,7 +13273,7 @@
         <v>48</v>
       </c>
       <c r="D32" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>9</v>
@@ -13304,7 +13284,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B34" t="s">
         <v>88</v>
@@ -13313,13 +13293,13 @@
         <v>48</v>
       </c>
       <c r="D34" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -13333,7 +13313,7 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -13341,18 +13321,18 @@
         <v>50</v>
       </c>
       <c r="D36" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F36" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B38" t="s">
         <v>88</v>
@@ -13361,13 +13341,13 @@
         <v>159</v>
       </c>
       <c r="D38" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -13375,7 +13355,7 @@
         <v>98</v>
       </c>
       <c r="D39" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>10</v>
@@ -13389,13 +13369,13 @@
         <v>48</v>
       </c>
       <c r="D40" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -13414,7 +13394,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B43" t="s">
         <v>8</v>
@@ -13423,7 +13403,7 @@
         <v>98</v>
       </c>
       <c r="D43" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>10</v>
@@ -13437,7 +13417,7 @@
         <v>48</v>
       </c>
       <c r="D44" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>10</v>
@@ -13462,7 +13442,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B47" t="s">
         <v>8</v>
@@ -13471,7 +13451,7 @@
         <v>98</v>
       </c>
       <c r="D47" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>10</v>
@@ -13485,13 +13465,13 @@
         <v>48</v>
       </c>
       <c r="D48" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -13499,7 +13479,7 @@
         <v>49</v>
       </c>
       <c r="D49" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>10</v>
@@ -13513,18 +13493,18 @@
         <v>50</v>
       </c>
       <c r="D50" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F50" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B52" t="s">
         <v>8</v>
@@ -13533,7 +13513,7 @@
         <v>98</v>
       </c>
       <c r="D52" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>10</v>
@@ -13547,13 +13527,13 @@
         <v>48</v>
       </c>
       <c r="D53" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -13561,13 +13541,13 @@
         <v>49</v>
       </c>
       <c r="D54" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E54" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -13575,7 +13555,7 @@
         <v>50</v>
       </c>
       <c r="D55" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>10</v>
@@ -13589,7 +13569,7 @@
         <v>0</v>
       </c>
       <c r="D56" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>10</v>
@@ -13603,13 +13583,13 @@
         <v>15</v>
       </c>
       <c r="D57" t="s">
+        <v>257</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F57" t="s">
         <v>259</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F57" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -13623,13 +13603,13 @@
         <v>159</v>
       </c>
       <c r="D59" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -13637,13 +13617,13 @@
         <v>98</v>
       </c>
       <c r="D60" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -13662,7 +13642,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B63" t="s">
         <v>8</v>
@@ -13671,13 +13651,13 @@
         <v>48</v>
       </c>
       <c r="D63" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F63" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -13702,7 +13682,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B67" t="s">
         <v>8</v>
@@ -13711,13 +13691,13 @@
         <v>48</v>
       </c>
       <c r="D67" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -13739,18 +13719,18 @@
         <v>50</v>
       </c>
       <c r="D69" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F69" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B71" t="s">
         <v>8</v>
@@ -13759,13 +13739,13 @@
         <v>48</v>
       </c>
       <c r="D71" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -13773,13 +13753,13 @@
         <v>49</v>
       </c>
       <c r="D72" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -13787,7 +13767,7 @@
         <v>50</v>
       </c>
       <c r="D73" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>9</v>
@@ -13809,8 +13789,8 @@
   </sheetPr>
   <dimension ref="A1:F85"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13845,7 +13825,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -13854,13 +13834,13 @@
         <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -13868,7 +13848,7 @@
         <v>49</v>
       </c>
       <c r="D3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>10</v>
@@ -13882,18 +13862,18 @@
         <v>50</v>
       </c>
       <c r="D4" t="s">
+        <v>276</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
         <v>278</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
@@ -13902,7 +13882,7 @@
         <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>10</v>
@@ -13916,13 +13896,13 @@
         <v>49</v>
       </c>
       <c r="D7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -13930,7 +13910,7 @@
         <v>50</v>
       </c>
       <c r="D8" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>9</v>
@@ -13950,7 +13930,7 @@
         <v>159</v>
       </c>
       <c r="D10" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>10</v>
@@ -13970,7 +13950,7 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -13978,7 +13958,7 @@
         <v>48</v>
       </c>
       <c r="D12" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>9</v>
@@ -13989,7 +13969,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
@@ -13998,7 +13978,7 @@
         <v>48</v>
       </c>
       <c r="D14" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>10</v>
@@ -14012,13 +13992,13 @@
         <v>49</v>
       </c>
       <c r="D15" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -14026,13 +14006,13 @@
         <v>50</v>
       </c>
       <c r="D16" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -14040,13 +14020,13 @@
         <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -14054,7 +14034,7 @@
         <v>15</v>
       </c>
       <c r="D18" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>9</v>
@@ -14065,7 +14045,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B20" t="s">
         <v>8</v>
@@ -14074,7 +14054,7 @@
         <v>48</v>
       </c>
       <c r="D20" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>10</v>
@@ -14088,13 +14068,13 @@
         <v>49</v>
       </c>
       <c r="D21" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -14102,7 +14082,7 @@
         <v>50</v>
       </c>
       <c r="D22" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>9</v>
@@ -14113,7 +14093,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B24" t="s">
         <v>8</v>
@@ -14122,13 +14102,13 @@
         <v>98</v>
       </c>
       <c r="D24" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -14136,7 +14116,7 @@
         <v>48</v>
       </c>
       <c r="D25" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>10</v>
@@ -14150,18 +14130,18 @@
         <v>49</v>
       </c>
       <c r="D26" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F26" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B28" t="s">
         <v>8</v>
@@ -14170,18 +14150,18 @@
         <v>98</v>
       </c>
       <c r="D28" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F28" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B30" t="s">
         <v>33</v>
@@ -14190,13 +14170,13 @@
         <v>48</v>
       </c>
       <c r="D30" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -14204,7 +14184,7 @@
         <v>49</v>
       </c>
       <c r="D31" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>10</v>
@@ -14218,13 +14198,13 @@
         <v>50</v>
       </c>
       <c r="D32" t="s">
+        <v>208</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" t="s">
         <v>210</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F32" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -14232,18 +14212,18 @@
         <v>0</v>
       </c>
       <c r="D33" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F33" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B35" t="s">
         <v>33</v>
@@ -14252,13 +14232,13 @@
         <v>48</v>
       </c>
       <c r="D35" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -14266,7 +14246,7 @@
         <v>49</v>
       </c>
       <c r="D36" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>9</v>
@@ -14277,7 +14257,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B38" t="s">
         <v>33</v>
@@ -14286,7 +14266,7 @@
         <v>98</v>
       </c>
       <c r="D38" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>10</v>
@@ -14300,7 +14280,7 @@
         <v>48</v>
       </c>
       <c r="D39" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>10</v>
@@ -14314,13 +14294,13 @@
         <v>49</v>
       </c>
       <c r="D40" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -14328,13 +14308,13 @@
         <v>50</v>
       </c>
       <c r="D41" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -14342,13 +14322,13 @@
         <v>0</v>
       </c>
       <c r="D42" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -14356,18 +14336,18 @@
         <v>15</v>
       </c>
       <c r="D43" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B45" t="s">
         <v>33</v>
@@ -14376,7 +14356,7 @@
         <v>159</v>
       </c>
       <c r="D45" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>10</v>
@@ -14390,7 +14370,7 @@
         <v>98</v>
       </c>
       <c r="D46" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>10</v>
@@ -14404,7 +14384,7 @@
         <v>48</v>
       </c>
       <c r="D47" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>10</v>
@@ -14418,13 +14398,13 @@
         <v>49</v>
       </c>
       <c r="D48" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -14432,13 +14412,13 @@
         <v>50</v>
       </c>
       <c r="D49" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -14446,7 +14426,7 @@
         <v>0</v>
       </c>
       <c r="D50" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>10</v>
@@ -14460,7 +14440,7 @@
         <v>15</v>
       </c>
       <c r="D51" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>9</v>
@@ -14471,7 +14451,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B53" t="s">
         <v>88</v>
@@ -14480,13 +14460,13 @@
         <v>49</v>
       </c>
       <c r="D53" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -14494,7 +14474,7 @@
         <v>50</v>
       </c>
       <c r="D54" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>9</v>
@@ -14505,7 +14485,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B56" t="s">
         <v>88</v>
@@ -14514,13 +14494,13 @@
         <v>159</v>
       </c>
       <c r="D56" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -14528,7 +14508,7 @@
         <v>98</v>
       </c>
       <c r="D57" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>10</v>
@@ -14542,7 +14522,7 @@
         <v>48</v>
       </c>
       <c r="D58" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>10</v>
@@ -14556,13 +14536,13 @@
         <v>49</v>
       </c>
       <c r="D59" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -14570,13 +14550,13 @@
         <v>50</v>
       </c>
       <c r="D60" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -14584,7 +14564,7 @@
         <v>0</v>
       </c>
       <c r="D61" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>9</v>
@@ -14595,7 +14575,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B63" t="s">
         <v>8</v>
@@ -14604,7 +14584,7 @@
         <v>48</v>
       </c>
       <c r="D63" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>10</v>
@@ -14618,7 +14598,7 @@
         <v>49</v>
       </c>
       <c r="D64" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>10</v>
@@ -14632,13 +14612,13 @@
         <v>50</v>
       </c>
       <c r="D65" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -14646,13 +14626,13 @@
         <v>0</v>
       </c>
       <c r="D66" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -14660,13 +14640,13 @@
         <v>15</v>
       </c>
       <c r="D67" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -14680,7 +14660,7 @@
         <v>159</v>
       </c>
       <c r="D69" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>10</v>
@@ -14694,7 +14674,7 @@
         <v>98</v>
       </c>
       <c r="D70" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>10</v>
@@ -14708,7 +14688,7 @@
         <v>48</v>
       </c>
       <c r="D71" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>10</v>
@@ -14722,7 +14702,7 @@
         <v>49</v>
       </c>
       <c r="D72" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>9</v>
@@ -14742,13 +14722,13 @@
         <v>49</v>
       </c>
       <c r="D74" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -14756,7 +14736,7 @@
         <v>50</v>
       </c>
       <c r="D75" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>10</v>
@@ -14770,7 +14750,7 @@
         <v>0</v>
       </c>
       <c r="D76" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>10</v>
@@ -14784,18 +14764,18 @@
         <v>15</v>
       </c>
       <c r="D77" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B79" t="s">
         <v>8</v>
@@ -14804,13 +14784,13 @@
         <v>48</v>
       </c>
       <c r="D79" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -14818,13 +14798,13 @@
         <v>49</v>
       </c>
       <c r="D80" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E80" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F80" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -14838,13 +14818,13 @@
         <v>16</v>
       </c>
       <c r="D82" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -14852,7 +14832,7 @@
         <v>16</v>
       </c>
       <c r="D83" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>9</v>
@@ -14866,13 +14846,13 @@
         <v>16</v>
       </c>
       <c r="D84" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -14880,7 +14860,7 @@
         <v>0</v>
       </c>
       <c r="D85" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E85" s="3" t="s">
         <v>9</v>
@@ -14902,13 +14882,13 @@
   </sheetPr>
   <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
@@ -14938,7 +14918,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -14947,13 +14927,13 @@
         <v>49</v>
       </c>
       <c r="D2" t="s">
+        <v>343</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
         <v>345</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -14961,13 +14941,13 @@
         <v>50</v>
       </c>
       <c r="D3" t="s">
+        <v>344</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
         <v>346</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -14975,13 +14955,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -14995,13 +14975,13 @@
         <v>159</v>
       </c>
       <c r="D6" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -15009,7 +14989,7 @@
         <v>98</v>
       </c>
       <c r="D7" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>10</v>
@@ -15023,7 +15003,7 @@
         <v>48</v>
       </c>
       <c r="D8" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>10</v>
@@ -15037,13 +15017,13 @@
         <v>49</v>
       </c>
       <c r="D9" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -15051,13 +15031,13 @@
         <v>50</v>
       </c>
       <c r="D10" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -15065,13 +15045,13 @@
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -15079,18 +15059,18 @@
         <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F12" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>163</v>
+        <v>659</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
@@ -15099,7 +15079,7 @@
         <v>48</v>
       </c>
       <c r="D14" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>10</v>
@@ -15116,15 +15096,15 @@
         <v>20</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F15" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>167</v>
+        <v>660</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
@@ -15133,7 +15113,7 @@
         <v>49</v>
       </c>
       <c r="D17" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>10</v>
@@ -15147,18 +15127,18 @@
         <v>50</v>
       </c>
       <c r="D18" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F18" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B20" t="s">
         <v>8</v>
@@ -15167,13 +15147,13 @@
         <v>98</v>
       </c>
       <c r="D20" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -15181,13 +15161,13 @@
         <v>48</v>
       </c>
       <c r="D21" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -15195,13 +15175,13 @@
         <v>49</v>
       </c>
       <c r="D22" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -15209,7 +15189,7 @@
         <v>50</v>
       </c>
       <c r="D23" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>10</v>
@@ -15223,13 +15203,13 @@
         <v>0</v>
       </c>
       <c r="D24" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -15237,7 +15217,7 @@
         <v>15</v>
       </c>
       <c r="D25" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>10</v>
@@ -15248,7 +15228,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B27" t="s">
         <v>8</v>
@@ -15257,7 +15237,7 @@
         <v>98</v>
       </c>
       <c r="D27" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>10</v>
@@ -15271,7 +15251,7 @@
         <v>48</v>
       </c>
       <c r="D28" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>9</v>
@@ -15282,7 +15262,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B30" t="s">
         <v>33</v>
@@ -15291,13 +15271,13 @@
         <v>48</v>
       </c>
       <c r="D30" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -15305,13 +15285,13 @@
         <v>49</v>
       </c>
       <c r="D31" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -15319,13 +15299,13 @@
         <v>50</v>
       </c>
       <c r="D32" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -15333,7 +15313,7 @@
         <v>0</v>
       </c>
       <c r="D33" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>9</v>
@@ -15344,7 +15324,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B35" t="s">
         <v>33</v>
@@ -15359,12 +15339,12 @@
         <v>9</v>
       </c>
       <c r="F35" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B37" t="s">
         <v>33</v>
@@ -15373,7 +15353,7 @@
         <v>159</v>
       </c>
       <c r="D37" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>10</v>
@@ -15387,7 +15367,7 @@
         <v>98</v>
       </c>
       <c r="D38" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>10</v>
@@ -15401,7 +15381,7 @@
         <v>48</v>
       </c>
       <c r="D39" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>10</v>
@@ -15415,7 +15395,7 @@
         <v>49</v>
       </c>
       <c r="D40" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>10</v>
@@ -15429,7 +15409,7 @@
         <v>50</v>
       </c>
       <c r="D41" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>10</v>
@@ -15443,13 +15423,13 @@
         <v>0</v>
       </c>
       <c r="D42" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -15457,7 +15437,7 @@
         <v>15</v>
       </c>
       <c r="D43" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>10</v>
@@ -15468,7 +15448,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B45" t="s">
         <v>88</v>
@@ -15477,13 +15457,13 @@
         <v>159</v>
       </c>
       <c r="D45" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -15491,13 +15471,13 @@
         <v>98</v>
       </c>
       <c r="D46" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -15505,7 +15485,7 @@
         <v>48</v>
       </c>
       <c r="D47" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>9</v>
@@ -15516,7 +15496,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B49" t="s">
         <v>8</v>
@@ -15525,13 +15505,13 @@
         <v>48</v>
       </c>
       <c r="D49" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -15539,13 +15519,13 @@
         <v>49</v>
       </c>
       <c r="D50" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F50" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -15559,13 +15539,13 @@
         <v>159</v>
       </c>
       <c r="D52" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -15573,18 +15553,18 @@
         <v>98</v>
       </c>
       <c r="D53" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F53" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B55" t="s">
         <v>8</v>
@@ -15593,18 +15573,18 @@
         <v>49</v>
       </c>
       <c r="D55" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F55" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B57" t="s">
         <v>8</v>
@@ -15613,13 +15593,13 @@
         <v>49</v>
       </c>
       <c r="D57" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -15627,18 +15607,18 @@
         <v>50</v>
       </c>
       <c r="D58" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F58" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B60" t="s">
         <v>8</v>
@@ -15647,13 +15627,13 @@
         <v>49</v>
       </c>
       <c r="D60" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F60" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -15667,7 +15647,7 @@
         <v>49</v>
       </c>
       <c r="D62" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>10</v>
@@ -15681,7 +15661,7 @@
         <v>50</v>
       </c>
       <c r="D63" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>10</v>
@@ -15695,18 +15675,18 @@
         <v>0</v>
       </c>
       <c r="D64" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F64" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B66" t="s">
         <v>8</v>
@@ -15715,7 +15695,7 @@
         <v>49</v>
       </c>
       <c r="D66" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>10</v>
@@ -15729,7 +15709,7 @@
         <v>50</v>
       </c>
       <c r="D67" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>10</v>
@@ -15749,7 +15729,7 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -15757,7 +15737,7 @@
         <v>15</v>
       </c>
       <c r="D69" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>10</v>
@@ -15777,7 +15757,7 @@
         <v>16</v>
       </c>
       <c r="D71" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>9</v>
@@ -15791,13 +15771,13 @@
         <v>16</v>
       </c>
       <c r="D72" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F72" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
   </sheetData>
@@ -15814,8 +15794,8 @@
   </sheetPr>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15850,7 +15830,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -15859,7 +15839,7 @@
         <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>10</v>
@@ -15873,13 +15853,13 @@
         <v>49</v>
       </c>
       <c r="D3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -15907,13 +15887,13 @@
         <v>159</v>
       </c>
       <c r="D6" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -15921,7 +15901,7 @@
         <v>98</v>
       </c>
       <c r="D7" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>10</v>
@@ -15935,18 +15915,18 @@
         <v>48</v>
       </c>
       <c r="D8" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F8" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>167</v>
+        <v>660</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
@@ -15955,13 +15935,13 @@
         <v>48</v>
       </c>
       <c r="D10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -15969,13 +15949,13 @@
         <v>49</v>
       </c>
       <c r="D11" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -15994,7 +15974,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
@@ -16003,7 +15983,7 @@
         <v>98</v>
       </c>
       <c r="D14" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>10</v>
@@ -16017,7 +15997,7 @@
         <v>48</v>
       </c>
       <c r="D15" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>10</v>
@@ -16031,13 +16011,13 @@
         <v>49</v>
       </c>
       <c r="D16" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -16045,13 +16025,13 @@
         <v>50</v>
       </c>
       <c r="D17" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -16059,7 +16039,7 @@
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>10</v>
@@ -16073,18 +16053,18 @@
         <v>15</v>
       </c>
       <c r="D19" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F19" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B21" t="s">
         <v>8</v>
@@ -16093,7 +16073,7 @@
         <v>98</v>
       </c>
       <c r="D21" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>10</v>
@@ -16107,18 +16087,18 @@
         <v>48</v>
       </c>
       <c r="D22" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B24" t="s">
         <v>33</v>
@@ -16127,7 +16107,7 @@
         <v>48</v>
       </c>
       <c r="D24" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>10</v>
@@ -16147,12 +16127,12 @@
         <v>9</v>
       </c>
       <c r="F25" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B27" t="s">
         <v>33</v>
@@ -16167,7 +16147,7 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -16175,7 +16155,7 @@
         <v>98</v>
       </c>
       <c r="D28" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>10</v>
@@ -16195,7 +16175,7 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -16214,7 +16194,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B32" t="s">
         <v>88</v>
@@ -16223,18 +16203,18 @@
         <v>48</v>
       </c>
       <c r="D32" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F32" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B34" t="s">
         <v>88</v>
@@ -16243,13 +16223,13 @@
         <v>159</v>
       </c>
       <c r="D34" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -16277,7 +16257,7 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -16285,18 +16265,18 @@
         <v>49</v>
       </c>
       <c r="D37" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F37" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B39" t="s">
         <v>8</v>
@@ -16305,13 +16285,13 @@
         <v>48</v>
       </c>
       <c r="D39" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -16330,7 +16310,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B42" t="s">
         <v>8</v>
@@ -16339,13 +16319,13 @@
         <v>98</v>
       </c>
       <c r="D42" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -16353,18 +16333,18 @@
         <v>48</v>
       </c>
       <c r="D43" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F43" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B45" t="s">
         <v>8</v>
@@ -16373,7 +16353,7 @@
         <v>98</v>
       </c>
       <c r="D45" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>10</v>
@@ -16387,13 +16367,13 @@
         <v>48</v>
       </c>
       <c r="D46" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F46" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -16407,18 +16387,18 @@
         <v>159</v>
       </c>
       <c r="D48" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F48" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B50" t="s">
         <v>8</v>
@@ -16427,13 +16407,13 @@
         <v>98</v>
       </c>
       <c r="D50" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F50" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
   </sheetData>
@@ -16450,8 +16430,8 @@
   </sheetPr>
   <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="D64" sqref="D64"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16486,7 +16466,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -16495,13 +16475,13 @@
         <v>48</v>
       </c>
       <c r="D2" t="s">
+        <v>415</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
         <v>417</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -16509,13 +16489,13 @@
         <v>49</v>
       </c>
       <c r="D3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -16523,13 +16503,13 @@
         <v>50</v>
       </c>
       <c r="D4" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -16537,7 +16517,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>9</v>
@@ -16557,7 +16537,7 @@
         <v>159</v>
       </c>
       <c r="D7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>10</v>
@@ -16571,24 +16551,24 @@
         <v>98</v>
       </c>
       <c r="D8" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F8" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>9</v>
@@ -16599,7 +16579,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>9</v>
@@ -16610,7 +16590,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
@@ -16619,7 +16599,7 @@
         <v>98</v>
       </c>
       <c r="D13" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>9</v>
@@ -16630,7 +16610,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
@@ -16639,7 +16619,7 @@
         <v>98</v>
       </c>
       <c r="D15" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>10</v>
@@ -16659,12 +16639,12 @@
         <v>9</v>
       </c>
       <c r="F16" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B18" t="s">
         <v>33</v>
@@ -16679,12 +16659,12 @@
         <v>9</v>
       </c>
       <c r="F18" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B20" t="s">
         <v>33</v>
@@ -16693,7 +16673,7 @@
         <v>98</v>
       </c>
       <c r="D20" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>10</v>
@@ -16721,13 +16701,13 @@
         <v>49</v>
       </c>
       <c r="D22" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -16735,7 +16715,7 @@
         <v>50</v>
       </c>
       <c r="D23" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>10</v>
@@ -16749,7 +16729,7 @@
         <v>0</v>
       </c>
       <c r="D24" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>9</v>
@@ -16760,7 +16740,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>430</v>
+        <v>658</v>
       </c>
       <c r="B26" t="s">
         <v>33</v>
@@ -16769,7 +16749,7 @@
         <v>48</v>
       </c>
       <c r="D26" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>9</v>
@@ -16780,7 +16760,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B28" t="s">
         <v>33</v>
@@ -16789,7 +16769,7 @@
         <v>159</v>
       </c>
       <c r="D28" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>10</v>
@@ -16803,18 +16783,18 @@
         <v>98</v>
       </c>
       <c r="D29" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F29" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B31" t="s">
         <v>88</v>
@@ -16823,13 +16803,13 @@
         <v>48</v>
       </c>
       <c r="D31" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -16837,18 +16817,18 @@
         <v>49</v>
       </c>
       <c r="D32" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F32" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B34" t="s">
         <v>88</v>
@@ -16857,7 +16837,7 @@
         <v>159</v>
       </c>
       <c r="D34" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>9</v>
@@ -16868,7 +16848,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B36" t="s">
         <v>8</v>
@@ -16877,7 +16857,7 @@
         <v>48</v>
       </c>
       <c r="D36" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>10</v>
@@ -16891,7 +16871,7 @@
         <v>49</v>
       </c>
       <c r="D37" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>9</v>
@@ -16902,7 +16882,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B39" t="s">
         <v>8</v>
@@ -16911,18 +16891,18 @@
         <v>48</v>
       </c>
       <c r="D39" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F39" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B41" t="s">
         <v>8</v>
@@ -16937,7 +16917,7 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -16945,13 +16925,13 @@
         <v>48</v>
       </c>
       <c r="D42" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -16959,7 +16939,7 @@
         <v>49</v>
       </c>
       <c r="D43" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>10</v>
@@ -16973,7 +16953,7 @@
         <v>50</v>
       </c>
       <c r="D44" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>10</v>
@@ -16987,13 +16967,13 @@
         <v>0</v>
       </c>
       <c r="D45" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F45" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -17007,7 +16987,7 @@
         <v>159</v>
       </c>
       <c r="D47" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>10</v>
@@ -17021,13 +17001,13 @@
         <v>98</v>
       </c>
       <c r="D48" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -17035,13 +17015,13 @@
         <v>48</v>
       </c>
       <c r="D49" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -17049,7 +17029,7 @@
         <v>49</v>
       </c>
       <c r="D50" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>9</v>
@@ -17060,7 +17040,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B52" t="s">
         <v>8</v>
@@ -17069,18 +17049,18 @@
         <v>48</v>
       </c>
       <c r="D52" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F52" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B54" t="s">
         <v>8</v>
@@ -17089,7 +17069,7 @@
         <v>98</v>
       </c>
       <c r="D54" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>10</v>
@@ -17103,7 +17083,7 @@
         <v>48</v>
       </c>
       <c r="D55" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>9</v>
@@ -17114,7 +17094,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B57" t="s">
         <v>8</v>
@@ -17123,7 +17103,7 @@
         <v>98</v>
       </c>
       <c r="D57" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>10</v>
@@ -17137,7 +17117,7 @@
         <v>48</v>
       </c>
       <c r="D58" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>10</v>
@@ -17151,13 +17131,13 @@
         <v>49</v>
       </c>
       <c r="D59" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -17165,18 +17145,18 @@
         <v>50</v>
       </c>
       <c r="D60" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F60" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B62" t="s">
         <v>8</v>
@@ -17185,7 +17165,7 @@
         <v>48</v>
       </c>
       <c r="D62" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>10</v>
@@ -17199,7 +17179,7 @@
         <v>49</v>
       </c>
       <c r="D63" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>10</v>
@@ -17213,13 +17193,13 @@
         <v>50</v>
       </c>
       <c r="D64" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -17227,13 +17207,13 @@
         <v>0</v>
       </c>
       <c r="D65" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -17241,7 +17221,7 @@
         <v>15</v>
       </c>
       <c r="D66" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>10</v>
@@ -17261,13 +17241,13 @@
         <v>48</v>
       </c>
       <c r="D68" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -17275,7 +17255,7 @@
         <v>49</v>
       </c>
       <c r="D69" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>10</v>
@@ -17289,7 +17269,7 @@
         <v>50</v>
       </c>
       <c r="D70" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>9</v>
@@ -17300,7 +17280,7 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B72" t="s">
         <v>8</v>
@@ -17309,13 +17289,13 @@
         <v>50</v>
       </c>
       <c r="D72" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -17323,13 +17303,13 @@
         <v>0</v>
       </c>
       <c r="D73" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -17337,13 +17317,13 @@
         <v>15</v>
       </c>
       <c r="D74" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
   </sheetData>
@@ -17359,8 +17339,8 @@
   </sheetPr>
   <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17404,18 +17384,18 @@
         <v>159</v>
       </c>
       <c r="D2" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -17424,13 +17404,13 @@
         <v>48</v>
       </c>
       <c r="D4" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -17438,13 +17418,13 @@
         <v>49</v>
       </c>
       <c r="D5" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -17452,18 +17432,18 @@
         <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>167</v>
+        <v>660</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -17472,18 +17452,18 @@
         <v>98</v>
       </c>
       <c r="D8" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F8" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
@@ -17492,7 +17472,7 @@
         <v>98</v>
       </c>
       <c r="D10" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>10</v>
@@ -17506,7 +17486,7 @@
         <v>48</v>
       </c>
       <c r="D11" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>10</v>
@@ -17520,7 +17500,7 @@
         <v>49</v>
       </c>
       <c r="D12" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>10</v>
@@ -17534,18 +17514,18 @@
         <v>50</v>
       </c>
       <c r="D13" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F13" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
@@ -17554,7 +17534,7 @@
         <v>98</v>
       </c>
       <c r="D15" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>10</v>
@@ -17568,13 +17548,13 @@
         <v>48</v>
       </c>
       <c r="D16" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -17582,18 +17562,18 @@
         <v>49</v>
       </c>
       <c r="D17" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F17" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>430</v>
+        <v>658</v>
       </c>
       <c r="B19" t="s">
         <v>33</v>
@@ -17602,18 +17582,18 @@
         <v>98</v>
       </c>
       <c r="D19" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F19" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B21" t="s">
         <v>33</v>
@@ -17622,13 +17602,13 @@
         <v>98</v>
       </c>
       <c r="D21" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -17636,18 +17616,18 @@
         <v>48</v>
       </c>
       <c r="D22" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F22" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B24" t="s">
         <v>33</v>
@@ -17656,13 +17636,13 @@
         <v>159</v>
       </c>
       <c r="D24" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F24" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -17676,13 +17656,13 @@
         <v>48</v>
       </c>
       <c r="D26" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -17690,7 +17670,7 @@
         <v>49</v>
       </c>
       <c r="D27" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>10</v>
@@ -17704,7 +17684,7 @@
         <v>50</v>
       </c>
       <c r="D28" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>10</v>
@@ -17718,18 +17698,18 @@
         <v>0</v>
       </c>
       <c r="D29" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F29" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B31" t="s">
         <v>88</v>
@@ -17738,7 +17718,7 @@
         <v>48</v>
       </c>
       <c r="D31" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>10</v>
@@ -17752,7 +17732,7 @@
         <v>49</v>
       </c>
       <c r="D32" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>9</v>
@@ -17763,7 +17743,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B34" t="s">
         <v>88</v>
@@ -17772,13 +17752,13 @@
         <v>159</v>
       </c>
       <c r="D34" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -17786,13 +17766,13 @@
         <v>98</v>
       </c>
       <c r="D35" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -17800,18 +17780,18 @@
         <v>48</v>
       </c>
       <c r="D36" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F36" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B38" t="s">
         <v>8</v>
@@ -17820,18 +17800,18 @@
         <v>48</v>
       </c>
       <c r="D38" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F38" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B40" t="s">
         <v>8</v>
@@ -17840,13 +17820,13 @@
         <v>48</v>
       </c>
       <c r="D40" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -17854,7 +17834,7 @@
         <v>49</v>
       </c>
       <c r="D41" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>10</v>
@@ -17868,7 +17848,7 @@
         <v>50</v>
       </c>
       <c r="D42" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>10</v>
@@ -17882,18 +17862,18 @@
         <v>0</v>
       </c>
       <c r="D43" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F43" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B45" t="s">
         <v>8</v>
@@ -17902,7 +17882,7 @@
         <v>98</v>
       </c>
       <c r="D45" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>10</v>
@@ -17930,18 +17910,18 @@
         <v>49</v>
       </c>
       <c r="D47" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F47" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B49" t="s">
         <v>8</v>
@@ -17950,13 +17930,13 @@
         <v>98</v>
       </c>
       <c r="D49" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -17964,13 +17944,13 @@
         <v>48</v>
       </c>
       <c r="D50" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F50" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -17984,7 +17964,7 @@
         <v>159</v>
       </c>
       <c r="D52" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>10</v>
@@ -17998,13 +17978,13 @@
         <v>98</v>
       </c>
       <c r="D53" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E53" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -18012,7 +17992,7 @@
         <v>48</v>
       </c>
       <c r="D54" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>10</v>
@@ -18037,7 +18017,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B57" t="s">
         <v>8</v>
@@ -18046,7 +18026,7 @@
         <v>98</v>
       </c>
       <c r="D57" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>10</v>
@@ -18060,13 +18040,13 @@
         <v>48</v>
       </c>
       <c r="D58" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -18074,7 +18054,7 @@
         <v>49</v>
       </c>
       <c r="D59" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>9</v>
@@ -18085,7 +18065,7 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B61" t="s">
         <v>8</v>
@@ -18094,7 +18074,7 @@
         <v>98</v>
       </c>
       <c r="D61" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>10</v>
@@ -18108,7 +18088,7 @@
         <v>48</v>
       </c>
       <c r="D62" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>10</v>
@@ -18122,7 +18102,7 @@
         <v>49</v>
       </c>
       <c r="D63" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>10</v>
@@ -18142,7 +18122,7 @@
         <v>9</v>
       </c>
       <c r="F64" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -18156,13 +18136,13 @@
         <v>48</v>
       </c>
       <c r="D66" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -18170,7 +18150,7 @@
         <v>49</v>
       </c>
       <c r="D67" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>9</v>
@@ -18181,7 +18161,7 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B69" t="s">
         <v>8</v>
@@ -18190,7 +18170,7 @@
         <v>50</v>
       </c>
       <c r="D69" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>10</v>
@@ -18204,13 +18184,13 @@
         <v>0</v>
       </c>
       <c r="D70" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -18218,13 +18198,13 @@
         <v>15</v>
       </c>
       <c r="D71" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Ana Ivanović.xlsx
+++ b/Tennis/WTA Tour/Ana Ivanović.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8567" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{765649F0-57CC-4769-83BD-2503F4E93945}"/>
+  <xr:revisionPtr revIDLastSave="8575" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1A9D34EA-695A-4DDF-BDE6-79CCE1898DD1}"/>
   <bookViews>
-    <workbookView xWindow="9465" yWindow="2265" windowWidth="28800" windowHeight="15345" firstSheet="4" activeTab="13" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="3465" yWindow="3465" windowWidth="28800" windowHeight="15285" firstSheet="4" activeTab="14" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2003" sheetId="25" r:id="rId1"/>
@@ -27,9 +27,7 @@
     <sheet name="2014" sheetId="20" r:id="rId12"/>
     <sheet name="2015" sheetId="22" r:id="rId13"/>
     <sheet name="2016" sheetId="23" r:id="rId14"/>
-    <sheet name="YTD Stats" sheetId="1" r:id="rId15"/>
-    <sheet name="Wins-Losses" sheetId="26" r:id="rId16"/>
-    <sheet name="Winning Percentile Range" sheetId="27" r:id="rId17"/>
+    <sheet name="Stats" sheetId="1" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -3184,7 +3182,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'YTD Stats'!$D$1</c:f>
+              <c:f>Stats!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3205,7 +3203,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$15</c:f>
+              <c:f>Stats!$A$2:$A$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -3256,7 +3254,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$D$2:$D$15</c:f>
+              <c:f>Stats!$D$2:$D$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -3307,7 +3305,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-EE66-4377-93D4-2E7EFA29BE4B}"/>
+              <c16:uniqueId val="{00000000-9346-4461-A553-9FF615017304}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3316,7 +3314,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'YTD Stats'!$E$1</c:f>
+              <c:f>Stats!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3337,7 +3335,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$15</c:f>
+              <c:f>Stats!$A$2:$A$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -3388,7 +3386,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$E$2:$E$15</c:f>
+              <c:f>Stats!$E$2:$E$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -3439,7 +3437,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-EE66-4377-93D4-2E7EFA29BE4B}"/>
+              <c16:uniqueId val="{00000001-9346-4461-A553-9FF615017304}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3741,6 +3739,11 @@
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -3827,7 +3830,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'YTD Stats'!$F$1</c:f>
+              <c:f>Stats!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3876,7 +3879,7 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$15</c:f>
+              <c:f>Stats!$A$2:$A$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -3927,7 +3930,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$F$2:$F$15</c:f>
+              <c:f>Stats!$F$2:$F$15</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="14"/>
@@ -3979,7 +3982,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4C6F-4494-8987-7B616E2FC03B}"/>
+              <c16:uniqueId val="{00000001-1620-4CCC-AAB1-E283DD542B2B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4288,6 +4291,11 @@
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -5377,46 +5385,31 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{BEFAAB55-596A-40B8-8663-10219CC086A1}">
-  <sheetPr/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</chartsheet>
-</file>
-
-<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{575DF813-855C-48CC-BEF5-47C3E1E68184}">
-  <sheetPr/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</chartsheet>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8564880" cy="5821680"/>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>4761</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9EBD450-3DB9-7DD9-38F8-E5BE73C8DF9F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6385825-81E2-05CF-8C7E-86E78286961E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -5429,27 +5422,30 @@
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:absoluteAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8680040" cy="6298790"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>600074</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>4761</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E4321FE-C08C-4B32-9F81-A7DFE2F0BF36}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5FC3162-EDEE-0BD7-9593-16A162F04E26}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -5457,13 +5453,17 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:absoluteAnchor>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5768,7 +5768,7 @@
   </sheetPr>
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -6049,7 +6049,7 @@
   </sheetPr>
   <dimension ref="A1:F79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -7083,7 +7083,7 @@
   </sheetPr>
   <dimension ref="A1:F83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -8192,7 +8192,7 @@
   </sheetPr>
   <dimension ref="A1:F99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -9524,7 +9524,7 @@
   </sheetPr>
   <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -10394,7 +10394,7 @@
   </sheetPr>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -10996,7 +10996,7 @@
   <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11400,6 +11400,7 @@
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -11410,7 +11411,7 @@
   </sheetPr>
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -12021,7 +12022,7 @@
   </sheetPr>
   <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -12872,7 +12873,7 @@
   </sheetPr>
   <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -13789,7 +13790,7 @@
   </sheetPr>
   <dimension ref="A1:F85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -14882,7 +14883,7 @@
   </sheetPr>
   <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -15794,7 +15795,7 @@
   </sheetPr>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -16430,7 +16431,7 @@
   </sheetPr>
   <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -17339,7 +17340,7 @@
   </sheetPr>
   <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>

--- a/Tennis/WTA Tour/Ana Ivanović.xlsx
+++ b/Tennis/WTA Tour/Ana Ivanović.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8575" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1A9D34EA-695A-4DDF-BDE6-79CCE1898DD1}"/>
+  <xr:revisionPtr revIDLastSave="8586" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0ABD1EEE-FF31-4B81-A0FF-42D364019D0A}"/>
   <bookViews>
-    <workbookView xWindow="3465" yWindow="3465" windowWidth="28800" windowHeight="15285" firstSheet="4" activeTab="14" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="11" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2003" sheetId="25" r:id="rId1"/>
@@ -1393,9 +1393,6 @@
     <t>Arantxa Parra Santonja (SPAIN)</t>
   </si>
   <si>
-    <t>COMMONWEALTH BANK TOURNAMENT OF CHAMPIONS</t>
-  </si>
-  <si>
     <t>Kimiko Date-Krumm (JAPAN)</t>
   </si>
   <si>
@@ -1939,9 +1936,6 @@
     <t>7-5 4-6 6-2</t>
   </si>
   <si>
-    <t>Alison Van Uytvanck</t>
-  </si>
-  <si>
     <t>6-4 6-7(5) 7-5</t>
   </si>
   <si>
@@ -1963,9 +1957,6 @@
     <t>Kateryna Baindl (UKRAINE)</t>
   </si>
   <si>
-    <t>Margarita Gasparyan (RUSSIA)</t>
-  </si>
-  <si>
     <t>7-6(2) 6-2</t>
   </si>
   <si>
@@ -2030,6 +2021,15 @@
   </si>
   <si>
     <t>DUBAI OPEN</t>
+  </si>
+  <si>
+    <t>Alison Van Uytvanck (BELGIUM)</t>
+  </si>
+  <si>
+    <t>Margarita Betova (RUSSIA)</t>
+  </si>
+  <si>
+    <t>LIBEMA OPEN</t>
   </si>
 </sst>
 </file>
@@ -6050,7 +6050,7 @@
   <dimension ref="A1:F79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6114,7 +6114,7 @@
         <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -6148,7 +6148,7 @@
         <v>159</v>
       </c>
       <c r="D7" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>10</v>
@@ -6196,12 +6196,12 @@
         <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
@@ -6210,13 +6210,13 @@
         <v>98</v>
       </c>
       <c r="D12" t="s">
+        <v>484</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
         <v>485</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -6235,7 +6235,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
@@ -6306,13 +6306,13 @@
         <v>48</v>
       </c>
       <c r="D20" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -6354,7 +6354,7 @@
         <v>9</v>
       </c>
       <c r="F23" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -6388,7 +6388,7 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -6402,12 +6402,12 @@
         <v>9</v>
       </c>
       <c r="F27" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B29" t="s">
         <v>8</v>
@@ -6430,7 +6430,7 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -6444,7 +6444,7 @@
         <v>48</v>
       </c>
       <c r="D32" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>9</v>
@@ -6455,7 +6455,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="B34" t="s">
         <v>33</v>
@@ -6464,7 +6464,7 @@
         <v>98</v>
       </c>
       <c r="D34" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>10</v>
@@ -6526,7 +6526,7 @@
         <v>48</v>
       </c>
       <c r="D39" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>10</v>
@@ -6546,7 +6546,7 @@
         <v>9</v>
       </c>
       <c r="F40" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -6560,7 +6560,7 @@
         <v>159</v>
       </c>
       <c r="D42" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>10</v>
@@ -6594,7 +6594,7 @@
         <v>9</v>
       </c>
       <c r="F44" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -6628,7 +6628,7 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -6642,7 +6642,7 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -6661,7 +6661,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B51" t="s">
         <v>88</v>
@@ -6670,7 +6670,7 @@
         <v>98</v>
       </c>
       <c r="D51" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>10</v>
@@ -6684,13 +6684,13 @@
         <v>48</v>
       </c>
       <c r="D52" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -6738,7 +6738,7 @@
         <v>159</v>
       </c>
       <c r="D57" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>10</v>
@@ -6766,13 +6766,13 @@
         <v>48</v>
       </c>
       <c r="D59" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -6786,7 +6786,7 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -6814,13 +6814,13 @@
         <v>98</v>
       </c>
       <c r="D63" t="s">
+        <v>507</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F63" t="s">
         <v>508</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F63" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -6828,7 +6828,7 @@
         <v>48</v>
       </c>
       <c r="D64" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>9</v>
@@ -6848,7 +6848,7 @@
         <v>98</v>
       </c>
       <c r="D66" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>10</v>
@@ -6862,13 +6862,13 @@
         <v>48</v>
       </c>
       <c r="D67" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -6876,7 +6876,7 @@
         <v>49</v>
       </c>
       <c r="D68" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>9</v>
@@ -6896,7 +6896,7 @@
         <v>48</v>
       </c>
       <c r="D70" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>10</v>
@@ -6924,7 +6924,7 @@
         <v>50</v>
       </c>
       <c r="D72" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>9</v>
@@ -6944,7 +6944,7 @@
         <v>49</v>
       </c>
       <c r="D74" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>10</v>
@@ -6958,7 +6958,7 @@
         <v>50</v>
       </c>
       <c r="D75" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>10</v>
@@ -6983,7 +6983,7 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B78" t="s">
         <v>8</v>
@@ -7083,7 +7083,7 @@
   </sheetPr>
   <dimension ref="A1:F83"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -7142,13 +7142,13 @@
         <v>98</v>
       </c>
       <c r="D3" t="s">
+        <v>519</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
         <v>520</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -7181,7 +7181,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -7190,7 +7190,7 @@
         <v>48</v>
       </c>
       <c r="D7" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>9</v>
@@ -7201,7 +7201,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
@@ -7224,13 +7224,13 @@
         <v>48</v>
       </c>
       <c r="D10" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -7244,12 +7244,12 @@
         <v>9</v>
       </c>
       <c r="F11" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
@@ -7264,7 +7264,7 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -7278,7 +7278,7 @@
         <v>9</v>
       </c>
       <c r="F14" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -7292,7 +7292,7 @@
         <v>98</v>
       </c>
       <c r="D16" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>10</v>
@@ -7306,13 +7306,13 @@
         <v>48</v>
       </c>
       <c r="D17" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F17" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -7326,7 +7326,7 @@
         <v>98</v>
       </c>
       <c r="D19" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>10</v>
@@ -7360,12 +7360,12 @@
         <v>9</v>
       </c>
       <c r="F21" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B23" t="s">
         <v>8</v>
@@ -7374,7 +7374,7 @@
         <v>48</v>
       </c>
       <c r="D23" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>10</v>
@@ -7388,13 +7388,13 @@
         <v>49</v>
       </c>
       <c r="D24" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F24" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -7447,7 +7447,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="B30" t="s">
         <v>33</v>
@@ -7456,13 +7456,13 @@
         <v>98</v>
       </c>
       <c r="D30" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -7470,7 +7470,7 @@
         <v>48</v>
       </c>
       <c r="D31" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>10</v>
@@ -7484,13 +7484,13 @@
         <v>49</v>
       </c>
       <c r="D32" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -7498,7 +7498,7 @@
         <v>50</v>
       </c>
       <c r="D33" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>10</v>
@@ -7532,13 +7532,13 @@
         <v>98</v>
       </c>
       <c r="D36" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F36" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -7552,13 +7552,13 @@
         <v>159</v>
       </c>
       <c r="D38" t="s">
+        <v>538</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" t="s">
         <v>539</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F38" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -7566,7 +7566,7 @@
         <v>98</v>
       </c>
       <c r="D39" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>10</v>
@@ -7600,7 +7600,7 @@
         <v>9</v>
       </c>
       <c r="F41" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -7620,7 +7620,7 @@
         <v>9</v>
       </c>
       <c r="F43" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -7640,7 +7640,7 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -7648,7 +7648,7 @@
         <v>98</v>
       </c>
       <c r="D46" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>9</v>
@@ -7659,7 +7659,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B48" t="s">
         <v>8</v>
@@ -7674,7 +7674,7 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -7682,7 +7682,7 @@
         <v>49</v>
       </c>
       <c r="D49" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>10</v>
@@ -7702,7 +7702,7 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -7716,7 +7716,7 @@
         <v>9</v>
       </c>
       <c r="F51" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -7730,7 +7730,7 @@
         <v>98</v>
       </c>
       <c r="D53" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>10</v>
@@ -7764,7 +7764,7 @@
         <v>9</v>
       </c>
       <c r="F55" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -7784,7 +7784,7 @@
         <v>9</v>
       </c>
       <c r="F57" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -7798,7 +7798,7 @@
         <v>159</v>
       </c>
       <c r="D59" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>10</v>
@@ -7812,7 +7812,7 @@
         <v>98</v>
       </c>
       <c r="D60" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>10</v>
@@ -7826,13 +7826,13 @@
         <v>48</v>
       </c>
       <c r="D61" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -7860,7 +7860,7 @@
         <v>98</v>
       </c>
       <c r="D64" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>10</v>
@@ -7874,7 +7874,7 @@
         <v>48</v>
       </c>
       <c r="D65" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>10</v>
@@ -7888,7 +7888,7 @@
         <v>49</v>
       </c>
       <c r="D66" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>9</v>
@@ -7914,7 +7914,7 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -7922,7 +7922,7 @@
         <v>48</v>
       </c>
       <c r="D69" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>9</v>
@@ -7942,7 +7942,7 @@
         <v>48</v>
       </c>
       <c r="D71" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>10</v>
@@ -7984,7 +7984,7 @@
         <v>0</v>
       </c>
       <c r="D74" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>10</v>
@@ -7998,7 +7998,7 @@
         <v>15</v>
       </c>
       <c r="D75" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>9</v>
@@ -8043,7 +8043,7 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B80" t="s">
         <v>8</v>
@@ -8072,7 +8072,7 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="82" spans="3:6" x14ac:dyDescent="0.25">
@@ -8086,7 +8086,7 @@
         <v>9</v>
       </c>
       <c r="F82" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="83" spans="3:6" x14ac:dyDescent="0.25">
@@ -8094,13 +8094,13 @@
         <v>0</v>
       </c>
       <c r="D83" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F83" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
   </sheetData>
@@ -8192,8 +8192,8 @@
   </sheetPr>
   <dimension ref="A1:F99"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8228,7 +8228,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -8237,13 +8237,13 @@
         <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -8265,7 +8265,7 @@
         <v>50</v>
       </c>
       <c r="D4" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>10</v>
@@ -8279,7 +8279,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>10</v>
@@ -8299,7 +8299,7 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -8313,7 +8313,7 @@
         <v>159</v>
       </c>
       <c r="D8" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>10</v>
@@ -8327,7 +8327,7 @@
         <v>98</v>
       </c>
       <c r="D9" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>10</v>
@@ -8347,7 +8347,7 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -8361,7 +8361,7 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -8369,18 +8369,18 @@
         <v>50</v>
       </c>
       <c r="D12" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F12" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
@@ -8395,7 +8395,7 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -8409,12 +8409,12 @@
         <v>9</v>
       </c>
       <c r="F15" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
@@ -8423,13 +8423,13 @@
         <v>48</v>
       </c>
       <c r="D17" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -8457,13 +8457,13 @@
         <v>98</v>
       </c>
       <c r="D20" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -8471,7 +8471,7 @@
         <v>48</v>
       </c>
       <c r="D21" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>9</v>
@@ -8491,7 +8491,7 @@
         <v>98</v>
       </c>
       <c r="D23" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>10</v>
@@ -8525,12 +8525,12 @@
         <v>9</v>
       </c>
       <c r="F25" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B27" t="s">
         <v>8</v>
@@ -8539,13 +8539,13 @@
         <v>48</v>
       </c>
       <c r="D27" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -8553,7 +8553,7 @@
         <v>49</v>
       </c>
       <c r="D28" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>10</v>
@@ -8573,7 +8573,7 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -8587,7 +8587,7 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -8595,7 +8595,7 @@
         <v>15</v>
       </c>
       <c r="D31" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>10</v>
@@ -8615,7 +8615,7 @@
         <v>48</v>
       </c>
       <c r="D33" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>10</v>
@@ -8635,7 +8635,7 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -8643,13 +8643,13 @@
         <v>50</v>
       </c>
       <c r="D35" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -8682,7 +8682,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="B39" t="s">
         <v>33</v>
@@ -8691,13 +8691,13 @@
         <v>98</v>
       </c>
       <c r="D39" t="s">
+        <v>586</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" t="s">
         <v>587</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F39" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -8705,7 +8705,7 @@
         <v>48</v>
       </c>
       <c r="D40" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>10</v>
@@ -8733,7 +8733,7 @@
         <v>50</v>
       </c>
       <c r="D42" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>9</v>
@@ -8753,7 +8753,7 @@
         <v>98</v>
       </c>
       <c r="D44" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>10</v>
@@ -8773,7 +8773,7 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -8795,7 +8795,7 @@
         <v>50</v>
       </c>
       <c r="D47" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>10</v>
@@ -8829,7 +8829,7 @@
         <v>159</v>
       </c>
       <c r="D50" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>10</v>
@@ -8843,7 +8843,7 @@
         <v>98</v>
       </c>
       <c r="D51" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>10</v>
@@ -8877,7 +8877,7 @@
         <v>48</v>
       </c>
       <c r="D54" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>10</v>
@@ -8891,7 +8891,7 @@
         <v>49</v>
       </c>
       <c r="D55" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>10</v>
@@ -8919,7 +8919,7 @@
         <v>0</v>
       </c>
       <c r="D57" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>10</v>
@@ -8981,13 +8981,13 @@
         <v>48</v>
       </c>
       <c r="D62" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F62" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -9001,13 +9001,13 @@
         <v>48</v>
       </c>
       <c r="D64" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -9015,7 +9015,7 @@
         <v>49</v>
       </c>
       <c r="D65" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>10</v>
@@ -9035,7 +9035,7 @@
         <v>9</v>
       </c>
       <c r="F66" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -9063,13 +9063,13 @@
         <v>48</v>
       </c>
       <c r="D69" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F69" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -9097,7 +9097,7 @@
         <v>48</v>
       </c>
       <c r="D72" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>10</v>
@@ -9117,7 +9117,7 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -9125,7 +9125,7 @@
         <v>50</v>
       </c>
       <c r="D74" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>10</v>
@@ -9145,7 +9145,7 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -9173,7 +9173,7 @@
         <v>159</v>
       </c>
       <c r="D78" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>10</v>
@@ -9187,7 +9187,7 @@
         <v>98</v>
       </c>
       <c r="D79" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E79" s="3" t="s">
         <v>9</v>
@@ -9235,7 +9235,7 @@
         <v>0</v>
       </c>
       <c r="D83" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>10</v>
@@ -9255,12 +9255,12 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B86" t="s">
         <v>8</v>
@@ -9275,7 +9275,7 @@
         <v>9</v>
       </c>
       <c r="F86" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -9289,7 +9289,7 @@
         <v>98</v>
       </c>
       <c r="D88" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>10</v>
@@ -9303,7 +9303,7 @@
         <v>48</v>
       </c>
       <c r="D89" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>10</v>
@@ -9317,7 +9317,7 @@
         <v>49</v>
       </c>
       <c r="D90" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>10</v>
@@ -9331,7 +9331,7 @@
         <v>50</v>
       </c>
       <c r="D91" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E91" s="7" t="s">
         <v>10</v>
@@ -9351,7 +9351,7 @@
         <v>9</v>
       </c>
       <c r="F92" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -9379,7 +9379,7 @@
         <v>49</v>
       </c>
       <c r="D95" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E95" s="7" t="s">
         <v>199</v>
@@ -9413,13 +9413,13 @@
         <v>16</v>
       </c>
       <c r="D98" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -9427,7 +9427,7 @@
         <v>16</v>
       </c>
       <c r="D99" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>10</v>
@@ -9524,8 +9524,8 @@
   </sheetPr>
   <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9583,13 +9583,13 @@
         <v>50</v>
       </c>
       <c r="D3" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -9597,7 +9597,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>10</v>
@@ -9617,7 +9617,7 @@
         <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -9637,12 +9637,12 @@
         <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
@@ -9651,7 +9651,7 @@
         <v>48</v>
       </c>
       <c r="D9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>10</v>
@@ -9665,18 +9665,18 @@
         <v>49</v>
       </c>
       <c r="D10" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
@@ -9691,7 +9691,7 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -9713,7 +9713,7 @@
         <v>50</v>
       </c>
       <c r="D14" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>10</v>
@@ -9727,7 +9727,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>9</v>
@@ -9747,7 +9747,7 @@
         <v>98</v>
       </c>
       <c r="D17" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>10</v>
@@ -9761,13 +9761,13 @@
         <v>48</v>
       </c>
       <c r="D18" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F18" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -9781,13 +9781,13 @@
         <v>98</v>
       </c>
       <c r="D20" t="s">
+        <v>611</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" t="s">
         <v>612</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -9795,7 +9795,7 @@
         <v>48</v>
       </c>
       <c r="D21" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>9</v>
@@ -9815,7 +9815,7 @@
         <v>48</v>
       </c>
       <c r="D23" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>9</v>
@@ -9826,7 +9826,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="B25" t="s">
         <v>33</v>
@@ -9835,13 +9835,13 @@
         <v>98</v>
       </c>
       <c r="D25" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -9849,7 +9849,7 @@
         <v>48</v>
       </c>
       <c r="D26" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>10</v>
@@ -9863,13 +9863,13 @@
         <v>49</v>
       </c>
       <c r="D27" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F27" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -9883,13 +9883,13 @@
         <v>48</v>
       </c>
       <c r="D29" t="s">
+        <v>614</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" t="s">
         <v>615</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F29" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -9909,7 +9909,7 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -9917,13 +9917,13 @@
         <v>98</v>
       </c>
       <c r="D32" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -9931,7 +9931,7 @@
         <v>48</v>
       </c>
       <c r="D33" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>10</v>
@@ -9951,7 +9951,7 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -9959,7 +9959,7 @@
         <v>50</v>
       </c>
       <c r="D35" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>10</v>
@@ -9993,13 +9993,13 @@
         <v>98</v>
       </c>
       <c r="D38" t="s">
+        <v>620</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" t="s">
         <v>621</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F38" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -10013,7 +10013,7 @@
         <v>159</v>
       </c>
       <c r="D40" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>10</v>
@@ -10027,7 +10027,7 @@
         <v>98</v>
       </c>
       <c r="D41" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>9</v>
@@ -10053,7 +10053,7 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -10061,7 +10061,7 @@
         <v>49</v>
       </c>
       <c r="D44" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>10</v>
@@ -10075,7 +10075,7 @@
         <v>50</v>
       </c>
       <c r="D45" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>9</v>
@@ -10095,13 +10095,13 @@
         <v>49</v>
       </c>
       <c r="D47" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -10149,7 +10149,7 @@
         <v>49</v>
       </c>
       <c r="D52" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>10</v>
@@ -10174,7 +10174,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B55" t="s">
         <v>8</v>
@@ -10183,7 +10183,7 @@
         <v>98</v>
       </c>
       <c r="D55" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>10</v>
@@ -10197,7 +10197,7 @@
         <v>48</v>
       </c>
       <c r="D56" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>10</v>
@@ -10211,13 +10211,13 @@
         <v>49</v>
       </c>
       <c r="D57" t="s">
+        <v>625</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F57" t="s">
         <v>626</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F57" t="s">
-        <v>627</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -10251,7 +10251,7 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -10265,7 +10265,7 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -10293,7 +10293,7 @@
         <v>9</v>
       </c>
       <c r="F63" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -10307,7 +10307,7 @@
         <v>48</v>
       </c>
       <c r="D65" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>10</v>
@@ -10321,13 +10321,13 @@
         <v>49</v>
       </c>
       <c r="D66" t="s">
-        <v>630</v>
+        <v>658</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F66" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
   </sheetData>
@@ -10395,7 +10395,7 @@
   <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D33" sqref="D33:D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10430,7 +10430,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -10439,7 +10439,7 @@
         <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>9</v>
@@ -10459,7 +10459,7 @@
         <v>48</v>
       </c>
       <c r="D4" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>9</v>
@@ -10479,7 +10479,7 @@
         <v>159</v>
       </c>
       <c r="D6" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>10</v>
@@ -10507,18 +10507,18 @@
         <v>48</v>
       </c>
       <c r="D8" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F8" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
@@ -10527,7 +10527,7 @@
         <v>49</v>
       </c>
       <c r="D10" t="s">
-        <v>638</v>
+        <v>659</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>10</v>
@@ -10541,7 +10541,7 @@
         <v>50</v>
       </c>
       <c r="D11" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>10</v>
@@ -10566,7 +10566,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
@@ -10575,7 +10575,7 @@
         <v>48</v>
       </c>
       <c r="D14" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>10</v>
@@ -10589,13 +10589,13 @@
         <v>49</v>
       </c>
       <c r="D15" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -10623,13 +10623,13 @@
         <v>98</v>
       </c>
       <c r="D18" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -10637,7 +10637,7 @@
         <v>48</v>
       </c>
       <c r="D19" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>9</v>
@@ -10657,7 +10657,7 @@
         <v>98</v>
       </c>
       <c r="D21" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>10</v>
@@ -10691,13 +10691,13 @@
         <v>48</v>
       </c>
       <c r="D24" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -10705,18 +10705,18 @@
         <v>49</v>
       </c>
       <c r="D25" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F25" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="B27" t="s">
         <v>33</v>
@@ -10725,13 +10725,13 @@
         <v>98</v>
       </c>
       <c r="D27" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -10739,13 +10739,13 @@
         <v>48</v>
       </c>
       <c r="D28" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F28" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -10765,7 +10765,7 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -10773,13 +10773,13 @@
         <v>48</v>
       </c>
       <c r="D31" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F31" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -10793,13 +10793,13 @@
         <v>159</v>
       </c>
       <c r="D33" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -10807,7 +10807,7 @@
         <v>98</v>
       </c>
       <c r="D34" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>10</v>
@@ -10821,7 +10821,7 @@
         <v>48</v>
       </c>
       <c r="D35" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>9</v>
@@ -10832,7 +10832,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="B37" t="s">
         <v>88</v>
@@ -10855,7 +10855,7 @@
         <v>49</v>
       </c>
       <c r="D38" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>10</v>
@@ -10869,13 +10869,13 @@
         <v>50</v>
       </c>
       <c r="D39" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F39" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -10889,7 +10889,7 @@
         <v>159</v>
       </c>
       <c r="D41" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>9</v>
@@ -10900,7 +10900,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B43" t="s">
         <v>8</v>
@@ -10909,13 +10909,13 @@
         <v>98</v>
       </c>
       <c r="D43" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F43" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -10929,7 +10929,7 @@
         <v>98</v>
       </c>
       <c r="D45" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>9</v>
@@ -10949,13 +10949,13 @@
         <v>159</v>
       </c>
       <c r="D47" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F47" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
     </row>
   </sheetData>
@@ -10995,7 +10995,7 @@
   </sheetPr>
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
@@ -11411,7 +11411,7 @@
   </sheetPr>
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -12022,7 +12022,7 @@
   </sheetPr>
   <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -12224,7 +12224,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
@@ -12258,7 +12258,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="B18" t="s">
         <v>8</v>
@@ -12873,7 +12873,7 @@
   </sheetPr>
   <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -13790,13 +13790,13 @@
   </sheetPr>
   <dimension ref="A1:F85"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
@@ -14452,7 +14452,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>240</v>
+        <v>660</v>
       </c>
       <c r="B53" t="s">
         <v>88</v>
@@ -14883,8 +14883,8 @@
   </sheetPr>
   <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15071,7 +15071,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
@@ -15105,7 +15105,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
@@ -15795,8 +15795,8 @@
   </sheetPr>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15927,7 +15927,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
@@ -16431,13 +16431,13 @@
   </sheetPr>
   <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
@@ -16741,7 +16741,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="B26" t="s">
         <v>33</v>
@@ -16795,7 +16795,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>240</v>
+        <v>660</v>
       </c>
       <c r="B31" t="s">
         <v>88</v>
@@ -17281,7 +17281,7 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>448</v>
+        <v>559</v>
       </c>
       <c r="B72" t="s">
         <v>8</v>
@@ -17296,7 +17296,7 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -17304,7 +17304,7 @@
         <v>0</v>
       </c>
       <c r="D73" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>10</v>
@@ -17340,13 +17340,13 @@
   </sheetPr>
   <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A25" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
@@ -17391,12 +17391,12 @@
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -17405,7 +17405,7 @@
         <v>48</v>
       </c>
       <c r="D4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>10</v>
@@ -17419,13 +17419,13 @@
         <v>49</v>
       </c>
       <c r="D5" t="s">
+        <v>452</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
         <v>453</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -17444,7 +17444,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -17459,7 +17459,7 @@
         <v>9</v>
       </c>
       <c r="F8" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -17473,7 +17473,7 @@
         <v>98</v>
       </c>
       <c r="D10" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>10</v>
@@ -17521,7 +17521,7 @@
         <v>9</v>
       </c>
       <c r="F13" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -17535,7 +17535,7 @@
         <v>98</v>
       </c>
       <c r="D15" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>10</v>
@@ -17555,7 +17555,7 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -17569,12 +17569,12 @@
         <v>9</v>
       </c>
       <c r="F17" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="B19" t="s">
         <v>33</v>
@@ -17583,13 +17583,13 @@
         <v>98</v>
       </c>
       <c r="D19" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F19" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -17609,7 +17609,7 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -17617,13 +17617,13 @@
         <v>48</v>
       </c>
       <c r="D22" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F22" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -17643,7 +17643,7 @@
         <v>9</v>
       </c>
       <c r="F24" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -17657,7 +17657,7 @@
         <v>48</v>
       </c>
       <c r="D26" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>10</v>
@@ -17671,7 +17671,7 @@
         <v>49</v>
       </c>
       <c r="D27" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>10</v>
@@ -17685,7 +17685,7 @@
         <v>50</v>
       </c>
       <c r="D28" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>10</v>
@@ -17705,7 +17705,7 @@
         <v>9</v>
       </c>
       <c r="F29" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -17759,7 +17759,7 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -17787,7 +17787,7 @@
         <v>9</v>
       </c>
       <c r="F36" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -17801,7 +17801,7 @@
         <v>48</v>
       </c>
       <c r="D38" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>9</v>
@@ -17821,7 +17821,7 @@
         <v>48</v>
       </c>
       <c r="D40" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>10</v>
@@ -17835,7 +17835,7 @@
         <v>49</v>
       </c>
       <c r="D41" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>10</v>
@@ -17883,7 +17883,7 @@
         <v>98</v>
       </c>
       <c r="D45" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>10</v>
@@ -17917,7 +17917,7 @@
         <v>9</v>
       </c>
       <c r="F47" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -17931,7 +17931,7 @@
         <v>98</v>
       </c>
       <c r="D49" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>10</v>
@@ -17951,7 +17951,7 @@
         <v>9</v>
       </c>
       <c r="F50" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -17965,7 +17965,7 @@
         <v>159</v>
       </c>
       <c r="D52" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>10</v>
@@ -17993,7 +17993,7 @@
         <v>48</v>
       </c>
       <c r="D54" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>10</v>
@@ -18027,7 +18027,7 @@
         <v>98</v>
       </c>
       <c r="D57" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>10</v>
@@ -18041,7 +18041,7 @@
         <v>48</v>
       </c>
       <c r="D58" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>10</v>
@@ -18075,7 +18075,7 @@
         <v>98</v>
       </c>
       <c r="D61" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>10</v>
@@ -18123,7 +18123,7 @@
         <v>9</v>
       </c>
       <c r="F64" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -18151,7 +18151,7 @@
         <v>49</v>
       </c>
       <c r="D67" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>9</v>
@@ -18162,7 +18162,7 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>448</v>
+        <v>559</v>
       </c>
       <c r="B69" t="s">
         <v>8</v>

--- a/Tennis/WTA Tour/Ana Ivanović.xlsx
+++ b/Tennis/WTA Tour/Ana Ivanović.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8586" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0ABD1EEE-FF31-4B81-A0FF-42D364019D0A}"/>
+  <xr:revisionPtr revIDLastSave="8591" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E70EBE7-DD66-4F08-B41D-AE263D4049E8}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="11" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="13" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2003" sheetId="25" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3328" uniqueCount="661">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3328" uniqueCount="662">
   <si>
     <t>Semifinal</t>
   </si>
@@ -1570,9 +1570,6 @@
     <t>Elina Svitolina (UKRAINE)</t>
   </si>
   <si>
-    <t>Andrea Sestini Hlaváčková (CZECH REPUBLIC)</t>
-  </si>
-  <si>
     <t>6-3 2-0 RETIRED</t>
   </si>
   <si>
@@ -2017,9 +2014,6 @@
     <t>MADRID OPEN</t>
   </si>
   <si>
-    <t>QATAR LADIES OPEN</t>
-  </si>
-  <si>
     <t>DUBAI OPEN</t>
   </si>
   <si>
@@ -2030,6 +2024,15 @@
   </si>
   <si>
     <t>LIBEMA OPEN</t>
+  </si>
+  <si>
+    <t>QATAR OPEN</t>
+  </si>
+  <si>
+    <t>SILICON VALLEY CLASSIC</t>
+  </si>
+  <si>
+    <t>Andrea Hlaváčková (CZECH REPUBLIC)</t>
   </si>
 </sst>
 </file>
@@ -6049,8 +6052,8 @@
   </sheetPr>
   <dimension ref="A1:F79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D79" sqref="D79"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A28" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6058,7 +6061,7 @@
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -6201,7 +6204,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
@@ -6235,7 +6238,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
@@ -6455,7 +6458,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B34" t="s">
         <v>33</v>
@@ -6814,13 +6817,13 @@
         <v>98</v>
       </c>
       <c r="D63" t="s">
+        <v>661</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F63" t="s">
         <v>507</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F63" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -6828,7 +6831,7 @@
         <v>48</v>
       </c>
       <c r="D64" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>9</v>
@@ -6862,13 +6865,13 @@
         <v>48</v>
       </c>
       <c r="D67" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -6876,7 +6879,7 @@
         <v>49</v>
       </c>
       <c r="D68" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>9</v>
@@ -6896,7 +6899,7 @@
         <v>48</v>
       </c>
       <c r="D70" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>10</v>
@@ -6924,7 +6927,7 @@
         <v>50</v>
       </c>
       <c r="D72" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>9</v>
@@ -6944,7 +6947,7 @@
         <v>49</v>
       </c>
       <c r="D74" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>10</v>
@@ -6958,7 +6961,7 @@
         <v>50</v>
       </c>
       <c r="D75" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>10</v>
@@ -7083,7 +7086,7 @@
   </sheetPr>
   <dimension ref="A1:F83"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -7142,13 +7145,13 @@
         <v>98</v>
       </c>
       <c r="D3" t="s">
+        <v>518</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
         <v>519</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -7201,7 +7204,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
@@ -7224,13 +7227,13 @@
         <v>48</v>
       </c>
       <c r="D10" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -7244,12 +7247,12 @@
         <v>9</v>
       </c>
       <c r="F11" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
@@ -7264,7 +7267,7 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -7278,7 +7281,7 @@
         <v>9</v>
       </c>
       <c r="F14" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -7292,7 +7295,7 @@
         <v>98</v>
       </c>
       <c r="D16" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>10</v>
@@ -7312,7 +7315,7 @@
         <v>9</v>
       </c>
       <c r="F17" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -7326,7 +7329,7 @@
         <v>98</v>
       </c>
       <c r="D19" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>10</v>
@@ -7360,12 +7363,12 @@
         <v>9</v>
       </c>
       <c r="F21" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B23" t="s">
         <v>8</v>
@@ -7374,7 +7377,7 @@
         <v>48</v>
       </c>
       <c r="D23" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>10</v>
@@ -7388,13 +7391,13 @@
         <v>49</v>
       </c>
       <c r="D24" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F24" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -7447,7 +7450,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B30" t="s">
         <v>33</v>
@@ -7456,13 +7459,13 @@
         <v>98</v>
       </c>
       <c r="D30" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -7470,7 +7473,7 @@
         <v>48</v>
       </c>
       <c r="D31" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>10</v>
@@ -7490,7 +7493,7 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -7498,7 +7501,7 @@
         <v>50</v>
       </c>
       <c r="D33" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>10</v>
@@ -7532,13 +7535,13 @@
         <v>98</v>
       </c>
       <c r="D36" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F36" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -7552,13 +7555,13 @@
         <v>159</v>
       </c>
       <c r="D38" t="s">
+        <v>537</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" t="s">
         <v>538</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F38" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -7600,7 +7603,7 @@
         <v>9</v>
       </c>
       <c r="F41" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -7620,7 +7623,7 @@
         <v>9</v>
       </c>
       <c r="F43" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -7640,7 +7643,7 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -7648,7 +7651,7 @@
         <v>98</v>
       </c>
       <c r="D46" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>9</v>
@@ -7659,7 +7662,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B48" t="s">
         <v>8</v>
@@ -7674,7 +7677,7 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -7682,7 +7685,7 @@
         <v>49</v>
       </c>
       <c r="D49" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>10</v>
@@ -7702,7 +7705,7 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -7716,7 +7719,7 @@
         <v>9</v>
       </c>
       <c r="F51" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -7730,7 +7733,7 @@
         <v>98</v>
       </c>
       <c r="D53" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>10</v>
@@ -7764,7 +7767,7 @@
         <v>9</v>
       </c>
       <c r="F55" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -7784,7 +7787,7 @@
         <v>9</v>
       </c>
       <c r="F57" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -7812,7 +7815,7 @@
         <v>98</v>
       </c>
       <c r="D60" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>10</v>
@@ -7832,7 +7835,7 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -7860,7 +7863,7 @@
         <v>98</v>
       </c>
       <c r="D64" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>10</v>
@@ -7888,7 +7891,7 @@
         <v>49</v>
       </c>
       <c r="D66" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>9</v>
@@ -7914,7 +7917,7 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -7922,7 +7925,7 @@
         <v>48</v>
       </c>
       <c r="D69" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>9</v>
@@ -7984,7 +7987,7 @@
         <v>0</v>
       </c>
       <c r="D74" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>10</v>
@@ -7998,7 +8001,7 @@
         <v>15</v>
       </c>
       <c r="D75" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>9</v>
@@ -8043,7 +8046,7 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B80" t="s">
         <v>8</v>
@@ -8072,7 +8075,7 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="82" spans="3:6" x14ac:dyDescent="0.25">
@@ -8086,7 +8089,7 @@
         <v>9</v>
       </c>
       <c r="F82" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="83" spans="3:6" x14ac:dyDescent="0.25">
@@ -8094,13 +8097,13 @@
         <v>0</v>
       </c>
       <c r="D83" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F83" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
   </sheetData>
@@ -8192,8 +8195,8 @@
   </sheetPr>
   <dimension ref="A1:F99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="C91" sqref="C91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8228,7 +8231,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -8237,13 +8240,13 @@
         <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -8265,7 +8268,7 @@
         <v>50</v>
       </c>
       <c r="D4" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>10</v>
@@ -8279,7 +8282,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>10</v>
@@ -8299,7 +8302,7 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -8313,7 +8316,7 @@
         <v>159</v>
       </c>
       <c r="D8" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>10</v>
@@ -8327,7 +8330,7 @@
         <v>98</v>
       </c>
       <c r="D9" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>10</v>
@@ -8347,7 +8350,7 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -8361,7 +8364,7 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -8369,18 +8372,18 @@
         <v>50</v>
       </c>
       <c r="D12" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F12" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
@@ -8395,7 +8398,7 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -8409,12 +8412,12 @@
         <v>9</v>
       </c>
       <c r="F15" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
@@ -8423,13 +8426,13 @@
         <v>48</v>
       </c>
       <c r="D17" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -8463,7 +8466,7 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -8491,7 +8494,7 @@
         <v>98</v>
       </c>
       <c r="D23" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>10</v>
@@ -8525,12 +8528,12 @@
         <v>9</v>
       </c>
       <c r="F25" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B27" t="s">
         <v>8</v>
@@ -8539,13 +8542,13 @@
         <v>48</v>
       </c>
       <c r="D27" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -8553,7 +8556,7 @@
         <v>49</v>
       </c>
       <c r="D28" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>10</v>
@@ -8573,7 +8576,7 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -8587,7 +8590,7 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -8595,7 +8598,7 @@
         <v>15</v>
       </c>
       <c r="D31" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>10</v>
@@ -8615,7 +8618,7 @@
         <v>48</v>
       </c>
       <c r="D33" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>10</v>
@@ -8635,7 +8638,7 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -8649,7 +8652,7 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -8682,7 +8685,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B39" t="s">
         <v>33</v>
@@ -8691,13 +8694,13 @@
         <v>98</v>
       </c>
       <c r="D39" t="s">
+        <v>585</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" t="s">
         <v>586</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F39" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -8705,7 +8708,7 @@
         <v>48</v>
       </c>
       <c r="D40" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>10</v>
@@ -8733,7 +8736,7 @@
         <v>50</v>
       </c>
       <c r="D42" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>9</v>
@@ -8753,7 +8756,7 @@
         <v>98</v>
       </c>
       <c r="D44" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>10</v>
@@ -8773,7 +8776,7 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -8829,7 +8832,7 @@
         <v>159</v>
       </c>
       <c r="D50" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>10</v>
@@ -8891,7 +8894,7 @@
         <v>49</v>
       </c>
       <c r="D55" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>10</v>
@@ -8981,18 +8984,18 @@
         <v>48</v>
       </c>
       <c r="D62" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F62" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>433</v>
+        <v>660</v>
       </c>
       <c r="B64" t="s">
         <v>8</v>
@@ -9001,13 +9004,13 @@
         <v>48</v>
       </c>
       <c r="D64" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -9015,7 +9018,7 @@
         <v>49</v>
       </c>
       <c r="D65" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>10</v>
@@ -9035,7 +9038,7 @@
         <v>9</v>
       </c>
       <c r="F66" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -9063,13 +9066,13 @@
         <v>48</v>
       </c>
       <c r="D69" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F69" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -9117,7 +9120,7 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -9145,7 +9148,7 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -9173,7 +9176,7 @@
         <v>159</v>
       </c>
       <c r="D78" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>10</v>
@@ -9187,7 +9190,7 @@
         <v>98</v>
       </c>
       <c r="D79" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E79" s="3" t="s">
         <v>9</v>
@@ -9235,7 +9238,7 @@
         <v>0</v>
       </c>
       <c r="D83" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>10</v>
@@ -9260,7 +9263,7 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B86" t="s">
         <v>8</v>
@@ -9275,7 +9278,7 @@
         <v>9</v>
       </c>
       <c r="F86" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -9289,7 +9292,7 @@
         <v>98</v>
       </c>
       <c r="D88" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>10</v>
@@ -9303,7 +9306,7 @@
         <v>48</v>
       </c>
       <c r="D89" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>10</v>
@@ -9317,7 +9320,7 @@
         <v>49</v>
       </c>
       <c r="D90" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>10</v>
@@ -9331,7 +9334,7 @@
         <v>50</v>
       </c>
       <c r="D91" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E91" s="7" t="s">
         <v>10</v>
@@ -9379,7 +9382,7 @@
         <v>49</v>
       </c>
       <c r="D95" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E95" s="7" t="s">
         <v>199</v>
@@ -9413,13 +9416,13 @@
         <v>16</v>
       </c>
       <c r="D98" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -9427,7 +9430,7 @@
         <v>16</v>
       </c>
       <c r="D99" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>10</v>
@@ -9583,13 +9586,13 @@
         <v>50</v>
       </c>
       <c r="D3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -9597,7 +9600,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>10</v>
@@ -9617,7 +9620,7 @@
         <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -9637,12 +9640,12 @@
         <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
@@ -9651,7 +9654,7 @@
         <v>48</v>
       </c>
       <c r="D9" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>10</v>
@@ -9665,18 +9668,18 @@
         <v>49</v>
       </c>
       <c r="D10" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
@@ -9691,7 +9694,7 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -9713,7 +9716,7 @@
         <v>50</v>
       </c>
       <c r="D14" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>10</v>
@@ -9727,7 +9730,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>9</v>
@@ -9747,7 +9750,7 @@
         <v>98</v>
       </c>
       <c r="D17" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>10</v>
@@ -9761,13 +9764,13 @@
         <v>48</v>
       </c>
       <c r="D18" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F18" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -9781,13 +9784,13 @@
         <v>98</v>
       </c>
       <c r="D20" t="s">
+        <v>610</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" t="s">
         <v>611</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -9795,7 +9798,7 @@
         <v>48</v>
       </c>
       <c r="D21" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>9</v>
@@ -9815,7 +9818,7 @@
         <v>48</v>
       </c>
       <c r="D23" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>9</v>
@@ -9826,7 +9829,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B25" t="s">
         <v>33</v>
@@ -9835,13 +9838,13 @@
         <v>98</v>
       </c>
       <c r="D25" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -9869,7 +9872,7 @@
         <v>9</v>
       </c>
       <c r="F27" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -9883,13 +9886,13 @@
         <v>48</v>
       </c>
       <c r="D29" t="s">
+        <v>613</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" t="s">
         <v>614</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F29" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -9909,7 +9912,7 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -9917,7 +9920,7 @@
         <v>98</v>
       </c>
       <c r="D32" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>10</v>
@@ -9931,7 +9934,7 @@
         <v>48</v>
       </c>
       <c r="D33" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>10</v>
@@ -9951,7 +9954,7 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -9993,13 +9996,13 @@
         <v>98</v>
       </c>
       <c r="D38" t="s">
+        <v>619</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" t="s">
         <v>620</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F38" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -10013,7 +10016,7 @@
         <v>159</v>
       </c>
       <c r="D40" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>10</v>
@@ -10027,7 +10030,7 @@
         <v>98</v>
       </c>
       <c r="D41" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>9</v>
@@ -10061,7 +10064,7 @@
         <v>49</v>
       </c>
       <c r="D44" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>10</v>
@@ -10075,7 +10078,7 @@
         <v>50</v>
       </c>
       <c r="D45" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>9</v>
@@ -10101,7 +10104,7 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -10149,7 +10152,7 @@
         <v>49</v>
       </c>
       <c r="D52" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>10</v>
@@ -10174,7 +10177,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B55" t="s">
         <v>8</v>
@@ -10183,7 +10186,7 @@
         <v>98</v>
       </c>
       <c r="D55" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>10</v>
@@ -10197,7 +10200,7 @@
         <v>48</v>
       </c>
       <c r="D56" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>10</v>
@@ -10211,13 +10214,13 @@
         <v>49</v>
       </c>
       <c r="D57" t="s">
+        <v>624</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F57" t="s">
         <v>625</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F57" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -10265,7 +10268,7 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -10293,7 +10296,7 @@
         <v>9</v>
       </c>
       <c r="F63" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -10307,7 +10310,7 @@
         <v>48</v>
       </c>
       <c r="D65" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>10</v>
@@ -10321,13 +10324,13 @@
         <v>49</v>
       </c>
       <c r="D66" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F66" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
   </sheetData>
@@ -10394,7 +10397,7 @@
   </sheetPr>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D33" sqref="D33:D35"/>
     </sheetView>
   </sheetViews>
@@ -10430,7 +10433,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -10439,7 +10442,7 @@
         <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>9</v>
@@ -10459,7 +10462,7 @@
         <v>48</v>
       </c>
       <c r="D4" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>9</v>
@@ -10479,7 +10482,7 @@
         <v>159</v>
       </c>
       <c r="D6" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>10</v>
@@ -10507,18 +10510,18 @@
         <v>48</v>
       </c>
       <c r="D8" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F8" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
@@ -10527,7 +10530,7 @@
         <v>49</v>
       </c>
       <c r="D10" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>10</v>
@@ -10541,7 +10544,7 @@
         <v>50</v>
       </c>
       <c r="D11" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>10</v>
@@ -10566,7 +10569,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
@@ -10575,7 +10578,7 @@
         <v>48</v>
       </c>
       <c r="D14" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>10</v>
@@ -10589,13 +10592,13 @@
         <v>49</v>
       </c>
       <c r="D15" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -10623,13 +10626,13 @@
         <v>98</v>
       </c>
       <c r="D18" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -10637,7 +10640,7 @@
         <v>48</v>
       </c>
       <c r="D19" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>9</v>
@@ -10657,7 +10660,7 @@
         <v>98</v>
       </c>
       <c r="D21" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>10</v>
@@ -10691,13 +10694,13 @@
         <v>48</v>
       </c>
       <c r="D24" t="s">
+        <v>638</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" t="s">
         <v>639</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" t="s">
-        <v>640</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -10705,18 +10708,18 @@
         <v>49</v>
       </c>
       <c r="D25" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F25" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B27" t="s">
         <v>33</v>
@@ -10725,13 +10728,13 @@
         <v>98</v>
       </c>
       <c r="D27" t="s">
+        <v>640</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" t="s">
         <v>641</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27" t="s">
-        <v>642</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -10739,13 +10742,13 @@
         <v>48</v>
       </c>
       <c r="D28" t="s">
+        <v>642</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" t="s">
         <v>643</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F28" t="s">
-        <v>644</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -10765,7 +10768,7 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -10779,7 +10782,7 @@
         <v>9</v>
       </c>
       <c r="F31" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -10793,13 +10796,13 @@
         <v>159</v>
       </c>
       <c r="D33" t="s">
+        <v>645</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" t="s">
         <v>646</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F33" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -10807,7 +10810,7 @@
         <v>98</v>
       </c>
       <c r="D34" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>10</v>
@@ -10832,7 +10835,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B37" t="s">
         <v>88</v>
@@ -10855,7 +10858,7 @@
         <v>49</v>
       </c>
       <c r="D38" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>10</v>
@@ -10869,13 +10872,13 @@
         <v>50</v>
       </c>
       <c r="D39" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F39" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -10889,7 +10892,7 @@
         <v>159</v>
       </c>
       <c r="D41" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>9</v>
@@ -10915,7 +10918,7 @@
         <v>9</v>
       </c>
       <c r="F43" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -10929,7 +10932,7 @@
         <v>98</v>
       </c>
       <c r="D45" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>9</v>
@@ -10949,13 +10952,13 @@
         <v>159</v>
       </c>
       <c r="D47" t="s">
+        <v>652</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F47" t="s">
         <v>653</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F47" t="s">
-        <v>654</v>
       </c>
     </row>
   </sheetData>
@@ -12224,7 +12227,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
@@ -12258,7 +12261,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B18" t="s">
         <v>8</v>
@@ -14452,7 +14455,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B53" t="s">
         <v>88</v>
@@ -14883,7 +14886,7 @@
   </sheetPr>
   <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
@@ -15071,7 +15074,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
@@ -15105,7 +15108,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
@@ -15927,7 +15930,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
@@ -16432,7 +16435,7 @@
   <dimension ref="A1:F74"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A72" sqref="A72"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16741,7 +16744,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B26" t="s">
         <v>33</v>
@@ -16795,7 +16798,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B31" t="s">
         <v>88</v>
@@ -16849,7 +16852,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>433</v>
+        <v>660</v>
       </c>
       <c r="B36" t="s">
         <v>8</v>
@@ -17281,7 +17284,7 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B72" t="s">
         <v>8</v>
@@ -17340,7 +17343,7 @@
   </sheetPr>
   <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="A25" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -17444,7 +17447,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -17574,7 +17577,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B19" t="s">
         <v>33</v>
@@ -17583,7 +17586,7 @@
         <v>98</v>
       </c>
       <c r="D19" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>9</v>
@@ -18162,7 +18165,7 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B69" t="s">
         <v>8</v>
